--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -661,20 +661,14 @@
         <v>39.84000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>39</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,20 +696,14 @@
         <v>39.75000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -743,20 +731,14 @@
         <v>39.67000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -790,14 +772,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -833,10 +813,12 @@
       <c r="J12" t="n">
         <v>39.4</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>39.3</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -874,10 +856,12 @@
       <c r="J13" t="n">
         <v>39.4</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>39.3</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -915,12 +899,10 @@
       <c r="J14" t="n">
         <v>39.4</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -954,12 +936,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -997,7 +981,9 @@
       <c r="J16" t="n">
         <v>38.7</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1038,7 +1024,9 @@
       <c r="J17" t="n">
         <v>38.7</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1071,15 +1059,15 @@
         <v>39.20500000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1112,15 +1100,15 @@
         <v>39.175</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>39</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1153,15 +1141,15 @@
         <v>39.16</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1194,15 +1182,15 @@
         <v>39.16</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,15 +1223,15 @@
         <v>39.175</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1276,15 +1264,15 @@
         <v>39.195</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1317,15 +1305,15 @@
         <v>39.19</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1366,7 +1354,9 @@
       <c r="J25" t="n">
         <v>39.5</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1399,15 +1389,15 @@
         <v>39.235</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,15 +1430,15 @@
         <v>39.26</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1481,15 +1471,15 @@
         <v>39.295</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1522,15 +1512,15 @@
         <v>39.32</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1563,15 +1553,15 @@
         <v>39.345</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,15 +1594,15 @@
         <v>39.375</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>40</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1645,15 +1635,15 @@
         <v>39.425</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1686,15 +1676,15 @@
         <v>39.47</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1733,7 +1723,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,7 +1764,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1811,7 +1805,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,7 +1846,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1889,7 +1887,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,7 +1928,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,7 +1969,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,7 +2010,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,7 +2051,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,7 +2092,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,16 +2130,20 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2157,11 +2171,17 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2212,17 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2230,8 +2256,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2265,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2300,8 +2338,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2379,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2370,8 +2420,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2405,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2440,8 +2502,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2472,11 +2540,17 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2507,11 +2581,17 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2542,11 +2622,17 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2580,8 +2666,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2707,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2650,8 +2748,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2685,8 +2789,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2720,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2755,8 +2871,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2790,8 +2912,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2825,8 +2953,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2860,8 +2994,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2895,8 +3035,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2930,8 +3076,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2965,8 +3117,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3000,8 +3158,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3035,8 +3199,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3070,8 +3240,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3105,8 +3281,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3140,8 +3322,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3175,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3210,8 +3404,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3245,8 +3445,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3280,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3315,8 +3527,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3350,8 +3568,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3385,8 +3609,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3420,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3455,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3525,8 +3773,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3560,8 +3814,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3595,8 +3855,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3630,8 +3896,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3665,8 +3937,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3700,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3735,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3805,8 +4101,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3840,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3875,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3910,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3945,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3980,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4015,8 +4347,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4050,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4470,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4511,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4552,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4225,8 +4593,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4260,8 +4634,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4295,8 +4675,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4330,8 +4716,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4365,8 +4757,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4400,8 +4798,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4435,8 +4839,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4470,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4505,8 +4921,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4540,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4575,8 +5003,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4610,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4680,8 +5126,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4715,8 +5167,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4750,8 +5208,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4785,8 +5249,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4820,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +5331,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4890,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +5413,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5454,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4995,8 +5495,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5030,8 +5536,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5065,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5100,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5135,8 +5659,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5170,8 +5700,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5310,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5380,8 +5946,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5412,13 +5984,19 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>1.096522842639594</v>
       </c>
     </row>
     <row r="139">
@@ -5447,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5482,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C2" t="n">
         <v>39.1</v>
       </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
       <c r="D2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E2" t="n">
         <v>39.1</v>
       </c>
-      <c r="E2" t="n">
-        <v>39</v>
-      </c>
       <c r="F2" t="n">
-        <v>9594.6181</v>
+        <v>8082.2167</v>
       </c>
       <c r="G2" t="n">
-        <v>40.31</v>
+        <v>40.20333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,32 +468,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C3" t="n">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>39.6</v>
-      </c>
       <c r="D3" t="n">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="E3" t="n">
         <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>14836.0707</v>
+        <v>9594.6181</v>
       </c>
       <c r="G3" t="n">
-        <v>40.225</v>
+        <v>40.215</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -503,22 +509,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
         <v>39.6</v>
       </c>
-      <c r="C4" t="n">
-        <v>39.8</v>
-      </c>
       <c r="D4" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="E4" t="n">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
-        <v>5853</v>
+        <v>14836.0707</v>
       </c>
       <c r="G4" t="n">
-        <v>40.185</v>
+        <v>40.22666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -528,7 +534,11 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,32 +548,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="C5" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D5" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E5" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="F5" t="n">
-        <v>5695.3716</v>
+        <v>5853</v>
       </c>
       <c r="G5" t="n">
-        <v>40.13000000000001</v>
+        <v>40.24833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>39.6</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="F6" t="n">
-        <v>5140.2992</v>
+        <v>5695.3716</v>
       </c>
       <c r="G6" t="n">
-        <v>40.03000000000001</v>
+        <v>40.25666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +614,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +628,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>18202.9131</v>
+        <v>5140.2992</v>
       </c>
       <c r="G7" t="n">
-        <v>39.94000000000001</v>
+        <v>40.25</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +653,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="C8" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="D8" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="F8" t="n">
-        <v>9046.284</v>
+        <v>18202.9131</v>
       </c>
       <c r="G8" t="n">
-        <v>39.84000000000001</v>
+        <v>40.24666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +692,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +706,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="E9" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>1274.5842</v>
+        <v>9046.284</v>
       </c>
       <c r="G9" t="n">
-        <v>39.75000000000001</v>
+        <v>40.23499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +731,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,32 +745,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C10" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="E10" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="F10" t="n">
-        <v>5994.1566</v>
+        <v>1274.5842</v>
       </c>
       <c r="G10" t="n">
-        <v>39.67000000000001</v>
+        <v>40.23999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +786,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="C11" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="E11" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>5994.1566</v>
       </c>
       <c r="G11" t="n">
-        <v>39.61000000000001</v>
+        <v>40.22999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -772,12 +810,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>39.2</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -799,10 +839,10 @@
         <v>39.4</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>39.55</v>
+        <v>40.22166666666666</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -811,14 +851,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K12" t="n">
         <v>39.3</v>
       </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -842,10 +880,10 @@
         <v>39.4</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>39.50500000000001</v>
+        <v>40.22166666666666</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -856,12 +894,10 @@
       <c r="J13" t="n">
         <v>39.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -885,24 +921,24 @@
         <v>39.4</v>
       </c>
       <c r="F14" t="n">
-        <v>8238.9252</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>39.465</v>
+        <v>40.20999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,38 +948,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="C15" t="n">
-        <v>38.7</v>
+        <v>39.4</v>
       </c>
       <c r="D15" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="E15" t="n">
-        <v>38.7</v>
+        <v>39.4</v>
       </c>
       <c r="F15" t="n">
-        <v>4398.6128</v>
+        <v>8238.9252</v>
       </c>
       <c r="G15" t="n">
-        <v>39.41500000000001</v>
+        <v>40.21666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -955,35 +987,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38.7</v>
+        <v>39.2</v>
       </c>
       <c r="C16" t="n">
         <v>38.7</v>
       </c>
       <c r="D16" t="n">
-        <v>38.7</v>
+        <v>39.2</v>
       </c>
       <c r="E16" t="n">
         <v>38.7</v>
       </c>
       <c r="F16" t="n">
-        <v>82</v>
+        <v>4398.6128</v>
       </c>
       <c r="G16" t="n">
-        <v>39.325</v>
+        <v>40.21166666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1010,23 +1038,19 @@
         <v>38.7</v>
       </c>
       <c r="F17" t="n">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="G17" t="n">
-        <v>39.25500000000001</v>
+        <v>40.20666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1041,33 +1065,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C18" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D18" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E18" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F18" t="n">
-        <v>12.5376</v>
+        <v>165</v>
       </c>
       <c r="G18" t="n">
-        <v>39.20500000000001</v>
+        <v>40.18499999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J18" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1082,33 +1106,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E19" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="F19" t="n">
-        <v>3846.153846153846</v>
+        <v>12.5376</v>
       </c>
       <c r="G19" t="n">
-        <v>39.175</v>
+        <v>40.16333333333332</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J19" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1123,33 +1147,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>3846.153846153846</v>
       </c>
       <c r="G20" t="n">
-        <v>39.16</v>
+        <v>40.14499999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J20" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1176,21 +1200,21 @@
         <v>39.3</v>
       </c>
       <c r="F21" t="n">
-        <v>584.9605</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>39.16</v>
+        <v>40.13166666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J21" t="n">
+        <v>39</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1205,22 +1229,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="C22" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="D22" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="E22" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1653.3453</v>
+        <v>584.9605</v>
       </c>
       <c r="G22" t="n">
-        <v>39.175</v>
+        <v>40.11833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1229,9 +1253,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,10 +1280,10 @@
         <v>39.4</v>
       </c>
       <c r="F23" t="n">
-        <v>790</v>
+        <v>1653.3453</v>
       </c>
       <c r="G23" t="n">
-        <v>39.195</v>
+        <v>40.10666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1270,9 +1292,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1287,22 +1307,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C24" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="D24" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="E24" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F24" t="n">
-        <v>17450.9999</v>
+        <v>790</v>
       </c>
       <c r="G24" t="n">
-        <v>39.19</v>
+        <v>40.09500000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1311,9 +1331,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1340,23 +1358,19 @@
         <v>39.5</v>
       </c>
       <c r="F25" t="n">
-        <v>849.1204</v>
+        <v>17450.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>39.205</v>
+        <v>40.08500000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1371,22 +1385,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="D26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="E26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="F26" t="n">
-        <v>12668.8733</v>
+        <v>849.1204</v>
       </c>
       <c r="G26" t="n">
-        <v>39.235</v>
+        <v>40.07666666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1395,9 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,22 +1424,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="C27" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="D27" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="E27" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="F27" t="n">
-        <v>81804</v>
+        <v>12668.8733</v>
       </c>
       <c r="G27" t="n">
-        <v>39.26</v>
+        <v>40.06833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1436,9 +1448,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1465,10 +1475,10 @@
         <v>39.7</v>
       </c>
       <c r="F28" t="n">
-        <v>27951</v>
+        <v>81804</v>
       </c>
       <c r="G28" t="n">
-        <v>39.295</v>
+        <v>40.04166666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1477,9 +1487,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1506,10 +1514,10 @@
         <v>39.7</v>
       </c>
       <c r="F29" t="n">
-        <v>952.1566</v>
+        <v>27951</v>
       </c>
       <c r="G29" t="n">
-        <v>39.32</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1518,9 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1535,22 +1541,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="C30" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="D30" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="E30" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="F30" t="n">
-        <v>6310.9389</v>
+        <v>952.1566</v>
       </c>
       <c r="G30" t="n">
-        <v>39.345</v>
+        <v>39.98333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1559,9 +1565,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,22 +1580,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>6310.9389</v>
       </c>
       <c r="G31" t="n">
-        <v>39.375</v>
+        <v>39.95166666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1600,9 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1617,22 +1619,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="C32" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>29241</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>39.425</v>
+        <v>39.93166666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1641,9 +1643,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,22 +1658,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="C33" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="D33" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="E33" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="F33" t="n">
-        <v>8519.9998</v>
+        <v>29241</v>
       </c>
       <c r="G33" t="n">
-        <v>39.47</v>
+        <v>39.91833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1682,9 +1682,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,19 +1700,19 @@
         <v>40.3</v>
       </c>
       <c r="C34" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D34" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="E34" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="F34" t="n">
-        <v>11062.9561</v>
+        <v>8519.9998</v>
       </c>
       <c r="G34" t="n">
-        <v>39.515</v>
+        <v>39.90166666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1723,9 +1721,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,22 +1736,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D35" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E35" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="F35" t="n">
-        <v>2443.927825365854</v>
+        <v>11062.9561</v>
       </c>
       <c r="G35" t="n">
-        <v>39.58499999999999</v>
+        <v>39.89500000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1764,9 +1760,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1781,22 +1775,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="C36" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="F36" t="n">
-        <v>2356.8901</v>
+        <v>2443.927825365854</v>
       </c>
       <c r="G36" t="n">
-        <v>39.69499999999999</v>
+        <v>39.88666666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1805,9 +1799,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1822,22 +1814,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="C37" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="D37" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="E37" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="F37" t="n">
-        <v>5815.2535</v>
+        <v>2356.8901</v>
       </c>
       <c r="G37" t="n">
-        <v>39.79499999999999</v>
+        <v>39.89500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1846,9 +1838,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1863,22 +1853,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="C38" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="D38" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="E38" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="F38" t="n">
-        <v>5233.7281</v>
+        <v>5815.2535</v>
       </c>
       <c r="G38" t="n">
-        <v>39.885</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1887,9 +1877,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1907,45 +1895,41 @@
         <v>40.6</v>
       </c>
       <c r="C39" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="D39" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="E39" t="n">
         <v>40.6</v>
       </c>
       <c r="F39" t="n">
-        <v>8403.729600000001</v>
+        <v>5233.7281</v>
       </c>
       <c r="G39" t="n">
-        <v>39.965</v>
+        <v>39.90833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="C40" t="n">
         <v>40.8</v>
@@ -1954,13 +1938,13 @@
         <v>40.8</v>
       </c>
       <c r="E40" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="F40" t="n">
-        <v>2290.7713</v>
+        <v>8403.729600000001</v>
       </c>
       <c r="G40" t="n">
-        <v>40.04</v>
+        <v>39.90500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1969,14 +1953,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +1964,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="C41" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="D41" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="E41" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="F41" t="n">
-        <v>1907.6939</v>
+        <v>2290.7713</v>
       </c>
       <c r="G41" t="n">
-        <v>40.11</v>
+        <v>39.90166666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2010,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2027,22 +1999,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="D42" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="E42" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="F42" t="n">
-        <v>1623</v>
+        <v>1907.6939</v>
       </c>
       <c r="G42" t="n">
-        <v>40.18</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2051,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2068,22 +2034,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="C43" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D43" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="E43" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1173.8099</v>
+        <v>1623</v>
       </c>
       <c r="G43" t="n">
-        <v>40.235</v>
+        <v>39.90333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2092,14 +2058,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2109,22 +2069,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="C44" t="n">
         <v>40.4</v>
       </c>
       <c r="D44" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="E44" t="n">
         <v>40.4</v>
       </c>
       <c r="F44" t="n">
-        <v>238.2805</v>
+        <v>1173.8099</v>
       </c>
       <c r="G44" t="n">
-        <v>40.28</v>
+        <v>39.89833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2133,14 +2093,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2162,10 +2116,10 @@
         <v>40.4</v>
       </c>
       <c r="F45" t="n">
-        <v>1808.9999</v>
+        <v>238.2805</v>
       </c>
       <c r="G45" t="n">
-        <v>40.325</v>
+        <v>39.89833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2174,14 +2128,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2203,10 +2151,10 @@
         <v>40.4</v>
       </c>
       <c r="F46" t="n">
-        <v>22262.8998</v>
+        <v>1808.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>40.36499999999999</v>
+        <v>39.89333333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2215,14 +2163,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2235,19 +2177,19 @@
         <v>40.4</v>
       </c>
       <c r="C47" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="D47" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="E47" t="n">
         <v>40.4</v>
       </c>
       <c r="F47" t="n">
-        <v>30435.2142</v>
+        <v>22262.8998</v>
       </c>
       <c r="G47" t="n">
-        <v>40.39999999999999</v>
+        <v>39.88333333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2256,14 +2198,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2273,22 +2209,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C48" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="D48" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="E48" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>30435.2142</v>
       </c>
       <c r="G48" t="n">
-        <v>40.45999999999999</v>
+        <v>39.88000000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2297,14 +2233,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2326,10 +2256,10 @@
         <v>40.9</v>
       </c>
       <c r="F49" t="n">
-        <v>3867.7194</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>40.51999999999999</v>
+        <v>39.87833333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2338,14 +2268,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2355,22 +2279,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="D50" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="E50" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="F50" t="n">
-        <v>2726.2231</v>
+        <v>3867.7194</v>
       </c>
       <c r="G50" t="n">
-        <v>40.57999999999999</v>
+        <v>39.88000000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2379,14 +2303,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2408,10 +2326,10 @@
         <v>41</v>
       </c>
       <c r="F51" t="n">
-        <v>817.4386</v>
+        <v>2726.2231</v>
       </c>
       <c r="G51" t="n">
-        <v>40.62999999999999</v>
+        <v>39.88166666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2420,14 +2338,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2449,10 +2361,10 @@
         <v>41</v>
       </c>
       <c r="F52" t="n">
-        <v>91588.1452</v>
+        <v>817.4386</v>
       </c>
       <c r="G52" t="n">
-        <v>40.65999999999999</v>
+        <v>39.88833333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2461,14 +2373,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2478,22 +2384,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="E53" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="F53" t="n">
-        <v>17800.0069</v>
+        <v>91588.1452</v>
       </c>
       <c r="G53" t="n">
-        <v>40.7</v>
+        <v>39.89000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2502,14 +2408,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2519,7 +2419,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="C54" t="n">
         <v>41.3</v>
@@ -2528,13 +2428,13 @@
         <v>41.3</v>
       </c>
       <c r="E54" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="F54" t="n">
-        <v>6072.8973</v>
+        <v>17800.0069</v>
       </c>
       <c r="G54" t="n">
-        <v>40.74999999999999</v>
+        <v>39.90666666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2543,14 +2443,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2563,19 +2457,19 @@
         <v>41.3</v>
       </c>
       <c r="C55" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D55" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E55" t="n">
         <v>41.3</v>
       </c>
       <c r="F55" t="n">
-        <v>17794.0579</v>
+        <v>6072.8973</v>
       </c>
       <c r="G55" t="n">
-        <v>40.78499999999999</v>
+        <v>39.92500000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2584,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2601,22 +2489,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C56" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="D56" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="E56" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="F56" t="n">
-        <v>6212.315</v>
+        <v>17794.0579</v>
       </c>
       <c r="G56" t="n">
-        <v>40.78999999999999</v>
+        <v>39.94500000000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2625,14 +2513,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2645,19 +2527,19 @@
         <v>41</v>
       </c>
       <c r="C57" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D57" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E57" t="n">
         <v>41</v>
       </c>
       <c r="F57" t="n">
-        <v>22032</v>
+        <v>6212.315</v>
       </c>
       <c r="G57" t="n">
-        <v>40.80499999999999</v>
+        <v>39.95333333333336</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2666,14 +2548,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2559,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="C58" t="n">
-        <v>40.1</v>
+        <v>41.4</v>
       </c>
       <c r="D58" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="E58" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F58" t="n">
-        <v>33667.5145</v>
+        <v>22032</v>
       </c>
       <c r="G58" t="n">
-        <v>40.81499999999998</v>
+        <v>39.97833333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2707,14 +2583,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2724,22 +2594,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C59" t="n">
         <v>40.1</v>
       </c>
       <c r="D59" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="E59" t="n">
         <v>40.1</v>
       </c>
       <c r="F59" t="n">
-        <v>35660.361</v>
+        <v>33667.5145</v>
       </c>
       <c r="G59" t="n">
-        <v>40.83499999999999</v>
+        <v>39.98500000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2748,14 +2618,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2765,22 +2629,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C60" t="n">
-        <v>41.2</v>
+        <v>40.1</v>
       </c>
       <c r="D60" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="E60" t="n">
-        <v>41.2</v>
+        <v>40.1</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>35660.361</v>
       </c>
       <c r="G60" t="n">
-        <v>40.85499999999999</v>
+        <v>39.99333333333336</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2789,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +2664,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="C61" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="D61" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="E61" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="F61" t="n">
-        <v>1231.343</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>40.83499999999999</v>
+        <v>40.02166666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2830,14 +2688,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2847,22 +2699,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C62" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="D62" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E62" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>1231.343</v>
       </c>
       <c r="G62" t="n">
-        <v>40.80499999999999</v>
+        <v>40.0416666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2871,14 +2723,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +2734,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="C63" t="n">
         <v>40.1</v>
       </c>
       <c r="D63" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="E63" t="n">
         <v>40.1</v>
       </c>
       <c r="F63" t="n">
-        <v>516.8754</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="n">
-        <v>40.78499999999999</v>
+        <v>40.06000000000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2912,14 +2758,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2929,22 +2769,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="C64" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="E64" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="F64" t="n">
-        <v>11855.4401</v>
+        <v>516.8754</v>
       </c>
       <c r="G64" t="n">
-        <v>40.76499999999999</v>
+        <v>40.06833333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2953,14 +2793,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +2804,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="C65" t="n">
         <v>39.6</v>
       </c>
       <c r="D65" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
         <v>39.6</v>
       </c>
       <c r="F65" t="n">
-        <v>53359.4808</v>
+        <v>11855.4401</v>
       </c>
       <c r="G65" t="n">
-        <v>40.74999999999999</v>
+        <v>40.06500000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2994,14 +2828,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3011,22 +2839,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="C66" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="D66" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="E66" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="F66" t="n">
-        <v>1231.343</v>
+        <v>53359.4808</v>
       </c>
       <c r="G66" t="n">
-        <v>40.72499999999999</v>
+        <v>40.07166666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3035,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +2874,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="E67" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="F67" t="n">
-        <v>6900</v>
+        <v>1231.343</v>
       </c>
       <c r="G67" t="n">
-        <v>40.705</v>
+        <v>40.08666666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3076,14 +2898,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +2909,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="C68" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="E68" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="F68" t="n">
-        <v>36300</v>
+        <v>6900</v>
       </c>
       <c r="G68" t="n">
-        <v>40.665</v>
+        <v>40.10000000000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3117,14 +2933,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3146,10 +2956,10 @@
         <v>40.1</v>
       </c>
       <c r="F69" t="n">
-        <v>3650</v>
+        <v>36300</v>
       </c>
       <c r="G69" t="n">
-        <v>40.625</v>
+        <v>40.11833333333336</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3158,14 +2968,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3175,7 +2979,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="C70" t="n">
         <v>40.2</v>
@@ -3184,13 +2988,13 @@
         <v>40.2</v>
       </c>
       <c r="E70" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="F70" t="n">
-        <v>9600</v>
+        <v>3650</v>
       </c>
       <c r="G70" t="n">
-        <v>40.585</v>
+        <v>40.13500000000003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3199,14 +3003,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3219,19 +3017,19 @@
         <v>40.2</v>
       </c>
       <c r="C71" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="D71" t="n">
-        <v>40.9</v>
+        <v>40.2</v>
       </c>
       <c r="E71" t="n">
         <v>40.2</v>
       </c>
       <c r="F71" t="n">
-        <v>21806.2962</v>
+        <v>9600</v>
       </c>
       <c r="G71" t="n">
-        <v>40.545</v>
+        <v>40.15000000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3240,14 +3038,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3257,22 +3049,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="C72" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="D72" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="E72" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F72" t="n">
-        <v>18300</v>
+        <v>21806.2962</v>
       </c>
       <c r="G72" t="n">
-        <v>40.545</v>
+        <v>40.17000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3281,14 +3073,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3298,7 +3084,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C73" t="n">
         <v>41.2</v>
@@ -3307,13 +3093,13 @@
         <v>41.2</v>
       </c>
       <c r="E73" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F73" t="n">
-        <v>23116.7961</v>
+        <v>18300</v>
       </c>
       <c r="G73" t="n">
-        <v>40.55</v>
+        <v>40.20000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3322,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3339,22 +3119,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="C74" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="D74" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="E74" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>23116.7961</v>
       </c>
       <c r="G74" t="n">
-        <v>40.53500000000001</v>
+        <v>40.23000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3363,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3392,10 +3166,10 @@
         <v>41</v>
       </c>
       <c r="F75" t="n">
-        <v>7534.5169</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>40.52000000000001</v>
+        <v>40.25666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3404,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3421,22 +3189,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="E76" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="F76" t="n">
-        <v>49.261</v>
+        <v>7534.5169</v>
       </c>
       <c r="G76" t="n">
-        <v>40.50000000000001</v>
+        <v>40.29500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3445,14 +3213,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3474,10 +3236,10 @@
         <v>40.6</v>
       </c>
       <c r="F77" t="n">
-        <v>1436.9376</v>
+        <v>49.261</v>
       </c>
       <c r="G77" t="n">
-        <v>40.48000000000001</v>
+        <v>40.32666666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3486,14 +3248,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3503,22 +3259,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="C78" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="D78" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="E78" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>1436.9376</v>
       </c>
       <c r="G78" t="n">
-        <v>40.46000000000002</v>
+        <v>40.35833333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3527,14 +3283,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3544,22 +3294,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C79" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D79" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E79" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F79" t="n">
-        <v>17700</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>40.46000000000002</v>
+        <v>40.38500000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3568,14 +3318,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3585,22 +3329,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C80" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D80" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E80" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F80" t="n">
-        <v>142504.7877</v>
+        <v>17700</v>
       </c>
       <c r="G80" t="n">
-        <v>40.46500000000001</v>
+        <v>40.42500000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3609,14 +3353,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3626,22 +3364,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C81" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D81" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E81" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2642.3467</v>
+        <v>142504.7877</v>
       </c>
       <c r="G81" t="n">
-        <v>40.52000000000001</v>
+        <v>40.46166666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3650,14 +3388,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3679,10 +3411,10 @@
         <v>41.4</v>
       </c>
       <c r="F82" t="n">
-        <v>4518.4132</v>
+        <v>2642.3467</v>
       </c>
       <c r="G82" t="n">
-        <v>40.58000000000001</v>
+        <v>40.49666666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3691,14 +3423,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3720,10 +3446,10 @@
         <v>41.4</v>
       </c>
       <c r="F83" t="n">
-        <v>1211</v>
+        <v>4518.4132</v>
       </c>
       <c r="G83" t="n">
-        <v>40.645</v>
+        <v>40.53000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3732,14 +3458,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3752,19 +3472,19 @@
         <v>41.4</v>
       </c>
       <c r="C84" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D84" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E84" t="n">
         <v>41.4</v>
       </c>
       <c r="F84" t="n">
-        <v>8100</v>
+        <v>1211</v>
       </c>
       <c r="G84" t="n">
-        <v>40.715</v>
+        <v>40.56333333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3773,14 +3493,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3793,19 +3507,19 @@
         <v>41.4</v>
       </c>
       <c r="C85" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D85" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E85" t="n">
         <v>41.4</v>
       </c>
       <c r="F85" t="n">
-        <v>3976</v>
+        <v>8100</v>
       </c>
       <c r="G85" t="n">
-        <v>40.78</v>
+        <v>40.59666666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3814,14 +3528,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3831,22 +3539,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="C86" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="D86" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E86" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="F86" t="n">
-        <v>12.1359</v>
+        <v>3976</v>
       </c>
       <c r="G86" t="n">
-        <v>40.84500000000001</v>
+        <v>40.62833333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3855,14 +3563,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +3574,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="C87" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="D87" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="E87" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="F87" t="n">
-        <v>12.1654</v>
+        <v>12.1359</v>
       </c>
       <c r="G87" t="n">
-        <v>40.90000000000001</v>
+        <v>40.65500000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3896,14 +3598,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3913,22 +3609,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="C88" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="D88" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="E88" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="F88" t="n">
-        <v>24.3902</v>
+        <v>12.1654</v>
       </c>
       <c r="G88" t="n">
-        <v>40.94500000000001</v>
+        <v>40.67833333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3937,14 +3633,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3954,22 +3644,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="C89" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="D89" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="E89" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F89" t="n">
-        <v>23059.0041</v>
+        <v>24.3902</v>
       </c>
       <c r="G89" t="n">
-        <v>40.985</v>
+        <v>40.70000000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3978,14 +3668,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3995,22 +3679,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="C90" t="n">
         <v>40.8</v>
       </c>
       <c r="D90" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="E90" t="n">
         <v>40.8</v>
       </c>
       <c r="F90" t="n">
-        <v>15993</v>
+        <v>23059.0041</v>
       </c>
       <c r="G90" t="n">
-        <v>41.015</v>
+        <v>40.71833333333336</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4019,14 +3703,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +3714,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="C91" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="D91" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="E91" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="F91" t="n">
-        <v>22218.3372</v>
+        <v>15993</v>
       </c>
       <c r="G91" t="n">
-        <v>41.02999999999999</v>
+        <v>40.73500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4060,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4077,22 +3749,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="C92" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="D92" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="E92" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1016.1053</v>
+        <v>22218.3372</v>
       </c>
       <c r="G92" t="n">
-        <v>41.02</v>
+        <v>40.74333333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4101,14 +3773,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4118,22 +3784,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="C93" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="D93" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="E93" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="F93" t="n">
-        <v>36150</v>
+        <v>1016.1053</v>
       </c>
       <c r="G93" t="n">
-        <v>40.97999999999999</v>
+        <v>40.75000000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4142,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +3819,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="C94" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="D94" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="E94" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>36150</v>
       </c>
       <c r="G94" t="n">
-        <v>40.95999999999999</v>
+        <v>40.75333333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4183,14 +3843,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4200,22 +3854,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C95" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="D95" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="E95" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F95" t="n">
-        <v>3000</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>40.91499999999999</v>
+        <v>40.75666666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4224,14 +3878,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4241,22 +3889,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="C96" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D96" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="E96" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="F96" t="n">
-        <v>123.5241</v>
+        <v>3000</v>
       </c>
       <c r="G96" t="n">
-        <v>40.90499999999999</v>
+        <v>40.74166666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4265,14 +3913,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4282,7 +3924,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="C97" t="n">
         <v>40.4</v>
@@ -4291,13 +3933,13 @@
         <v>40.4</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>40.4</v>
       </c>
       <c r="F97" t="n">
-        <v>18854.6806</v>
+        <v>123.5241</v>
       </c>
       <c r="G97" t="n">
-        <v>40.87999999999999</v>
+        <v>40.73333333333336</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4306,14 +3948,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4323,22 +3959,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="C98" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="D98" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="E98" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="F98" t="n">
-        <v>4975.0623</v>
+        <v>18854.6806</v>
       </c>
       <c r="G98" t="n">
-        <v>40.81999999999999</v>
+        <v>40.72833333333336</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4347,14 +3983,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4376,10 +4006,10 @@
         <v>39.2</v>
       </c>
       <c r="F99" t="n">
-        <v>7795.18</v>
+        <v>4975.0623</v>
       </c>
       <c r="G99" t="n">
-        <v>40.73</v>
+        <v>40.70500000000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4388,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4417,10 +4041,10 @@
         <v>39.2</v>
       </c>
       <c r="F100" t="n">
-        <v>3512.994</v>
+        <v>7795.18</v>
       </c>
       <c r="G100" t="n">
-        <v>40.625</v>
+        <v>40.67833333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4429,14 +4053,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +4064,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="C101" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="D101" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E101" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="F101" t="n">
-        <v>2400</v>
+        <v>3512.994</v>
       </c>
       <c r="G101" t="n">
-        <v>40.505</v>
+        <v>40.65166666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4470,14 +4088,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4487,22 +4099,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="C102" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D102" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="E102" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F102" t="n">
-        <v>661.826</v>
+        <v>2400</v>
       </c>
       <c r="G102" t="n">
-        <v>40.37</v>
+        <v>40.62166666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4511,14 +4123,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4134,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="C103" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="D103" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="E103" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="F103" t="n">
-        <v>11</v>
+        <v>661.826</v>
       </c>
       <c r="G103" t="n">
-        <v>40.28000000000001</v>
+        <v>40.58333333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4552,14 +4158,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4569,22 +4169,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="C104" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="D104" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="E104" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F104" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>40.22000000000001</v>
+        <v>40.57000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4593,14 +4193,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4610,22 +4204,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="C105" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="D105" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="E105" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="F105" t="n">
-        <v>5790.6316</v>
+        <v>25</v>
       </c>
       <c r="G105" t="n">
-        <v>40.12500000000001</v>
+        <v>40.56666666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4634,14 +4228,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4651,22 +4239,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>40.2</v>
+        <v>39.5</v>
       </c>
       <c r="C106" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D106" t="n">
-        <v>40.3</v>
+        <v>39.5</v>
       </c>
       <c r="E106" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F106" t="n">
-        <v>21253.277</v>
+        <v>5790.6316</v>
       </c>
       <c r="G106" t="n">
-        <v>40.07500000000001</v>
+        <v>40.55166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4675,14 +4263,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4274,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="C107" t="n">
-        <v>40.7</v>
+        <v>40.1</v>
       </c>
       <c r="D107" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="E107" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="F107" t="n">
-        <v>20700</v>
+        <v>21253.277</v>
       </c>
       <c r="G107" t="n">
-        <v>40.04000000000001</v>
+        <v>40.54666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4716,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4733,22 +4309,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="C108" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="D108" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="E108" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="F108" t="n">
-        <v>5700</v>
+        <v>20700</v>
       </c>
       <c r="G108" t="n">
-        <v>40.03000000000001</v>
+        <v>40.54499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4757,14 +4333,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4774,22 +4344,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C109" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="D109" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="E109" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F109" t="n">
-        <v>2250</v>
+        <v>5700</v>
       </c>
       <c r="G109" t="n">
-        <v>40.03500000000001</v>
+        <v>40.54499999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4798,14 +4368,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4815,22 +4379,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="C110" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="D110" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="E110" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="F110" t="n">
-        <v>1363.8397</v>
+        <v>2250</v>
       </c>
       <c r="G110" t="n">
-        <v>40.03000000000002</v>
+        <v>40.54999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4839,14 +4403,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4856,22 +4414,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="C111" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="D111" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="E111" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="F111" t="n">
-        <v>1209.6956</v>
+        <v>1363.8397</v>
       </c>
       <c r="G111" t="n">
-        <v>40.03500000000001</v>
+        <v>40.54499999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4880,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4900,19 +4452,19 @@
         <v>40.6</v>
       </c>
       <c r="C112" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="D112" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="E112" t="n">
         <v>40.6</v>
       </c>
       <c r="F112" t="n">
-        <v>21947.6338</v>
+        <v>1209.6956</v>
       </c>
       <c r="G112" t="n">
-        <v>40.02500000000002</v>
+        <v>40.53833333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4921,14 +4473,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4938,22 +4484,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="C113" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="D113" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E113" t="n">
         <v>40.6</v>
       </c>
       <c r="F113" t="n">
-        <v>1319</v>
+        <v>21947.6338</v>
       </c>
       <c r="G113" t="n">
-        <v>40.04000000000002</v>
+        <v>40.54499999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4962,14 +4508,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4979,22 +4519,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="C114" t="n">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="D114" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="E114" t="n">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>1319</v>
       </c>
       <c r="G114" t="n">
-        <v>40.07500000000002</v>
+        <v>40.53333333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5003,14 +4543,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5023,19 +4557,19 @@
         <v>41.3</v>
       </c>
       <c r="C115" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D115" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E115" t="n">
-        <v>40.7</v>
+        <v>41.3</v>
       </c>
       <c r="F115" t="n">
-        <v>4933.2083</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>40.13500000000001</v>
+        <v>40.53333333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5044,14 +4578,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5061,22 +4589,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="C116" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="D116" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="E116" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="F116" t="n">
-        <v>14775.9999</v>
+        <v>4933.2083</v>
       </c>
       <c r="G116" t="n">
-        <v>40.17000000000002</v>
+        <v>40.53333333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5085,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5102,22 +4624,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="C117" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="D117" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="E117" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F117" t="n">
-        <v>9236.3264</v>
+        <v>14775.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>40.23000000000001</v>
+        <v>40.53333333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5126,14 +4648,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5143,22 +4659,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="C118" t="n">
         <v>40.8</v>
       </c>
       <c r="D118" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="E118" t="n">
         <v>40.8</v>
       </c>
       <c r="F118" t="n">
-        <v>22713.7483</v>
+        <v>9236.3264</v>
       </c>
       <c r="G118" t="n">
-        <v>40.31000000000001</v>
+        <v>40.52333333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5167,14 +4683,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5184,22 +4694,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C119" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D119" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="E119" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="F119" t="n">
-        <v>7495.3883</v>
+        <v>22713.7483</v>
       </c>
       <c r="G119" t="n">
-        <v>40.40500000000001</v>
+        <v>40.53499999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5208,14 +4718,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5225,22 +4729,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C120" t="n">
         <v>41.2</v>
       </c>
-      <c r="C120" t="n">
-        <v>41.4</v>
-      </c>
       <c r="D120" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="E120" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="F120" t="n">
-        <v>39900</v>
+        <v>7495.3883</v>
       </c>
       <c r="G120" t="n">
-        <v>40.50500000000001</v>
+        <v>40.55333333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5249,14 +4753,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5266,7 +4764,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="C121" t="n">
         <v>41.4</v>
@@ -5275,13 +4773,13 @@
         <v>41.4</v>
       </c>
       <c r="E121" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="F121" t="n">
-        <v>27308.2367</v>
+        <v>39900</v>
       </c>
       <c r="G121" t="n">
-        <v>40.62500000000001</v>
+        <v>40.55666666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5290,14 +4788,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5307,22 +4799,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="C122" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D122" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E122" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="F122" t="n">
-        <v>94296.3855</v>
+        <v>27308.2367</v>
       </c>
       <c r="G122" t="n">
-        <v>40.755</v>
+        <v>40.575</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5331,14 +4823,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5348,7 +4834,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C123" t="n">
         <v>41.5</v>
@@ -5357,13 +4843,13 @@
         <v>41.5</v>
       </c>
       <c r="E123" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="F123" t="n">
-        <v>7607.4226</v>
+        <v>94296.3855</v>
       </c>
       <c r="G123" t="n">
-        <v>40.85</v>
+        <v>40.59833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5372,14 +4858,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5392,19 +4872,19 @@
         <v>41.5</v>
       </c>
       <c r="C124" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="D124" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="E124" t="n">
         <v>41.5</v>
       </c>
       <c r="F124" t="n">
-        <v>23729.5949</v>
+        <v>7607.4226</v>
       </c>
       <c r="G124" t="n">
-        <v>40.915</v>
+        <v>40.62166666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5413,14 +4893,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5430,22 +4904,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="C125" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="D125" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="E125" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="F125" t="n">
-        <v>2156.1019</v>
+        <v>23729.5949</v>
       </c>
       <c r="G125" t="n">
-        <v>41.025</v>
+        <v>40.65499999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5454,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5483,10 +4951,10 @@
         <v>41.7</v>
       </c>
       <c r="F126" t="n">
-        <v>2887</v>
+        <v>2156.1019</v>
       </c>
       <c r="G126" t="n">
-        <v>41.1</v>
+        <v>40.68999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5495,14 +4963,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5515,19 +4977,19 @@
         <v>41.7</v>
       </c>
       <c r="C127" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="D127" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="E127" t="n">
         <v>41.7</v>
       </c>
       <c r="F127" t="n">
-        <v>8850</v>
+        <v>2887</v>
       </c>
       <c r="G127" t="n">
-        <v>41.16500000000001</v>
+        <v>40.71999999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5536,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5553,22 +5009,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C128" t="n">
         <v>42.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>41.8</v>
       </c>
       <c r="D128" t="n">
         <v>42.2</v>
       </c>
       <c r="E128" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="F128" t="n">
-        <v>20216.6604</v>
+        <v>8850</v>
       </c>
       <c r="G128" t="n">
-        <v>41.23500000000001</v>
+        <v>40.75666666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5577,14 +5033,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5594,22 +5044,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="C129" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="D129" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="E129" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="F129" t="n">
-        <v>1009.6513</v>
+        <v>20216.6604</v>
       </c>
       <c r="G129" t="n">
-        <v>41.28000000000001</v>
+        <v>40.78333333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5618,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5635,22 +5079,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="C130" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="D130" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="E130" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="F130" t="n">
-        <v>1352.8277</v>
+        <v>1009.6513</v>
       </c>
       <c r="G130" t="n">
-        <v>41.33000000000001</v>
+        <v>40.81166666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5659,14 +5103,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5676,22 +5114,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="C131" t="n">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="D131" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="E131" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="F131" t="n">
-        <v>14960.7178</v>
+        <v>1352.8277</v>
       </c>
       <c r="G131" t="n">
-        <v>41.39</v>
+        <v>40.845</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5700,14 +5138,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5720,19 +5152,19 @@
         <v>41.8</v>
       </c>
       <c r="C132" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="D132" t="n">
         <v>41.8</v>
       </c>
       <c r="E132" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="F132" t="n">
-        <v>24036.1445</v>
+        <v>14960.7178</v>
       </c>
       <c r="G132" t="n">
-        <v>41.45</v>
+        <v>40.86166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5741,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5770,10 +5196,10 @@
         <v>41.8</v>
       </c>
       <c r="F133" t="n">
-        <v>1373</v>
+        <v>24036.1445</v>
       </c>
       <c r="G133" t="n">
-        <v>41.505</v>
+        <v>40.87166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5782,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5802,19 +5222,19 @@
         <v>41.8</v>
       </c>
       <c r="C134" t="n">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="D134" t="n">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="E134" t="n">
         <v>41.8</v>
       </c>
       <c r="F134" t="n">
-        <v>2393.7909</v>
+        <v>1373</v>
       </c>
       <c r="G134" t="n">
-        <v>41.52999999999999</v>
+        <v>40.88166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5823,14 +5243,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5840,7 +5254,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="C135" t="n">
         <v>42.5</v>
@@ -5849,13 +5263,13 @@
         <v>42.5</v>
       </c>
       <c r="E135" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="F135" t="n">
-        <v>675.9623</v>
+        <v>2393.7909</v>
       </c>
       <c r="G135" t="n">
-        <v>41.58</v>
+        <v>40.90666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5864,14 +5278,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5881,22 +5289,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="C136" t="n">
-        <v>43.2</v>
+        <v>42.5</v>
       </c>
       <c r="D136" t="n">
-        <v>43.4</v>
+        <v>42.5</v>
       </c>
       <c r="E136" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="F136" t="n">
-        <v>51128.4838</v>
+        <v>675.9623</v>
       </c>
       <c r="G136" t="n">
-        <v>41.66</v>
+        <v>40.93166666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5905,14 +5313,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5922,10 +5324,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>43.4</v>
+        <v>42.7</v>
       </c>
       <c r="C137" t="n">
-        <v>42.7</v>
+        <v>43.2</v>
       </c>
       <c r="D137" t="n">
         <v>43.4</v>
@@ -5934,10 +5336,10 @@
         <v>42.7</v>
       </c>
       <c r="F137" t="n">
-        <v>2449.95</v>
+        <v>51128.4838</v>
       </c>
       <c r="G137" t="n">
-        <v>41.765</v>
+        <v>40.97500000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5946,14 +5348,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5963,40 +5359,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C138" t="n">
         <v>42.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>43.4</v>
       </c>
       <c r="D138" t="n">
         <v>43.4</v>
       </c>
       <c r="E138" t="n">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
       <c r="F138" t="n">
-        <v>11927.8996</v>
+        <v>2449.95</v>
       </c>
       <c r="G138" t="n">
-        <v>41.86</v>
+        <v>41.01000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>1.096522842639594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -6004,28 +5394,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C139" t="n">
         <v>43.4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>42.3</v>
       </c>
       <c r="D139" t="n">
         <v>43.4</v>
       </c>
       <c r="E139" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="F139" t="n">
-        <v>1165.4403</v>
+        <v>11927.8996</v>
       </c>
       <c r="G139" t="n">
-        <v>41.975</v>
+        <v>41.06000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -6039,28 +5429,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
       <c r="C140" t="n">
-        <v>43.3</v>
+        <v>42.3</v>
       </c>
       <c r="D140" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="E140" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="F140" t="n">
-        <v>15766.69091316397</v>
+        <v>1165.4403</v>
       </c>
       <c r="G140" t="n">
-        <v>42.065</v>
+        <v>41.07500000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -6074,22 +5464,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="C141" t="n">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="D141" t="n">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="E141" t="n">
-        <v>42.1</v>
+        <v>43</v>
       </c>
       <c r="F141" t="n">
-        <v>6315.77</v>
+        <v>15766.69091316397</v>
       </c>
       <c r="G141" t="n">
-        <v>42.11</v>
+        <v>41.10500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6104,6 +5494,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6315.77</v>
+      </c>
+      <c r="G142" t="n">
+        <v>41.11666666666667</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>8082.2167</v>
       </c>
       <c r="G2" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="H2" t="n">
         <v>40.20333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,24 +491,27 @@
         <v>9594.6181</v>
       </c>
       <c r="G3" t="n">
+        <v>40.14666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>40.215</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>39.1</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,22 +535,27 @@
         <v>14836.0707</v>
       </c>
       <c r="G4" t="n">
+        <v>40.05333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>40.22666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,24 +579,27 @@
         <v>5853</v>
       </c>
       <c r="G5" t="n">
+        <v>39.98666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>40.24833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>39.6</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,22 +623,25 @@
         <v>5695.3716</v>
       </c>
       <c r="G6" t="n">
+        <v>39.87333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>40.25666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,22 +665,27 @@
         <v>5140.2992</v>
       </c>
       <c r="G7" t="n">
+        <v>39.76666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>40.25</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,22 +709,27 @@
         <v>18202.9131</v>
       </c>
       <c r="G8" t="n">
+        <v>39.65333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>40.24666666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>39</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,22 +753,27 @@
         <v>9046.284</v>
       </c>
       <c r="G9" t="n">
+        <v>39.57333333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>40.23499999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,24 +797,25 @@
         <v>1274.5842</v>
       </c>
       <c r="G10" t="n">
+        <v>39.50666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>40.23999999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,24 +839,25 @@
         <v>5994.1566</v>
       </c>
       <c r="G11" t="n">
+        <v>39.44666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>40.22999999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -842,24 +881,25 @@
         <v>20</v>
       </c>
       <c r="G12" t="n">
+        <v>39.37333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>40.22166666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -883,24 +923,25 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>39.34000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>40.22166666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -924,22 +965,25 @@
         <v>20</v>
       </c>
       <c r="G14" t="n">
+        <v>39.32000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>40.20999999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -963,22 +1007,25 @@
         <v>8238.9252</v>
       </c>
       <c r="G15" t="n">
+        <v>39.30666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>40.21666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1002,22 +1049,25 @@
         <v>4398.6128</v>
       </c>
       <c r="G16" t="n">
+        <v>39.25333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>40.21166666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1041,22 +1091,25 @@
         <v>82</v>
       </c>
       <c r="G17" t="n">
+        <v>39.22666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>40.20666666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1080,24 +1133,25 @@
         <v>165</v>
       </c>
       <c r="G18" t="n">
+        <v>39.20666666666668</v>
+      </c>
+      <c r="H18" t="n">
         <v>40.18499999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>38.7</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1121,24 +1175,27 @@
         <v>12.5376</v>
       </c>
       <c r="G19" t="n">
+        <v>39.15333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>40.16333333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>38.7</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,24 +1219,27 @@
         <v>3846.153846153846</v>
       </c>
       <c r="G20" t="n">
+        <v>39.10000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>40.14499999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>38.8</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,24 +1263,27 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
+        <v>39.10666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>40.13166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>39</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,22 +1307,27 @@
         <v>584.9605</v>
       </c>
       <c r="G22" t="n">
+        <v>39.12666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>40.11833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1283,22 +1351,25 @@
         <v>1653.3453</v>
       </c>
       <c r="G23" t="n">
+        <v>39.13999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>40.10666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,22 +1393,25 @@
         <v>790</v>
       </c>
       <c r="G24" t="n">
+        <v>39.15999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>40.09500000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1361,22 +1435,25 @@
         <v>17450.9999</v>
       </c>
       <c r="G25" t="n">
+        <v>39.17999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>40.08500000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,22 +1477,25 @@
         <v>849.1204</v>
       </c>
       <c r="G26" t="n">
+        <v>39.19333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>40.07666666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1439,22 +1519,25 @@
         <v>12668.8733</v>
       </c>
       <c r="G27" t="n">
+        <v>39.20666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>40.06833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1478,22 +1561,25 @@
         <v>81804</v>
       </c>
       <c r="G28" t="n">
+        <v>39.22666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>40.04166666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1517,22 +1603,25 @@
         <v>27951</v>
       </c>
       <c r="G29" t="n">
+        <v>39.24666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>40.01666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,22 +1645,25 @@
         <v>952.1566</v>
       </c>
       <c r="G30" t="n">
+        <v>39.26666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>39.98333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1595,22 +1687,25 @@
         <v>6310.9389</v>
       </c>
       <c r="G31" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="H31" t="n">
         <v>39.95166666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,22 +1729,25 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
+        <v>39.42666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>39.93166666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,22 +1771,25 @@
         <v>29241</v>
       </c>
       <c r="G33" t="n">
+        <v>39.53999999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>39.91833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,22 +1813,25 @@
         <v>8519.9998</v>
       </c>
       <c r="G34" t="n">
+        <v>39.62666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>39.90166666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1751,22 +1855,25 @@
         <v>11062.9561</v>
       </c>
       <c r="G35" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="H35" t="n">
         <v>39.89500000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1790,22 +1897,25 @@
         <v>2443.927825365854</v>
       </c>
       <c r="G36" t="n">
+        <v>39.83333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>39.88666666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,22 +1939,25 @@
         <v>2356.8901</v>
       </c>
       <c r="G37" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="H37" t="n">
         <v>39.89500000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,22 +1981,25 @@
         <v>5815.2535</v>
       </c>
       <c r="G38" t="n">
+        <v>40.02666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>39.90000000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1907,22 +2023,27 @@
         <v>5233.7281</v>
       </c>
       <c r="G39" t="n">
+        <v>40.10666666666668</v>
+      </c>
+      <c r="H39" t="n">
         <v>39.90833333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1944,18 +2065,25 @@
         <v>8403.729600000001</v>
       </c>
       <c r="G40" t="n">
+        <v>40.19333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>39.90500000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1979,18 +2107,25 @@
         <v>2290.7713</v>
       </c>
       <c r="G41" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="H41" t="n">
         <v>39.90166666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,18 +2149,25 @@
         <v>1907.6939</v>
       </c>
       <c r="G42" t="n">
+        <v>40.35333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>39.90000000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2049,18 +2191,25 @@
         <v>1623</v>
       </c>
       <c r="G43" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="H43" t="n">
         <v>39.90333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,18 +2233,25 @@
         <v>1173.8099</v>
       </c>
       <c r="G44" t="n">
+        <v>40.48666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>39.89833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,18 +2275,25 @@
         <v>238.2805</v>
       </c>
       <c r="G45" t="n">
+        <v>40.53333333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>39.89833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,18 +2317,25 @@
         <v>1808.9999</v>
       </c>
       <c r="G46" t="n">
+        <v>40.57333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>39.89333333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,18 +2359,25 @@
         <v>22262.8998</v>
       </c>
       <c r="G47" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>39.88333333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,18 +2401,25 @@
         <v>30435.2142</v>
       </c>
       <c r="G48" t="n">
+        <v>40.62666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>39.88000000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2259,18 +2443,25 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
+        <v>40.67999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>39.87833333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2294,18 +2485,25 @@
         <v>3867.7194</v>
       </c>
       <c r="G50" t="n">
+        <v>40.71333333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>39.88000000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2329,18 +2527,25 @@
         <v>2726.2231</v>
       </c>
       <c r="G51" t="n">
+        <v>40.71333333333332</v>
+      </c>
+      <c r="H51" t="n">
         <v>39.88166666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,18 +2569,25 @@
         <v>817.4386</v>
       </c>
       <c r="G52" t="n">
+        <v>40.71999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>39.88833333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,18 +2611,25 @@
         <v>91588.1452</v>
       </c>
       <c r="G53" t="n">
+        <v>40.73999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>39.89000000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,18 +2653,25 @@
         <v>17800.0069</v>
       </c>
       <c r="G54" t="n">
+        <v>40.78666666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>39.90666666666668</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2469,18 +2695,25 @@
         <v>6072.8973</v>
       </c>
       <c r="G55" t="n">
+        <v>40.81999999999998</v>
+      </c>
+      <c r="H55" t="n">
         <v>39.92500000000003</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,18 +2737,25 @@
         <v>17794.0579</v>
       </c>
       <c r="G56" t="n">
+        <v>40.85999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>39.94500000000003</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,18 +2779,25 @@
         <v>6212.315</v>
       </c>
       <c r="G57" t="n">
+        <v>40.87999999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>39.95333333333336</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,18 +2821,25 @@
         <v>22032</v>
       </c>
       <c r="G58" t="n">
+        <v>40.90666666666664</v>
+      </c>
+      <c r="H58" t="n">
         <v>39.97833333333336</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2609,18 +2863,25 @@
         <v>33667.5145</v>
       </c>
       <c r="G59" t="n">
+        <v>40.88666666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>39.98500000000003</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2644,18 +2905,25 @@
         <v>35660.361</v>
       </c>
       <c r="G60" t="n">
+        <v>40.86666666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>39.99333333333336</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2679,18 +2947,25 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
+        <v>40.91999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>40.02166666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,18 +2989,25 @@
         <v>1231.343</v>
       </c>
       <c r="G62" t="n">
+        <v>40.91333333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>40.0416666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2749,18 +3031,25 @@
         <v>10000</v>
       </c>
       <c r="G63" t="n">
+        <v>40.86666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>40.06000000000003</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,18 +3073,25 @@
         <v>516.8754</v>
       </c>
       <c r="G64" t="n">
+        <v>40.81333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>40.06833333333336</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2819,18 +3115,25 @@
         <v>11855.4401</v>
       </c>
       <c r="G65" t="n">
+        <v>40.72666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>40.06500000000003</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,18 +3157,25 @@
         <v>53359.4808</v>
       </c>
       <c r="G66" t="n">
+        <v>40.63333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>40.07166666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2889,18 +3199,25 @@
         <v>1231.343</v>
       </c>
       <c r="G67" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="H67" t="n">
         <v>40.08666666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,18 +3241,25 @@
         <v>6900</v>
       </c>
       <c r="G68" t="n">
+        <v>40.49333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>40.10000000000003</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2959,18 +3283,25 @@
         <v>36300</v>
       </c>
       <c r="G69" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="H69" t="n">
         <v>40.11833333333336</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,18 +3325,25 @@
         <v>3650</v>
       </c>
       <c r="G70" t="n">
+        <v>40.34666666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>40.13500000000003</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,18 +3367,25 @@
         <v>9600</v>
       </c>
       <c r="G71" t="n">
+        <v>40.26666666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>40.15000000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,18 +3409,25 @@
         <v>21806.2962</v>
       </c>
       <c r="G72" t="n">
+        <v>40.24000000000002</v>
+      </c>
+      <c r="H72" t="n">
         <v>40.17000000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3099,18 +3451,25 @@
         <v>18300</v>
       </c>
       <c r="G73" t="n">
+        <v>40.22666666666669</v>
+      </c>
+      <c r="H73" t="n">
         <v>40.20000000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,18 +3493,25 @@
         <v>23116.7961</v>
       </c>
       <c r="G74" t="n">
+        <v>40.30000000000003</v>
+      </c>
+      <c r="H74" t="n">
         <v>40.23000000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,18 +3535,25 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
+        <v>40.36000000000002</v>
+      </c>
+      <c r="H75" t="n">
         <v>40.25666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,18 +3577,25 @@
         <v>7534.5169</v>
       </c>
       <c r="G76" t="n">
+        <v>40.34666666666669</v>
+      </c>
+      <c r="H76" t="n">
         <v>40.29500000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3239,18 +3619,25 @@
         <v>49.261</v>
       </c>
       <c r="G77" t="n">
+        <v>40.36666666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>40.32666666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,18 +3661,25 @@
         <v>1436.9376</v>
       </c>
       <c r="G78" t="n">
+        <v>40.40000000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>40.35833333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,18 +3703,25 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>40.42000000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>40.38500000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,18 +3745,25 @@
         <v>17700</v>
       </c>
       <c r="G80" t="n">
+        <v>40.54000000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>40.42500000000002</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3379,18 +3787,25 @@
         <v>142504.7877</v>
       </c>
       <c r="G81" t="n">
+        <v>40.66666666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>40.46166666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,18 +3829,25 @@
         <v>2642.3467</v>
       </c>
       <c r="G82" t="n">
+        <v>40.76666666666668</v>
+      </c>
+      <c r="H82" t="n">
         <v>40.49666666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,18 +3871,25 @@
         <v>4518.4132</v>
       </c>
       <c r="G83" t="n">
+        <v>40.86000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>40.53000000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,18 +3913,25 @@
         <v>1211</v>
       </c>
       <c r="G84" t="n">
+        <v>40.94000000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>40.56333333333335</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3519,18 +3955,25 @@
         <v>8100</v>
       </c>
       <c r="G85" t="n">
+        <v>41.02666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>40.59666666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,18 +3997,25 @@
         <v>3976</v>
       </c>
       <c r="G86" t="n">
+        <v>41.10666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>40.62833333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,18 +4039,25 @@
         <v>12.1359</v>
       </c>
       <c r="G87" t="n">
+        <v>41.14666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>40.65500000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,18 +4081,25 @@
         <v>12.1654</v>
       </c>
       <c r="G88" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="H88" t="n">
         <v>40.67833333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,18 +4123,25 @@
         <v>24.3902</v>
       </c>
       <c r="G89" t="n">
+        <v>41.12666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>40.70000000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,18 +4165,25 @@
         <v>23059.0041</v>
       </c>
       <c r="G90" t="n">
+        <v>41.11333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>40.71833333333336</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3729,18 +4207,25 @@
         <v>15993</v>
       </c>
       <c r="G91" t="n">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>40.73500000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,18 +4249,25 @@
         <v>22218.3372</v>
       </c>
       <c r="G92" t="n">
+        <v>41.09333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>40.74333333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3799,18 +4291,25 @@
         <v>1016.1053</v>
       </c>
       <c r="G93" t="n">
+        <v>41.10666666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>40.75000000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,18 +4333,25 @@
         <v>36150</v>
       </c>
       <c r="G94" t="n">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>40.75333333333336</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3869,18 +4375,25 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
+        <v>41.04666666666665</v>
+      </c>
+      <c r="H95" t="n">
         <v>40.75666666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,18 +4417,25 @@
         <v>3000</v>
       </c>
       <c r="G96" t="n">
+        <v>40.95333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>40.74166666666669</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3939,18 +4459,25 @@
         <v>123.5241</v>
       </c>
       <c r="G97" t="n">
+        <v>40.88666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>40.73333333333336</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,18 +4501,25 @@
         <v>18854.6806</v>
       </c>
       <c r="G98" t="n">
+        <v>40.81999999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>40.72833333333336</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,18 +4543,25 @@
         <v>4975.0623</v>
       </c>
       <c r="G99" t="n">
+        <v>40.67333333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>40.70500000000003</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,18 +4585,25 @@
         <v>7795.18</v>
       </c>
       <c r="G100" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="H100" t="n">
         <v>40.67833333333336</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4079,18 +4627,25 @@
         <v>3512.994</v>
       </c>
       <c r="G101" t="n">
+        <v>40.37333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>40.65166666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,18 +4669,25 @@
         <v>2400</v>
       </c>
       <c r="G102" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="H102" t="n">
         <v>40.62166666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4149,18 +4711,27 @@
         <v>661.826</v>
       </c>
       <c r="G103" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="H103" t="n">
         <v>40.58333333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>38.9</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,18 +4755,27 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
+        <v>39.96666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>40.57000000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>38.7</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,18 +4799,25 @@
         <v>25</v>
       </c>
       <c r="G105" t="n">
+        <v>39.92666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>40.56666666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,18 +4841,25 @@
         <v>5790.6316</v>
       </c>
       <c r="G106" t="n">
+        <v>39.84000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>40.55166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4289,18 +4883,25 @@
         <v>21253.277</v>
       </c>
       <c r="G107" t="n">
+        <v>39.81333333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>40.54666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,18 +4925,25 @@
         <v>20700</v>
       </c>
       <c r="G108" t="n">
+        <v>39.80666666666669</v>
+      </c>
+      <c r="H108" t="n">
         <v>40.54499999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4359,18 +4967,25 @@
         <v>5700</v>
       </c>
       <c r="G109" t="n">
+        <v>39.84666666666669</v>
+      </c>
+      <c r="H109" t="n">
         <v>40.54499999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,18 +5009,25 @@
         <v>2250</v>
       </c>
       <c r="G110" t="n">
+        <v>39.88666666666668</v>
+      </c>
+      <c r="H110" t="n">
         <v>40.54999999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,18 +5051,25 @@
         <v>1363.8397</v>
       </c>
       <c r="G111" t="n">
+        <v>39.92666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>40.54499999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,18 +5093,25 @@
         <v>1209.6956</v>
       </c>
       <c r="G112" t="n">
+        <v>39.94000000000003</v>
+      </c>
+      <c r="H112" t="n">
         <v>40.53833333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,18 +5135,25 @@
         <v>21947.6338</v>
       </c>
       <c r="G113" t="n">
+        <v>40.00666666666669</v>
+      </c>
+      <c r="H113" t="n">
         <v>40.54499999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,18 +5177,25 @@
         <v>1319</v>
       </c>
       <c r="G114" t="n">
+        <v>40.10000000000002</v>
+      </c>
+      <c r="H114" t="n">
         <v>40.53333333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4569,18 +5219,25 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
+        <v>40.24000000000002</v>
+      </c>
+      <c r="H115" t="n">
         <v>40.53333333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,18 +5261,25 @@
         <v>4933.2083</v>
       </c>
       <c r="G116" t="n">
+        <v>40.38666666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>40.53333333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,18 +5303,25 @@
         <v>14775.9999</v>
       </c>
       <c r="G117" t="n">
+        <v>40.52666666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>40.53333333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,18 +5345,25 @@
         <v>9236.3264</v>
       </c>
       <c r="G118" t="n">
+        <v>40.66666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>40.52333333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,18 +5387,25 @@
         <v>22713.7483</v>
       </c>
       <c r="G119" t="n">
+        <v>40.74666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>40.53499999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,18 +5429,25 @@
         <v>7495.3883</v>
       </c>
       <c r="G120" t="n">
+        <v>40.81333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>40.55333333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,18 +5471,25 @@
         <v>39900</v>
       </c>
       <c r="G121" t="n">
+        <v>40.94</v>
+      </c>
+      <c r="H121" t="n">
         <v>40.55666666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,18 +5513,25 @@
         <v>27308.2367</v>
       </c>
       <c r="G122" t="n">
+        <v>41.02666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>40.575</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4849,18 +5555,25 @@
         <v>94296.3855</v>
       </c>
       <c r="G123" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="H123" t="n">
         <v>40.59833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,18 +5597,25 @@
         <v>7607.4226</v>
       </c>
       <c r="G124" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="H124" t="n">
         <v>40.62166666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4919,18 +5639,25 @@
         <v>23729.5949</v>
       </c>
       <c r="G125" t="n">
+        <v>41.14666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>40.65499999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,18 +5681,25 @@
         <v>2156.1019</v>
       </c>
       <c r="G126" t="n">
+        <v>41.21333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>40.68999999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,18 +5723,25 @@
         <v>2887</v>
       </c>
       <c r="G127" t="n">
+        <v>41.28666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>40.71999999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,18 +5765,25 @@
         <v>8850</v>
       </c>
       <c r="G128" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="H128" t="n">
         <v>40.75666666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,18 +5807,25 @@
         <v>20216.6604</v>
       </c>
       <c r="G129" t="n">
+        <v>41.41999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>40.78333333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,18 +5849,25 @@
         <v>1009.6513</v>
       </c>
       <c r="G130" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="H130" t="n">
         <v>40.81166666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5129,18 +5891,25 @@
         <v>1352.8277</v>
       </c>
       <c r="G131" t="n">
+        <v>41.51333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>40.845</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,18 +5933,25 @@
         <v>14960.7178</v>
       </c>
       <c r="G132" t="n">
+        <v>41.55333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>40.86166666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5199,18 +5975,25 @@
         <v>24036.1445</v>
       </c>
       <c r="G133" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="H133" t="n">
         <v>40.87166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,18 +6017,25 @@
         <v>1373</v>
       </c>
       <c r="G134" t="n">
+        <v>41.68666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>40.88166666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5269,18 +6059,25 @@
         <v>2393.7909</v>
       </c>
       <c r="G135" t="n">
+        <v>41.77333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>40.90666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,18 +6101,25 @@
         <v>675.9623</v>
       </c>
       <c r="G136" t="n">
+        <v>41.84666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>40.93166666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,18 +6143,25 @@
         <v>51128.4838</v>
       </c>
       <c r="G137" t="n">
+        <v>41.96666666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>40.97500000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,18 +6185,25 @@
         <v>2449.95</v>
       </c>
       <c r="G138" t="n">
+        <v>42.04666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>41.01000000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5409,20 +6227,25 @@
         <v>11927.8996</v>
       </c>
       <c r="G139" t="n">
+        <v>42.17333333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>41.06000000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5444,18 +6267,21 @@
         <v>1165.4403</v>
       </c>
       <c r="G140" t="n">
+        <v>42.22000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>41.07500000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,18 +6305,21 @@
         <v>15766.69091316397</v>
       </c>
       <c r="G141" t="n">
+        <v>42.32666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>41.10500000000001</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,18 +6343,401 @@
         <v>6315.77</v>
       </c>
       <c r="G142" t="n">
+        <v>42.35333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>41.11666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>736.8483</v>
+      </c>
+      <c r="G143" t="n">
+        <v>42.35333333333333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>395.255</v>
+      </c>
+      <c r="G144" t="n">
+        <v>42.38666666666666</v>
+      </c>
+      <c r="H144" t="n">
+        <v>41.145</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>42</v>
+      </c>
+      <c r="D145" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>42</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7982.5221</v>
+      </c>
+      <c r="G145" t="n">
+        <v>42.39333333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>41.15333333333334</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6131.3393</v>
+      </c>
+      <c r="G146" t="n">
+        <v>42.34666666666666</v>
+      </c>
+      <c r="H146" t="n">
+        <v>41.155</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>64040.702</v>
+      </c>
+      <c r="G147" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="H147" t="n">
+        <v>41.155</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>42</v>
+      </c>
+      <c r="D148" t="n">
+        <v>42</v>
+      </c>
+      <c r="E148" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3930.3507</v>
+      </c>
+      <c r="G148" t="n">
+        <v>42.33333333333334</v>
+      </c>
+      <c r="H148" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>42</v>
+      </c>
+      <c r="C149" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>42</v>
+      </c>
+      <c r="F149" t="n">
+        <v>70650</v>
+      </c>
+      <c r="G149" t="n">
+        <v>42.36666666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>41.19166666666668</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12450</v>
+      </c>
+      <c r="G150" t="n">
+        <v>42.37333333333333</v>
+      </c>
+      <c r="H150" t="n">
+        <v>41.22166666666667</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4213.2652</v>
+      </c>
+      <c r="G151" t="n">
+        <v>42.34666666666667</v>
+      </c>
+      <c r="H151" t="n">
+        <v>41.24333333333333</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>48034.389</v>
+      </c>
+      <c r="G152" t="n">
+        <v>42.34666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>41.28833333333333</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.3</v>
+        <v>41.2</v>
       </c>
       <c r="C2" t="n">
-        <v>39.1</v>
+        <v>41.2</v>
       </c>
       <c r="D2" t="n">
-        <v>39.3</v>
+        <v>41.2</v>
       </c>
       <c r="E2" t="n">
-        <v>39.1</v>
+        <v>41.2</v>
       </c>
       <c r="F2" t="n">
-        <v>8082.2167</v>
+        <v>6500</v>
       </c>
       <c r="G2" t="n">
-        <v>40.28</v>
+        <v>379443.421</v>
       </c>
       <c r="H2" t="n">
-        <v>40.20333333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>41.1</v>
       </c>
       <c r="D3" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>41.1</v>
       </c>
       <c r="F3" t="n">
-        <v>9594.6181</v>
+        <v>1448.0746</v>
       </c>
       <c r="G3" t="n">
-        <v>40.14666666666667</v>
+        <v>377995.3464</v>
       </c>
       <c r="H3" t="n">
-        <v>40.215</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>39.6</v>
+        <v>40.8</v>
       </c>
       <c r="D4" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>40.8</v>
       </c>
       <c r="F4" t="n">
-        <v>14836.0707</v>
+        <v>5882.3292</v>
       </c>
       <c r="G4" t="n">
-        <v>40.05333333333333</v>
+        <v>372113.0172</v>
       </c>
       <c r="H4" t="n">
-        <v>40.22666666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="C5" t="n">
-        <v>39.8</v>
+        <v>41.5</v>
       </c>
       <c r="D5" t="n">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="E5" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="F5" t="n">
-        <v>5853</v>
+        <v>410</v>
       </c>
       <c r="G5" t="n">
-        <v>39.98666666666667</v>
+        <v>372523.0172</v>
       </c>
       <c r="H5" t="n">
-        <v>40.24833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="C6" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="D6" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="E6" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="F6" t="n">
-        <v>5695.3716</v>
+        <v>4368</v>
       </c>
       <c r="G6" t="n">
-        <v>39.87333333333334</v>
+        <v>368155.0172</v>
       </c>
       <c r="H6" t="n">
-        <v>40.25666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="F7" t="n">
-        <v>5140.2992</v>
+        <v>1543</v>
       </c>
       <c r="G7" t="n">
-        <v>39.76666666666667</v>
+        <v>368155.0172</v>
       </c>
       <c r="H7" t="n">
-        <v>40.25</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="C8" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="D8" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="E8" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="F8" t="n">
-        <v>18202.9131</v>
+        <v>16050</v>
       </c>
       <c r="G8" t="n">
-        <v>39.65333333333334</v>
+        <v>352105.0172</v>
       </c>
       <c r="H8" t="n">
-        <v>40.24666666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
-        <v>9046.284</v>
+        <v>24.3902</v>
       </c>
       <c r="G9" t="n">
-        <v>39.57333333333335</v>
+        <v>352129.4074</v>
       </c>
       <c r="H9" t="n">
-        <v>40.23499999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,40 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="F10" t="n">
-        <v>1274.5842</v>
+        <v>1200.8568</v>
       </c>
       <c r="G10" t="n">
-        <v>39.50666666666668</v>
+        <v>352129.4074</v>
       </c>
       <c r="H10" t="n">
-        <v>40.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.3</v>
+        <v>40.8</v>
       </c>
       <c r="C11" t="n">
-        <v>39.3</v>
+        <v>40.8</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3</v>
+        <v>40.8</v>
       </c>
       <c r="E11" t="n">
-        <v>39.3</v>
+        <v>40.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5994.1566</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>39.44666666666668</v>
+        <v>352119.4074</v>
       </c>
       <c r="H11" t="n">
-        <v>40.22999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="D12" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="E12" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>2.2549</v>
       </c>
       <c r="G12" t="n">
-        <v>39.37333333333334</v>
+        <v>352119.4074</v>
       </c>
       <c r="H12" t="n">
-        <v>40.22166666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -908,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="C13" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="D13" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="E13" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>492.61</v>
       </c>
       <c r="G13" t="n">
-        <v>39.34000000000001</v>
+        <v>351626.7974</v>
       </c>
       <c r="H13" t="n">
-        <v>40.22166666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="C14" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="D14" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="E14" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>12.3762</v>
       </c>
       <c r="G14" t="n">
-        <v>39.32000000000001</v>
+        <v>351614.4212</v>
       </c>
       <c r="H14" t="n">
-        <v>40.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -992,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.4</v>
+        <v>40.3</v>
       </c>
       <c r="C15" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="D15" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="E15" t="n">
-        <v>39.4</v>
+        <v>40.3</v>
       </c>
       <c r="F15" t="n">
-        <v>8238.9252</v>
+        <v>59825.4599</v>
       </c>
       <c r="G15" t="n">
-        <v>39.30666666666666</v>
+        <v>411439.8811000001</v>
       </c>
       <c r="H15" t="n">
-        <v>40.21666666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1034,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>4398.6128</v>
+        <v>1026.121951219512</v>
       </c>
       <c r="G16" t="n">
-        <v>39.25333333333334</v>
+        <v>412466.0030512196</v>
       </c>
       <c r="H16" t="n">
-        <v>40.21166666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1076,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>82</v>
+        <v>18456.33404878049</v>
       </c>
       <c r="G17" t="n">
-        <v>39.22666666666667</v>
+        <v>412466.0030512196</v>
       </c>
       <c r="H17" t="n">
-        <v>40.20666666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>165</v>
+        <v>10804.1648</v>
       </c>
       <c r="G18" t="n">
-        <v>39.20666666666668</v>
+        <v>412466.0030512196</v>
       </c>
       <c r="H18" t="n">
-        <v>40.18499999999998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.8</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>38.8</v>
+        <v>40.8</v>
       </c>
       <c r="D19" t="n">
-        <v>38.8</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
-        <v>38.8</v>
+        <v>40.8</v>
       </c>
       <c r="F19" t="n">
-        <v>12.5376</v>
+        <v>9983.1648</v>
       </c>
       <c r="G19" t="n">
-        <v>39.15333333333334</v>
+        <v>402482.8382512195</v>
       </c>
       <c r="H19" t="n">
-        <v>40.16333333333332</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="F20" t="n">
-        <v>3846.153846153846</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>39.10000000000001</v>
+        <v>402498.8382512195</v>
       </c>
       <c r="H20" t="n">
-        <v>40.14499999999999</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>38.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39.3</v>
+        <v>40.6</v>
       </c>
       <c r="C21" t="n">
-        <v>39.3</v>
+        <v>40.6</v>
       </c>
       <c r="D21" t="n">
-        <v>39.3</v>
+        <v>40.6</v>
       </c>
       <c r="E21" t="n">
-        <v>39.3</v>
+        <v>40.6</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>1441.1349</v>
       </c>
       <c r="G21" t="n">
-        <v>39.10666666666667</v>
+        <v>401057.7033512195</v>
       </c>
       <c r="H21" t="n">
-        <v>40.13166666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.3</v>
+        <v>40.6</v>
       </c>
       <c r="C22" t="n">
-        <v>39.3</v>
+        <v>40.9</v>
       </c>
       <c r="D22" t="n">
-        <v>39.3</v>
+        <v>40.9</v>
       </c>
       <c r="E22" t="n">
-        <v>39.3</v>
+        <v>40.6</v>
       </c>
       <c r="F22" t="n">
-        <v>584.9605</v>
+        <v>8850</v>
       </c>
       <c r="G22" t="n">
-        <v>39.12666666666667</v>
+        <v>409907.7033512195</v>
       </c>
       <c r="H22" t="n">
-        <v>40.11833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1336,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>39.4</v>
+        <v>40.3</v>
       </c>
       <c r="C23" t="n">
-        <v>39.4</v>
+        <v>40.3</v>
       </c>
       <c r="D23" t="n">
-        <v>39.4</v>
+        <v>40.3</v>
       </c>
       <c r="E23" t="n">
-        <v>39.4</v>
+        <v>40.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1653.3453</v>
+        <v>2224.0426</v>
       </c>
       <c r="G23" t="n">
-        <v>39.13999999999999</v>
+        <v>407683.6607512195</v>
       </c>
       <c r="H23" t="n">
-        <v>40.10666666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="C24" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="D24" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="E24" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="F24" t="n">
-        <v>790</v>
+        <v>3341.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>39.15999999999999</v>
+        <v>404341.6608512196</v>
       </c>
       <c r="H24" t="n">
-        <v>40.09500000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1420,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="C25" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="D25" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="E25" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="F25" t="n">
-        <v>17450.9999</v>
+        <v>13471.7775</v>
       </c>
       <c r="G25" t="n">
-        <v>39.17999999999999</v>
+        <v>404341.6608512196</v>
       </c>
       <c r="H25" t="n">
-        <v>40.08500000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C26" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="D26" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="E26" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F26" t="n">
-        <v>849.1204</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>39.19333333333332</v>
+        <v>404351.6608512196</v>
       </c>
       <c r="H26" t="n">
-        <v>40.07666666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1504,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="D27" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="E27" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="F27" t="n">
-        <v>12668.8733</v>
+        <v>9073.958000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>39.20666666666666</v>
+        <v>395277.7028512196</v>
       </c>
       <c r="H27" t="n">
-        <v>40.06833333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="C28" t="n">
         <v>39.7</v>
       </c>
       <c r="D28" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="E28" t="n">
         <v>39.7</v>
       </c>
       <c r="F28" t="n">
-        <v>81804</v>
+        <v>9811.7904</v>
       </c>
       <c r="G28" t="n">
-        <v>39.22666666666667</v>
+        <v>385465.9124512196</v>
       </c>
       <c r="H28" t="n">
-        <v>40.04166666666666</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="C29" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="D29" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="E29" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="F29" t="n">
-        <v>27951</v>
+        <v>5060.5782</v>
       </c>
       <c r="G29" t="n">
-        <v>39.24666666666667</v>
+        <v>380405.3342512196</v>
       </c>
       <c r="H29" t="n">
-        <v>40.01666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="C30" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="D30" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="E30" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F30" t="n">
-        <v>952.1566</v>
+        <v>18846.3724</v>
       </c>
       <c r="G30" t="n">
-        <v>39.26666666666667</v>
+        <v>361558.9618512196</v>
       </c>
       <c r="H30" t="n">
-        <v>39.98333333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,40 +1448,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
       </c>
       <c r="C31" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="D31" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
       </c>
       <c r="E31" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="F31" t="n">
-        <v>6310.9389</v>
+        <v>8082.2167</v>
       </c>
       <c r="G31" t="n">
-        <v>39.34</v>
+        <v>353476.7451512196</v>
       </c>
       <c r="H31" t="n">
-        <v>39.95166666666668</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,40 +1489,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>39.1</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>39.1</v>
       </c>
       <c r="E32" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>9594.6181</v>
       </c>
       <c r="G32" t="n">
-        <v>39.42666666666666</v>
+        <v>343882.1270512196</v>
       </c>
       <c r="H32" t="n">
-        <v>39.93166666666668</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,40 +1528,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.4</v>
+        <v>39</v>
       </c>
       <c r="C33" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="D33" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="E33" t="n">
-        <v>40.4</v>
+        <v>39</v>
       </c>
       <c r="F33" t="n">
-        <v>29241</v>
+        <v>14836.0707</v>
       </c>
       <c r="G33" t="n">
-        <v>39.53999999999999</v>
+        <v>358718.1977512196</v>
       </c>
       <c r="H33" t="n">
-        <v>39.91833333333334</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,40 +1569,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="C34" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="D34" t="n">
-        <v>40.3</v>
+        <v>39.9</v>
       </c>
       <c r="E34" t="n">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="F34" t="n">
-        <v>8519.9998</v>
+        <v>5853</v>
       </c>
       <c r="G34" t="n">
-        <v>39.62666666666667</v>
+        <v>364571.1977512196</v>
       </c>
       <c r="H34" t="n">
-        <v>39.90166666666668</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1840,40 +1610,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.3</v>
+        <v>39.2</v>
       </c>
       <c r="C35" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="D35" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="E35" t="n">
-        <v>40.3</v>
+        <v>39.2</v>
       </c>
       <c r="F35" t="n">
-        <v>11062.9561</v>
+        <v>5695.3716</v>
       </c>
       <c r="G35" t="n">
-        <v>39.72</v>
+        <v>358875.8261512195</v>
       </c>
       <c r="H35" t="n">
-        <v>39.89500000000001</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,40 +1651,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="F36" t="n">
-        <v>2443.927825365854</v>
+        <v>5140.2992</v>
       </c>
       <c r="G36" t="n">
-        <v>39.83333333333334</v>
+        <v>353735.5269512195</v>
       </c>
       <c r="H36" t="n">
-        <v>39.88666666666668</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,40 +1692,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.9</v>
+        <v>39.2</v>
       </c>
       <c r="C37" t="n">
-        <v>40.9</v>
+        <v>39.2</v>
       </c>
       <c r="D37" t="n">
-        <v>40.9</v>
+        <v>39.2</v>
       </c>
       <c r="E37" t="n">
-        <v>40.9</v>
+        <v>39.2</v>
       </c>
       <c r="F37" t="n">
-        <v>2356.8901</v>
+        <v>18202.9131</v>
       </c>
       <c r="G37" t="n">
-        <v>39.94</v>
+        <v>371938.4400512195</v>
       </c>
       <c r="H37" t="n">
-        <v>39.89500000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1966,40 +1731,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="C38" t="n">
-        <v>40.7</v>
+        <v>39.1</v>
       </c>
       <c r="D38" t="n">
-        <v>40.7</v>
+        <v>39.1</v>
       </c>
       <c r="E38" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="F38" t="n">
-        <v>5815.2535</v>
+        <v>9046.284</v>
       </c>
       <c r="G38" t="n">
-        <v>40.02666666666667</v>
+        <v>362892.1560512196</v>
       </c>
       <c r="H38" t="n">
-        <v>39.90000000000001</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,40 +1772,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="C39" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="D39" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="E39" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="F39" t="n">
-        <v>5233.7281</v>
+        <v>1274.5842</v>
       </c>
       <c r="G39" t="n">
-        <v>40.10666666666668</v>
+        <v>364166.7402512195</v>
       </c>
       <c r="H39" t="n">
-        <v>39.90833333333334</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,40 +1813,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40.6</v>
+        <v>39.3</v>
       </c>
       <c r="C40" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="D40" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="E40" t="n">
-        <v>40.6</v>
+        <v>39.3</v>
       </c>
       <c r="F40" t="n">
-        <v>8403.729600000001</v>
+        <v>5994.1566</v>
       </c>
       <c r="G40" t="n">
-        <v>40.19333333333334</v>
+        <v>370160.8968512195</v>
       </c>
       <c r="H40" t="n">
-        <v>39.90500000000001</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,40 +1854,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="D41" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="E41" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="F41" t="n">
-        <v>2290.7713</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>40.28</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H41" t="n">
-        <v>39.90166666666668</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>39.3</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2134,40 +1895,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="D42" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="E42" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1907.6939</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>40.35333333333334</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H42" t="n">
-        <v>39.90000000000001</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2176,40 +1936,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="C43" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D43" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E43" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="F43" t="n">
-        <v>1623</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>40.44</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H43" t="n">
-        <v>39.90333333333334</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,40 +1977,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.5</v>
+        <v>39.4</v>
       </c>
       <c r="C44" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="D44" t="n">
-        <v>40.5</v>
+        <v>39.4</v>
       </c>
       <c r="E44" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="F44" t="n">
-        <v>1173.8099</v>
+        <v>8238.9252</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48666666666666</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H44" t="n">
-        <v>39.89833333333334</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,40 +2018,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="C45" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="D45" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="E45" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="F45" t="n">
-        <v>238.2805</v>
+        <v>4398.6128</v>
       </c>
       <c r="G45" t="n">
-        <v>40.53333333333332</v>
+        <v>365782.2840512195</v>
       </c>
       <c r="H45" t="n">
-        <v>39.89833333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,40 +2057,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="C46" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="D46" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="E46" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1808.9999</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
-        <v>40.57333333333333</v>
+        <v>365782.2840512195</v>
       </c>
       <c r="H46" t="n">
-        <v>39.89333333333335</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,40 +2098,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="C47" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="D47" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="E47" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="F47" t="n">
-        <v>22262.8998</v>
+        <v>165</v>
       </c>
       <c r="G47" t="n">
-        <v>40.59999999999999</v>
+        <v>365782.2840512195</v>
       </c>
       <c r="H47" t="n">
-        <v>39.88333333333335</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,40 +2137,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="C48" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="D48" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="E48" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="F48" t="n">
-        <v>30435.2142</v>
+        <v>12.5376</v>
       </c>
       <c r="G48" t="n">
-        <v>40.62666666666666</v>
+        <v>365794.8216512195</v>
       </c>
       <c r="H48" t="n">
-        <v>39.88000000000002</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,40 +2176,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="C49" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="D49" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>3846.153846153846</v>
       </c>
       <c r="G49" t="n">
-        <v>40.67999999999999</v>
+        <v>369640.9754973734</v>
       </c>
       <c r="H49" t="n">
-        <v>39.87833333333335</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,40 +2215,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="C50" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="D50" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="E50" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="F50" t="n">
-        <v>3867.7194</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>40.71333333333332</v>
+        <v>369650.9754973734</v>
       </c>
       <c r="H50" t="n">
-        <v>39.88000000000002</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,40 +2254,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="C51" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="D51" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F51" t="n">
-        <v>2726.2231</v>
+        <v>584.9605</v>
       </c>
       <c r="G51" t="n">
-        <v>40.71333333333332</v>
+        <v>369650.9754973734</v>
       </c>
       <c r="H51" t="n">
-        <v>39.88166666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,40 +2293,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="C52" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D52" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E52" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F52" t="n">
-        <v>817.4386</v>
+        <v>1653.3453</v>
       </c>
       <c r="G52" t="n">
-        <v>40.71999999999999</v>
+        <v>371304.3207973734</v>
       </c>
       <c r="H52" t="n">
-        <v>39.88833333333335</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,40 +2332,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="C53" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D53" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E53" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F53" t="n">
-        <v>91588.1452</v>
+        <v>790</v>
       </c>
       <c r="G53" t="n">
-        <v>40.73999999999999</v>
+        <v>371304.3207973734</v>
       </c>
       <c r="H53" t="n">
-        <v>39.89000000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,40 +2371,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41.1</v>
+        <v>39.5</v>
       </c>
       <c r="C54" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="D54" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="E54" t="n">
-        <v>41.1</v>
+        <v>39.5</v>
       </c>
       <c r="F54" t="n">
-        <v>17800.0069</v>
+        <v>17450.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>40.78666666666665</v>
+        <v>388755.3206973734</v>
       </c>
       <c r="H54" t="n">
-        <v>39.90666666666668</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,40 +2410,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="C55" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="D55" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="E55" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="F55" t="n">
-        <v>6072.8973</v>
+        <v>849.1204</v>
       </c>
       <c r="G55" t="n">
-        <v>40.81999999999998</v>
+        <v>388755.3206973734</v>
       </c>
       <c r="H55" t="n">
-        <v>39.92500000000003</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,40 +2449,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41.3</v>
+        <v>39.6</v>
       </c>
       <c r="C56" t="n">
-        <v>41.4</v>
+        <v>39.6</v>
       </c>
       <c r="D56" t="n">
-        <v>41.4</v>
+        <v>39.6</v>
       </c>
       <c r="E56" t="n">
-        <v>41.3</v>
+        <v>39.6</v>
       </c>
       <c r="F56" t="n">
-        <v>17794.0579</v>
+        <v>12668.8733</v>
       </c>
       <c r="G56" t="n">
-        <v>40.85999999999999</v>
+        <v>401424.1939973733</v>
       </c>
       <c r="H56" t="n">
-        <v>39.94500000000003</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,40 +2488,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="C57" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="D57" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="E57" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="F57" t="n">
-        <v>6212.315</v>
+        <v>81804</v>
       </c>
       <c r="G57" t="n">
-        <v>40.87999999999998</v>
+        <v>483228.1939973733</v>
       </c>
       <c r="H57" t="n">
-        <v>39.95333333333336</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,40 +2527,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="C58" t="n">
-        <v>41.4</v>
+        <v>39.7</v>
       </c>
       <c r="D58" t="n">
-        <v>41.4</v>
+        <v>39.7</v>
       </c>
       <c r="E58" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="F58" t="n">
-        <v>22032</v>
+        <v>27951</v>
       </c>
       <c r="G58" t="n">
-        <v>40.90666666666664</v>
+        <v>483228.1939973733</v>
       </c>
       <c r="H58" t="n">
-        <v>39.97833333333336</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,40 +2566,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.8</v>
+        <v>39.7</v>
       </c>
       <c r="C59" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="D59" t="n">
-        <v>40.8</v>
+        <v>39.7</v>
       </c>
       <c r="E59" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="F59" t="n">
-        <v>33667.5145</v>
+        <v>952.1566</v>
       </c>
       <c r="G59" t="n">
-        <v>40.88666666666665</v>
+        <v>483228.1939973733</v>
       </c>
       <c r="H59" t="n">
-        <v>39.98500000000003</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,40 +2605,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="C60" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="D60" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="E60" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="F60" t="n">
-        <v>35660.361</v>
+        <v>6310.9389</v>
       </c>
       <c r="G60" t="n">
-        <v>40.86666666666665</v>
+        <v>489539.1328973733</v>
       </c>
       <c r="H60" t="n">
-        <v>39.99333333333336</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,40 +2644,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="C61" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="F61" t="n">
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>40.91999999999999</v>
+        <v>489549.1328973733</v>
       </c>
       <c r="H61" t="n">
-        <v>40.02166666666669</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,40 +2683,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="C62" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="D62" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="E62" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="F62" t="n">
-        <v>1231.343</v>
+        <v>29241</v>
       </c>
       <c r="G62" t="n">
-        <v>40.91333333333332</v>
+        <v>518790.1328973733</v>
       </c>
       <c r="H62" t="n">
-        <v>40.0416666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3016,40 +2722,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C63" t="n">
         <v>40.1</v>
       </c>
       <c r="D63" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E63" t="n">
         <v>40.1</v>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>8519.9998</v>
       </c>
       <c r="G63" t="n">
-        <v>40.86666666666666</v>
+        <v>510270.1330973734</v>
       </c>
       <c r="H63" t="n">
-        <v>40.06000000000003</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,40 +2761,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="C64" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="D64" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="E64" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="F64" t="n">
-        <v>516.8754</v>
+        <v>11062.9561</v>
       </c>
       <c r="G64" t="n">
-        <v>40.81333333333333</v>
+        <v>521333.0891973734</v>
       </c>
       <c r="H64" t="n">
-        <v>40.06833333333336</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,40 +2800,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="C65" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E65" t="n">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="F65" t="n">
-        <v>11855.4401</v>
+        <v>2443.927825365854</v>
       </c>
       <c r="G65" t="n">
-        <v>40.72666666666667</v>
+        <v>523777.0170227392</v>
       </c>
       <c r="H65" t="n">
-        <v>40.06500000000003</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,40 +2839,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="C66" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="D66" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="E66" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="F66" t="n">
-        <v>53359.4808</v>
+        <v>2356.8901</v>
       </c>
       <c r="G66" t="n">
-        <v>40.63333333333333</v>
+        <v>521420.1269227392</v>
       </c>
       <c r="H66" t="n">
-        <v>40.07166666666669</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,40 +2878,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="C67" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D67" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="E67" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F67" t="n">
-        <v>1231.343</v>
+        <v>5815.2535</v>
       </c>
       <c r="G67" t="n">
-        <v>40.56</v>
+        <v>515604.8734227392</v>
       </c>
       <c r="H67" t="n">
-        <v>40.08666666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,40 +2917,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="E68" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="F68" t="n">
-        <v>6900</v>
+        <v>5233.7281</v>
       </c>
       <c r="G68" t="n">
-        <v>40.49333333333333</v>
+        <v>510371.1453227392</v>
       </c>
       <c r="H68" t="n">
-        <v>40.10000000000003</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,40 +2956,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C69" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="D69" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="E69" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F69" t="n">
-        <v>36300</v>
+        <v>8403.729600000001</v>
       </c>
       <c r="G69" t="n">
-        <v>40.42</v>
+        <v>518774.8749227392</v>
       </c>
       <c r="H69" t="n">
-        <v>40.11833333333336</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,40 +2995,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="C70" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="D70" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="E70" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="F70" t="n">
-        <v>3650</v>
+        <v>2290.7713</v>
       </c>
       <c r="G70" t="n">
-        <v>40.34666666666668</v>
+        <v>518774.8749227392</v>
       </c>
       <c r="H70" t="n">
-        <v>40.13500000000003</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,40 +3034,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="C71" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="D71" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="E71" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="F71" t="n">
-        <v>9600</v>
+        <v>1907.6939</v>
       </c>
       <c r="G71" t="n">
-        <v>40.26666666666668</v>
+        <v>516867.1810227392</v>
       </c>
       <c r="H71" t="n">
-        <v>40.15000000000002</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,40 +3073,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="C72" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D72" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="E72" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="F72" t="n">
-        <v>21806.2962</v>
+        <v>1623</v>
       </c>
       <c r="G72" t="n">
-        <v>40.24000000000002</v>
+        <v>518490.1810227392</v>
       </c>
       <c r="H72" t="n">
-        <v>40.17000000000002</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,40 +3112,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="C73" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="D73" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="E73" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F73" t="n">
-        <v>18300</v>
+        <v>1173.8099</v>
       </c>
       <c r="G73" t="n">
-        <v>40.22666666666669</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H73" t="n">
-        <v>40.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,40 +3151,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="C74" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="D74" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="E74" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="F74" t="n">
-        <v>23116.7961</v>
+        <v>238.2805</v>
       </c>
       <c r="G74" t="n">
-        <v>40.30000000000003</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H74" t="n">
-        <v>40.23000000000001</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,40 +3190,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C75" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D75" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E75" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>1808.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>40.36000000000002</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H75" t="n">
-        <v>40.25666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,40 +3229,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C76" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D76" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E76" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F76" t="n">
-        <v>7534.5169</v>
+        <v>22262.8998</v>
       </c>
       <c r="G76" t="n">
-        <v>40.34666666666669</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H76" t="n">
-        <v>40.29500000000001</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,40 +3268,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="C77" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="D77" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E77" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="F77" t="n">
-        <v>49.261</v>
+        <v>30435.2142</v>
       </c>
       <c r="G77" t="n">
-        <v>40.36666666666669</v>
+        <v>547751.5853227392</v>
       </c>
       <c r="H77" t="n">
-        <v>40.32666666666668</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,40 +3307,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="C78" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="D78" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="E78" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="F78" t="n">
-        <v>1436.9376</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>40.40000000000002</v>
+        <v>548751.5853227392</v>
       </c>
       <c r="H78" t="n">
-        <v>40.35833333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,40 +3346,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="C79" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="D79" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="E79" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>3867.7194</v>
       </c>
       <c r="G79" t="n">
-        <v>40.42000000000002</v>
+        <v>548751.5853227392</v>
       </c>
       <c r="H79" t="n">
-        <v>40.38500000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3733,37 +3388,34 @@
         <v>41</v>
       </c>
       <c r="C80" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D80" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E80" t="n">
         <v>41</v>
       </c>
       <c r="F80" t="n">
-        <v>17700</v>
+        <v>2726.2231</v>
       </c>
       <c r="G80" t="n">
-        <v>40.54000000000001</v>
+        <v>551477.8084227392</v>
       </c>
       <c r="H80" t="n">
-        <v>40.42500000000002</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,40 +3424,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C81" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D81" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E81" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F81" t="n">
-        <v>142504.7877</v>
+        <v>817.4386</v>
       </c>
       <c r="G81" t="n">
-        <v>40.66666666666668</v>
+        <v>551477.8084227392</v>
       </c>
       <c r="H81" t="n">
-        <v>40.46166666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,40 +3463,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="C82" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E82" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="F82" t="n">
-        <v>2642.3467</v>
+        <v>91588.1452</v>
       </c>
       <c r="G82" t="n">
-        <v>40.76666666666668</v>
+        <v>551477.8084227392</v>
       </c>
       <c r="H82" t="n">
-        <v>40.49666666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,40 +3502,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="C83" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D83" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E83" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="F83" t="n">
-        <v>4518.4132</v>
+        <v>17800.0069</v>
       </c>
       <c r="G83" t="n">
-        <v>40.86000000000001</v>
+        <v>569277.8153227392</v>
       </c>
       <c r="H83" t="n">
-        <v>40.53000000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,40 +3541,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C84" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D84" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E84" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F84" t="n">
-        <v>1211</v>
+        <v>6072.8973</v>
       </c>
       <c r="G84" t="n">
-        <v>40.94000000000001</v>
+        <v>569277.8153227392</v>
       </c>
       <c r="H84" t="n">
-        <v>40.56333333333335</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3940,40 +3580,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C85" t="n">
         <v>41.4</v>
       </c>
-      <c r="C85" t="n">
-        <v>41.5</v>
-      </c>
       <c r="D85" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E85" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F85" t="n">
-        <v>8100</v>
+        <v>17794.0579</v>
       </c>
       <c r="G85" t="n">
-        <v>41.02666666666667</v>
+        <v>587071.8732227392</v>
       </c>
       <c r="H85" t="n">
-        <v>40.59666666666668</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,40 +3619,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="C86" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D86" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E86" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="F86" t="n">
-        <v>3976</v>
+        <v>6212.315</v>
       </c>
       <c r="G86" t="n">
-        <v>41.10666666666667</v>
+        <v>580859.5582227393</v>
       </c>
       <c r="H86" t="n">
-        <v>40.62833333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,40 +3658,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C87" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="D87" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E87" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F87" t="n">
-        <v>12.1359</v>
+        <v>22032</v>
       </c>
       <c r="G87" t="n">
-        <v>41.14666666666667</v>
+        <v>602891.5582227393</v>
       </c>
       <c r="H87" t="n">
-        <v>40.65500000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,40 +3697,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C88" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="D88" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="E88" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="F88" t="n">
-        <v>12.1654</v>
+        <v>33667.5145</v>
       </c>
       <c r="G88" t="n">
-        <v>41.14</v>
+        <v>569224.0437227392</v>
       </c>
       <c r="H88" t="n">
-        <v>40.67833333333335</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4111,37 +3739,34 @@
         <v>41</v>
       </c>
       <c r="C89" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="D89" t="n">
         <v>41</v>
       </c>
       <c r="E89" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="F89" t="n">
-        <v>24.3902</v>
+        <v>35660.361</v>
       </c>
       <c r="G89" t="n">
-        <v>41.12666666666667</v>
+        <v>569224.0437227392</v>
       </c>
       <c r="H89" t="n">
-        <v>40.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,40 +3775,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="C90" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="D90" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="E90" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="F90" t="n">
-        <v>23059.0041</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>41.11333333333333</v>
+        <v>569234.0437227392</v>
       </c>
       <c r="H90" t="n">
-        <v>40.71833333333336</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,40 +3814,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="C91" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="D91" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="E91" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="F91" t="n">
-        <v>15993</v>
+        <v>1231.343</v>
       </c>
       <c r="G91" t="n">
-        <v>41.09999999999999</v>
+        <v>568002.7007227392</v>
       </c>
       <c r="H91" t="n">
-        <v>40.73500000000002</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,40 +3853,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="C92" t="n">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="D92" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="E92" t="n">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="F92" t="n">
-        <v>22218.3372</v>
+        <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>41.09333333333333</v>
+        <v>558002.7007227392</v>
       </c>
       <c r="H92" t="n">
-        <v>40.74333333333335</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,40 +3892,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="C93" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="D93" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="E93" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1016.1053</v>
+        <v>516.8754</v>
       </c>
       <c r="G93" t="n">
-        <v>41.10666666666665</v>
+        <v>558002.7007227392</v>
       </c>
       <c r="H93" t="n">
-        <v>40.75000000000002</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,40 +3931,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="C94" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="D94" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="E94" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F94" t="n">
-        <v>36150</v>
+        <v>11855.4401</v>
       </c>
       <c r="G94" t="n">
-        <v>41.09999999999999</v>
+        <v>546147.2606227392</v>
       </c>
       <c r="H94" t="n">
-        <v>40.75333333333336</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,40 +3970,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="C95" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="D95" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="E95" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>53359.4808</v>
       </c>
       <c r="G95" t="n">
-        <v>41.04666666666665</v>
+        <v>546147.2606227392</v>
       </c>
       <c r="H95" t="n">
-        <v>40.75666666666669</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,40 +4009,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="C96" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="D96" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="E96" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="F96" t="n">
-        <v>3000</v>
+        <v>1231.343</v>
       </c>
       <c r="G96" t="n">
-        <v>40.95333333333333</v>
+        <v>547378.6036227392</v>
       </c>
       <c r="H96" t="n">
-        <v>40.74166666666669</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,40 +4048,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="C97" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="D97" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="E97" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="F97" t="n">
-        <v>123.5241</v>
+        <v>6900</v>
       </c>
       <c r="G97" t="n">
-        <v>40.88666666666666</v>
+        <v>554278.6036227392</v>
       </c>
       <c r="H97" t="n">
-        <v>40.73333333333336</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,37 +4090,34 @@
         <v>40.1</v>
       </c>
       <c r="C98" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="D98" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="E98" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="F98" t="n">
-        <v>18854.6806</v>
+        <v>36300</v>
       </c>
       <c r="G98" t="n">
-        <v>40.81999999999999</v>
+        <v>590578.6036227392</v>
       </c>
       <c r="H98" t="n">
-        <v>40.72833333333336</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,40 +4126,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="C99" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="D99" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E99" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="F99" t="n">
-        <v>4975.0623</v>
+        <v>3650</v>
       </c>
       <c r="G99" t="n">
-        <v>40.67333333333332</v>
+        <v>590578.6036227392</v>
       </c>
       <c r="H99" t="n">
-        <v>40.70500000000003</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,40 +4165,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="C100" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="D100" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E100" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="F100" t="n">
-        <v>7795.18</v>
+        <v>9600</v>
       </c>
       <c r="G100" t="n">
-        <v>40.52</v>
+        <v>590578.6036227392</v>
       </c>
       <c r="H100" t="n">
-        <v>40.67833333333336</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,40 +4204,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="C101" t="n">
-        <v>39.2</v>
+        <v>40.6</v>
       </c>
       <c r="D101" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="E101" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="F101" t="n">
-        <v>3512.994</v>
+        <v>21806.2962</v>
       </c>
       <c r="G101" t="n">
-        <v>40.37333333333333</v>
+        <v>612384.8998227392</v>
       </c>
       <c r="H101" t="n">
-        <v>40.65166666666668</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,40 +4243,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C102" t="n">
-        <v>38.9</v>
+        <v>41.2</v>
       </c>
       <c r="D102" t="n">
-        <v>39</v>
+        <v>41.2</v>
       </c>
       <c r="E102" t="n">
-        <v>38.9</v>
+        <v>41</v>
       </c>
       <c r="F102" t="n">
-        <v>2400</v>
+        <v>18300</v>
       </c>
       <c r="G102" t="n">
-        <v>40.22</v>
+        <v>630684.8998227392</v>
       </c>
       <c r="H102" t="n">
-        <v>40.62166666666668</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,42 +4282,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="C103" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="D103" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="E103" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="F103" t="n">
-        <v>661.826</v>
+        <v>23116.7961</v>
       </c>
       <c r="G103" t="n">
-        <v>40.06</v>
+        <v>630684.8998227392</v>
       </c>
       <c r="H103" t="n">
-        <v>40.58333333333335</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,42 +4321,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="C104" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="D104" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="E104" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="F104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>39.96666666666667</v>
+        <v>630674.8998227392</v>
       </c>
       <c r="H104" t="n">
-        <v>40.57000000000001</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,40 +4360,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="C105" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="E105" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="F105" t="n">
-        <v>25</v>
+        <v>7534.5169</v>
       </c>
       <c r="G105" t="n">
-        <v>39.92666666666667</v>
+        <v>630674.8998227392</v>
       </c>
       <c r="H105" t="n">
-        <v>40.56666666666668</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,40 +4399,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="C106" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="D106" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="E106" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="F106" t="n">
-        <v>5790.6316</v>
+        <v>49.261</v>
       </c>
       <c r="G106" t="n">
-        <v>39.84000000000001</v>
+        <v>630625.6388227391</v>
       </c>
       <c r="H106" t="n">
-        <v>40.55166666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,40 +4438,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C107" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="D107" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="E107" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F107" t="n">
-        <v>21253.277</v>
+        <v>1436.9376</v>
       </c>
       <c r="G107" t="n">
-        <v>39.81333333333335</v>
+        <v>630625.6388227391</v>
       </c>
       <c r="H107" t="n">
-        <v>40.54666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,37 +4480,34 @@
         <v>40.4</v>
       </c>
       <c r="C108" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="D108" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="E108" t="n">
         <v>40.4</v>
       </c>
       <c r="F108" t="n">
-        <v>20700</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>39.80666666666669</v>
+        <v>630615.6388227391</v>
       </c>
       <c r="H108" t="n">
-        <v>40.54499999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,40 +4516,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="C109" t="n">
-        <v>40.9</v>
+        <v>41.4</v>
       </c>
       <c r="D109" t="n">
-        <v>40.9</v>
+        <v>41.4</v>
       </c>
       <c r="E109" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F109" t="n">
-        <v>5700</v>
+        <v>17700</v>
       </c>
       <c r="G109" t="n">
-        <v>39.84666666666669</v>
+        <v>648315.6388227391</v>
       </c>
       <c r="H109" t="n">
-        <v>40.54499999999999</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,40 +4555,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C110" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="D110" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="E110" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="F110" t="n">
-        <v>2250</v>
+        <v>142504.7877</v>
       </c>
       <c r="G110" t="n">
-        <v>39.88666666666668</v>
+        <v>790820.4265227391</v>
       </c>
       <c r="H110" t="n">
-        <v>40.54999999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,40 +4594,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="C111" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D111" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E111" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1363.8397</v>
+        <v>2642.3467</v>
       </c>
       <c r="G111" t="n">
-        <v>39.92666666666669</v>
+        <v>788178.0798227391</v>
       </c>
       <c r="H111" t="n">
-        <v>40.54499999999999</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,40 +4633,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="C112" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="D112" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="E112" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F112" t="n">
-        <v>1209.6956</v>
+        <v>4518.4132</v>
       </c>
       <c r="G112" t="n">
-        <v>39.94000000000003</v>
+        <v>788178.0798227391</v>
       </c>
       <c r="H112" t="n">
-        <v>40.53833333333332</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,7 +4672,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="C113" t="n">
         <v>41.4</v>
@@ -5129,31 +4681,28 @@
         <v>41.4</v>
       </c>
       <c r="E113" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F113" t="n">
-        <v>21947.6338</v>
+        <v>1211</v>
       </c>
       <c r="G113" t="n">
-        <v>40.00666666666669</v>
+        <v>788178.0798227391</v>
       </c>
       <c r="H113" t="n">
-        <v>40.54499999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,40 +4711,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="C114" t="n">
-        <v>40.6</v>
+        <v>41.5</v>
       </c>
       <c r="D114" t="n">
-        <v>40.7</v>
+        <v>41.5</v>
       </c>
       <c r="E114" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F114" t="n">
-        <v>1319</v>
+        <v>8100</v>
       </c>
       <c r="G114" t="n">
-        <v>40.10000000000002</v>
+        <v>796278.0798227391</v>
       </c>
       <c r="H114" t="n">
-        <v>40.53333333333332</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,40 +4750,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="C115" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="D115" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="E115" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>3976</v>
       </c>
       <c r="G115" t="n">
-        <v>40.24000000000002</v>
+        <v>792302.0798227391</v>
       </c>
       <c r="H115" t="n">
-        <v>40.53333333333332</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,40 +4789,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="C116" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="D116" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="E116" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="F116" t="n">
-        <v>4933.2083</v>
+        <v>12.1359</v>
       </c>
       <c r="G116" t="n">
-        <v>40.38666666666668</v>
+        <v>792289.9439227391</v>
       </c>
       <c r="H116" t="n">
-        <v>40.53333333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,37 +4831,34 @@
         <v>41.1</v>
       </c>
       <c r="C117" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="D117" t="n">
         <v>41.1</v>
       </c>
       <c r="E117" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="F117" t="n">
-        <v>14775.9999</v>
+        <v>12.1654</v>
       </c>
       <c r="G117" t="n">
-        <v>40.52666666666668</v>
+        <v>792277.7785227391</v>
       </c>
       <c r="H117" t="n">
-        <v>40.53333333333332</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,40 +4867,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C118" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="E118" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F118" t="n">
-        <v>9236.3264</v>
+        <v>24.3902</v>
       </c>
       <c r="G118" t="n">
-        <v>40.66666666666667</v>
+        <v>792253.388322739</v>
       </c>
       <c r="H118" t="n">
-        <v>40.52333333333332</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,40 +4906,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="C119" t="n">
         <v>40.8</v>
       </c>
       <c r="D119" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="E119" t="n">
         <v>40.8</v>
       </c>
       <c r="F119" t="n">
-        <v>22713.7483</v>
+        <v>23059.0041</v>
       </c>
       <c r="G119" t="n">
-        <v>40.74666666666667</v>
+        <v>769194.384222739</v>
       </c>
       <c r="H119" t="n">
-        <v>40.53499999999999</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,40 +4945,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C120" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D120" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="E120" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="F120" t="n">
-        <v>7495.3883</v>
+        <v>15993</v>
       </c>
       <c r="G120" t="n">
-        <v>40.81333333333334</v>
+        <v>769194.384222739</v>
       </c>
       <c r="H120" t="n">
-        <v>40.55333333333332</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,40 +4984,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="C121" t="n">
-        <v>41.4</v>
+        <v>40.5</v>
       </c>
       <c r="D121" t="n">
-        <v>41.4</v>
+        <v>40.5</v>
       </c>
       <c r="E121" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="F121" t="n">
-        <v>39900</v>
+        <v>22218.3372</v>
       </c>
       <c r="G121" t="n">
-        <v>40.94</v>
+        <v>746976.0470227391</v>
       </c>
       <c r="H121" t="n">
-        <v>40.55666666666666</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,40 +5023,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="C122" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="D122" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="E122" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="F122" t="n">
-        <v>27308.2367</v>
+        <v>1016.1053</v>
       </c>
       <c r="G122" t="n">
-        <v>41.02666666666666</v>
+        <v>747992.1523227391</v>
       </c>
       <c r="H122" t="n">
-        <v>40.575</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,40 +5062,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C123" t="n">
-        <v>41.5</v>
+        <v>40.3</v>
       </c>
       <c r="D123" t="n">
-        <v>41.5</v>
+        <v>40.4</v>
       </c>
       <c r="E123" t="n">
-        <v>41.3</v>
+        <v>40.2</v>
       </c>
       <c r="F123" t="n">
-        <v>94296.3855</v>
+        <v>36150</v>
       </c>
       <c r="G123" t="n">
-        <v>41.08</v>
+        <v>711842.1523227391</v>
       </c>
       <c r="H123" t="n">
-        <v>40.59833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,40 +5101,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="C124" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="D124" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="E124" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="F124" t="n">
-        <v>7607.4226</v>
+        <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>41.12</v>
+        <v>711853.1523227391</v>
       </c>
       <c r="H124" t="n">
-        <v>40.62166666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,40 +5140,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>41.5</v>
+        <v>40.1</v>
       </c>
       <c r="C125" t="n">
-        <v>41.6</v>
+        <v>40.1</v>
       </c>
       <c r="D125" t="n">
-        <v>41.6</v>
+        <v>40.1</v>
       </c>
       <c r="E125" t="n">
-        <v>41.5</v>
+        <v>40.1</v>
       </c>
       <c r="F125" t="n">
-        <v>23729.5949</v>
+        <v>3000</v>
       </c>
       <c r="G125" t="n">
-        <v>41.14666666666666</v>
+        <v>708853.1523227391</v>
       </c>
       <c r="H125" t="n">
-        <v>40.65499999999999</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,40 +5179,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="C126" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="D126" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="E126" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="F126" t="n">
-        <v>2156.1019</v>
+        <v>123.5241</v>
       </c>
       <c r="G126" t="n">
-        <v>41.21333333333333</v>
+        <v>708976.6764227392</v>
       </c>
       <c r="H126" t="n">
-        <v>40.68999999999999</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,40 +5218,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>41.7</v>
+        <v>40.1</v>
       </c>
       <c r="C127" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="D127" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="E127" t="n">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="F127" t="n">
-        <v>2887</v>
+        <v>18854.6806</v>
       </c>
       <c r="G127" t="n">
-        <v>41.28666666666666</v>
+        <v>708976.6764227392</v>
       </c>
       <c r="H127" t="n">
-        <v>40.71999999999999</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,40 +5257,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>41.7</v>
+        <v>39.2</v>
       </c>
       <c r="C128" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="D128" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="E128" t="n">
-        <v>41.7</v>
+        <v>39.2</v>
       </c>
       <c r="F128" t="n">
-        <v>8850</v>
+        <v>4975.0623</v>
       </c>
       <c r="G128" t="n">
-        <v>41.34</v>
+        <v>704001.6141227392</v>
       </c>
       <c r="H128" t="n">
-        <v>40.75666666666665</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,40 +5296,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="C129" t="n">
-        <v>41.8</v>
+        <v>39.2</v>
       </c>
       <c r="D129" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="E129" t="n">
-        <v>41.8</v>
+        <v>39.2</v>
       </c>
       <c r="F129" t="n">
-        <v>20216.6604</v>
+        <v>7795.18</v>
       </c>
       <c r="G129" t="n">
-        <v>41.41999999999999</v>
+        <v>704001.6141227392</v>
       </c>
       <c r="H129" t="n">
-        <v>40.78333333333332</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,40 +5335,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="C130" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="D130" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="E130" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="F130" t="n">
-        <v>1009.6513</v>
+        <v>3512.994</v>
       </c>
       <c r="G130" t="n">
-        <v>41.46</v>
+        <v>704001.6141227392</v>
       </c>
       <c r="H130" t="n">
-        <v>40.81166666666666</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,40 +5374,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>41.7</v>
+        <v>39</v>
       </c>
       <c r="C131" t="n">
-        <v>42.2</v>
+        <v>38.9</v>
       </c>
       <c r="D131" t="n">
-        <v>42.2</v>
+        <v>39</v>
       </c>
       <c r="E131" t="n">
-        <v>41.7</v>
+        <v>38.9</v>
       </c>
       <c r="F131" t="n">
-        <v>1352.8277</v>
+        <v>2400</v>
       </c>
       <c r="G131" t="n">
-        <v>41.51333333333334</v>
+        <v>701601.6141227392</v>
       </c>
       <c r="H131" t="n">
-        <v>40.845</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,40 +5413,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>41.8</v>
+        <v>38.7</v>
       </c>
       <c r="C132" t="n">
-        <v>41.6</v>
+        <v>38.7</v>
       </c>
       <c r="D132" t="n">
-        <v>41.8</v>
+        <v>38.7</v>
       </c>
       <c r="E132" t="n">
-        <v>41.6</v>
+        <v>38.7</v>
       </c>
       <c r="F132" t="n">
-        <v>14960.7178</v>
+        <v>661.826</v>
       </c>
       <c r="G132" t="n">
-        <v>41.55333333333333</v>
+        <v>700939.7881227392</v>
       </c>
       <c r="H132" t="n">
-        <v>40.86166666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,40 +5452,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="C133" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="D133" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="E133" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="F133" t="n">
-        <v>24036.1445</v>
+        <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>41.62</v>
+        <v>700950.7881227392</v>
       </c>
       <c r="H133" t="n">
-        <v>40.87166666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,40 +5491,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="C134" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="D134" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="E134" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="F134" t="n">
-        <v>1373</v>
+        <v>25</v>
       </c>
       <c r="G134" t="n">
-        <v>41.68666666666667</v>
+        <v>700975.7881227392</v>
       </c>
       <c r="H134" t="n">
-        <v>40.88166666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,40 +5530,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>41.8</v>
+        <v>39.5</v>
       </c>
       <c r="C135" t="n">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="D135" t="n">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="E135" t="n">
-        <v>41.8</v>
+        <v>39.5</v>
       </c>
       <c r="F135" t="n">
-        <v>2393.7909</v>
+        <v>5790.6316</v>
       </c>
       <c r="G135" t="n">
-        <v>41.77333333333333</v>
+        <v>695185.1565227392</v>
       </c>
       <c r="H135" t="n">
-        <v>40.90666666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6086,40 +5569,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="C136" t="n">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="D136" t="n">
-        <v>42.5</v>
+        <v>40.3</v>
       </c>
       <c r="E136" t="n">
-        <v>42.3</v>
+        <v>40.1</v>
       </c>
       <c r="F136" t="n">
-        <v>675.9623</v>
+        <v>21253.277</v>
       </c>
       <c r="G136" t="n">
-        <v>41.84666666666667</v>
+        <v>716438.4335227392</v>
       </c>
       <c r="H136" t="n">
-        <v>40.93166666666668</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,40 +5608,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="C137" t="n">
-        <v>43.2</v>
+        <v>40.7</v>
       </c>
       <c r="D137" t="n">
-        <v>43.4</v>
+        <v>40.7</v>
       </c>
       <c r="E137" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="F137" t="n">
-        <v>51128.4838</v>
+        <v>20700</v>
       </c>
       <c r="G137" t="n">
-        <v>41.96666666666668</v>
+        <v>737138.4335227392</v>
       </c>
       <c r="H137" t="n">
-        <v>40.97500000000001</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6170,40 +5647,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>43.4</v>
+        <v>40.8</v>
       </c>
       <c r="C138" t="n">
-        <v>42.7</v>
+        <v>40.9</v>
       </c>
       <c r="D138" t="n">
-        <v>43.4</v>
+        <v>40.9</v>
       </c>
       <c r="E138" t="n">
-        <v>42.7</v>
+        <v>40.8</v>
       </c>
       <c r="F138" t="n">
-        <v>2449.95</v>
+        <v>5700</v>
       </c>
       <c r="G138" t="n">
-        <v>42.04666666666667</v>
+        <v>742838.4335227392</v>
       </c>
       <c r="H138" t="n">
-        <v>41.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6212,76 +5686,76 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>42.7</v>
+        <v>41</v>
       </c>
       <c r="C139" t="n">
-        <v>43.4</v>
+        <v>41.2</v>
       </c>
       <c r="D139" t="n">
-        <v>43.4</v>
+        <v>41.2</v>
       </c>
       <c r="E139" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="F139" t="n">
-        <v>11927.8996</v>
+        <v>2250</v>
       </c>
       <c r="G139" t="n">
-        <v>42.17333333333334</v>
+        <v>745088.4335227392</v>
       </c>
       <c r="H139" t="n">
-        <v>41.06000000000001</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>43.4</v>
+        <v>40.7</v>
       </c>
       <c r="C140" t="n">
-        <v>42.3</v>
+        <v>40.7</v>
       </c>
       <c r="D140" t="n">
-        <v>43.4</v>
+        <v>40.7</v>
       </c>
       <c r="E140" t="n">
-        <v>42.3</v>
+        <v>40.7</v>
       </c>
       <c r="F140" t="n">
-        <v>1165.4403</v>
+        <v>1363.8397</v>
       </c>
       <c r="G140" t="n">
-        <v>42.22000000000001</v>
+        <v>743724.5938227392</v>
       </c>
       <c r="H140" t="n">
-        <v>41.07500000000001</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,36 +5764,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>43</v>
+        <v>40.6</v>
       </c>
       <c r="C141" t="n">
-        <v>43.3</v>
+        <v>40.6</v>
       </c>
       <c r="D141" t="n">
-        <v>43.3</v>
+        <v>40.6</v>
       </c>
       <c r="E141" t="n">
-        <v>43</v>
+        <v>40.6</v>
       </c>
       <c r="F141" t="n">
-        <v>15766.69091316397</v>
+        <v>1209.6956</v>
       </c>
       <c r="G141" t="n">
-        <v>42.32666666666667</v>
+        <v>742514.8982227392</v>
       </c>
       <c r="H141" t="n">
-        <v>41.10500000000001</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,36 +5803,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="C142" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="D142" t="n">
-        <v>42.3</v>
+        <v>41.4</v>
       </c>
       <c r="E142" t="n">
-        <v>42.1</v>
+        <v>40.6</v>
       </c>
       <c r="F142" t="n">
-        <v>6315.77</v>
+        <v>21947.6338</v>
       </c>
       <c r="G142" t="n">
-        <v>42.35333333333333</v>
+        <v>764462.5320227392</v>
       </c>
       <c r="H142" t="n">
-        <v>41.11666666666667</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,36 +5842,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>42.2</v>
+        <v>40.7</v>
       </c>
       <c r="C143" t="n">
-        <v>42.2</v>
+        <v>40.6</v>
       </c>
       <c r="D143" t="n">
-        <v>42.2</v>
+        <v>40.7</v>
       </c>
       <c r="E143" t="n">
-        <v>42.2</v>
+        <v>40.6</v>
       </c>
       <c r="F143" t="n">
-        <v>736.8483</v>
+        <v>1319</v>
       </c>
       <c r="G143" t="n">
-        <v>42.35333333333333</v>
+        <v>763143.5320227392</v>
       </c>
       <c r="H143" t="n">
-        <v>41.13</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,36 +5881,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="C144" t="n">
-        <v>42.3</v>
+        <v>41.3</v>
       </c>
       <c r="D144" t="n">
-        <v>42.3</v>
+        <v>41.3</v>
       </c>
       <c r="E144" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="F144" t="n">
-        <v>395.255</v>
+        <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>42.38666666666666</v>
+        <v>763243.5320227392</v>
       </c>
       <c r="H144" t="n">
-        <v>41.145</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,36 +5920,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="C145" t="n">
-        <v>42</v>
+        <v>41.4</v>
       </c>
       <c r="D145" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E145" t="n">
-        <v>42</v>
+        <v>40.7</v>
       </c>
       <c r="F145" t="n">
-        <v>7982.5221</v>
+        <v>4933.2083</v>
       </c>
       <c r="G145" t="n">
-        <v>42.39333333333333</v>
+        <v>768176.7403227392</v>
       </c>
       <c r="H145" t="n">
-        <v>41.15333333333334</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,36 +5959,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>41.8</v>
+        <v>41.1</v>
       </c>
       <c r="C146" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D146" t="n">
-        <v>41.8</v>
+        <v>41.1</v>
       </c>
       <c r="E146" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="F146" t="n">
-        <v>6131.3393</v>
+        <v>14775.9999</v>
       </c>
       <c r="G146" t="n">
-        <v>42.34666666666666</v>
+        <v>753400.7404227392</v>
       </c>
       <c r="H146" t="n">
-        <v>41.155</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,36 +5998,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C147" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D147" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="E147" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="F147" t="n">
-        <v>64040.702</v>
+        <v>9236.3264</v>
       </c>
       <c r="G147" t="n">
-        <v>42.32</v>
+        <v>744164.4140227392</v>
       </c>
       <c r="H147" t="n">
-        <v>41.155</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,36 +6037,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="C148" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="D148" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="E148" t="n">
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="F148" t="n">
-        <v>3930.3507</v>
+        <v>22713.7483</v>
       </c>
       <c r="G148" t="n">
-        <v>42.33333333333334</v>
+        <v>744164.4140227392</v>
       </c>
       <c r="H148" t="n">
-        <v>41.17</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,36 +6076,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="C149" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="D149" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="E149" t="n">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="F149" t="n">
-        <v>70650</v>
+        <v>7495.3883</v>
       </c>
       <c r="G149" t="n">
-        <v>42.36666666666667</v>
+        <v>751659.8023227392</v>
       </c>
       <c r="H149" t="n">
-        <v>41.19166666666668</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6632,36 +6115,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>42.7</v>
+        <v>41.2</v>
       </c>
       <c r="C150" t="n">
-        <v>42.6</v>
+        <v>41.4</v>
       </c>
       <c r="D150" t="n">
-        <v>42.7</v>
+        <v>41.4</v>
       </c>
       <c r="E150" t="n">
-        <v>42.6</v>
+        <v>41.2</v>
       </c>
       <c r="F150" t="n">
-        <v>12450</v>
+        <v>39900</v>
       </c>
       <c r="G150" t="n">
-        <v>42.37333333333333</v>
+        <v>791559.8023227392</v>
       </c>
       <c r="H150" t="n">
-        <v>41.22166666666667</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,36 +6154,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="C151" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="D151" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E151" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="F151" t="n">
-        <v>4213.2652</v>
+        <v>27308.2367</v>
       </c>
       <c r="G151" t="n">
-        <v>42.34666666666667</v>
+        <v>791559.8023227392</v>
       </c>
       <c r="H151" t="n">
-        <v>41.24333333333333</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>1</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6708,36 +6193,1110 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>94296.3855</v>
+      </c>
+      <c r="G152" t="n">
+        <v>885856.1878227391</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7607.4226</v>
+      </c>
+      <c r="G153" t="n">
+        <v>885856.1878227391</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>23729.5949</v>
+      </c>
+      <c r="G154" t="n">
+        <v>909585.7827227392</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2156.1019</v>
+      </c>
+      <c r="G155" t="n">
+        <v>911741.8846227392</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2887</v>
+      </c>
+      <c r="G156" t="n">
+        <v>911741.8846227392</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8850</v>
+      </c>
+      <c r="G157" t="n">
+        <v>920591.8846227392</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20216.6604</v>
+      </c>
+      <c r="G158" t="n">
+        <v>900375.2242227391</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1009.6513</v>
+      </c>
+      <c r="G159" t="n">
+        <v>901384.8755227391</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1352.8277</v>
+      </c>
+      <c r="G160" t="n">
+        <v>902737.7032227392</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14960.7178</v>
+      </c>
+      <c r="G161" t="n">
+        <v>887776.9854227392</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>24036.1445</v>
+      </c>
+      <c r="G162" t="n">
+        <v>911813.1299227392</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G163" t="n">
+        <v>911813.1299227392</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2393.7909</v>
+      </c>
+      <c r="G164" t="n">
+        <v>914206.9208227393</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>675.9623</v>
+      </c>
+      <c r="G165" t="n">
+        <v>914206.9208227393</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>51128.4838</v>
+      </c>
+      <c r="G166" t="n">
+        <v>965335.4046227393</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E167" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2449.95</v>
+      </c>
+      <c r="G167" t="n">
+        <v>962885.4546227393</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11927.8996</v>
+      </c>
+      <c r="G168" t="n">
+        <v>974813.3542227393</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1165.4403</v>
+      </c>
+      <c r="G169" t="n">
+        <v>973647.9139227393</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>43</v>
+      </c>
+      <c r="C170" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>43</v>
+      </c>
+      <c r="F170" t="n">
+        <v>15766.69091316397</v>
+      </c>
+      <c r="G170" t="n">
+        <v>989414.6048359033</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6315.77</v>
+      </c>
+      <c r="G171" t="n">
+        <v>983098.8348359033</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>736.8483</v>
+      </c>
+      <c r="G172" t="n">
+        <v>983835.6831359032</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>395.255</v>
+      </c>
+      <c r="G173" t="n">
+        <v>984230.9381359032</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>42</v>
+      </c>
+      <c r="D174" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>42</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7982.5221</v>
+      </c>
+      <c r="G174" t="n">
+        <v>976248.4160359033</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6131.3393</v>
+      </c>
+      <c r="G175" t="n">
+        <v>970117.0767359033</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>64040.702</v>
+      </c>
+      <c r="G176" t="n">
+        <v>906076.3747359032</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>42</v>
+      </c>
+      <c r="D177" t="n">
+        <v>42</v>
+      </c>
+      <c r="E177" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3930.3507</v>
+      </c>
+      <c r="G177" t="n">
+        <v>910006.7254359032</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>42</v>
+      </c>
+      <c r="C178" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>42</v>
+      </c>
+      <c r="F178" t="n">
+        <v>70650</v>
+      </c>
+      <c r="G178" t="n">
+        <v>980656.7254359032</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12450</v>
+      </c>
+      <c r="G179" t="n">
+        <v>993106.7254359032</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4213.2652</v>
+      </c>
+      <c r="G180" t="n">
+        <v>988893.4602359032</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>42.9</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C181" t="n">
         <v>43.2</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D181" t="n">
         <v>43.2</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E181" t="n">
         <v>42.9</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F181" t="n">
         <v>48034.389</v>
       </c>
-      <c r="G152" t="n">
-        <v>42.34666666666667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>41.28833333333333</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="G181" t="n">
+        <v>1036927.849235903</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="C2" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="D2" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="E2" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="F2" t="n">
-        <v>6500</v>
+        <v>8238.9252</v>
       </c>
       <c r="G2" t="n">
-        <v>379443.421</v>
+        <v>39.465</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.1</v>
+        <v>39.2</v>
       </c>
       <c r="C3" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="D3" t="n">
-        <v>41.1</v>
+        <v>39.2</v>
       </c>
       <c r="E3" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1448.0746</v>
+        <v>4398.6128</v>
       </c>
       <c r="G3" t="n">
-        <v>377995.3464</v>
+        <v>39.41500000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="C4" t="n">
-        <v>40.8</v>
+        <v>38.7</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="E4" t="n">
-        <v>40.8</v>
+        <v>38.7</v>
       </c>
       <c r="F4" t="n">
-        <v>5882.3292</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
-        <v>372113.0172</v>
+        <v>39.325</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.3</v>
+        <v>38.7</v>
       </c>
       <c r="C5" t="n">
-        <v>41.5</v>
+        <v>38.7</v>
       </c>
       <c r="D5" t="n">
-        <v>41.5</v>
+        <v>38.7</v>
       </c>
       <c r="E5" t="n">
-        <v>40.3</v>
+        <v>38.7</v>
       </c>
       <c r="F5" t="n">
-        <v>410</v>
+        <v>165</v>
       </c>
       <c r="G5" t="n">
-        <v>372523.0172</v>
+        <v>39.25500000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,63 +575,69 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="C6" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="D6" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="E6" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="F6" t="n">
-        <v>4368</v>
+        <v>12.5376</v>
       </c>
       <c r="G6" t="n">
-        <v>368155.0172</v>
+        <v>39.20500000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>38.7</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.4</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>40.4</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>40.4</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>40.4</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>1543</v>
+        <v>3846.153846153846</v>
       </c>
       <c r="G7" t="n">
-        <v>368155.0172</v>
+        <v>39.175</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,33 +646,40 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.4</v>
+        <v>39.3</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1</v>
+        <v>39.3</v>
       </c>
       <c r="D8" t="n">
-        <v>40.4</v>
+        <v>39.3</v>
       </c>
       <c r="E8" t="n">
-        <v>40.1</v>
+        <v>39.3</v>
       </c>
       <c r="F8" t="n">
-        <v>16050</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>352105.0172</v>
+        <v>39.16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,33 +688,40 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F9" t="n">
-        <v>24.3902</v>
+        <v>584.9605</v>
       </c>
       <c r="G9" t="n">
-        <v>352129.4074</v>
+        <v>39.16</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +735,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1200.8568</v>
+        <v>1653.3453</v>
       </c>
       <c r="G10" t="n">
-        <v>352129.4074</v>
+        <v>39.175</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +771,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="C11" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="D11" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="E11" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>790</v>
       </c>
       <c r="G11" t="n">
-        <v>352119.4074</v>
+        <v>39.195</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +807,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40.8</v>
+        <v>39.5</v>
       </c>
       <c r="C12" t="n">
-        <v>40.8</v>
+        <v>39.5</v>
       </c>
       <c r="D12" t="n">
-        <v>40.8</v>
+        <v>39.5</v>
       </c>
       <c r="E12" t="n">
-        <v>40.8</v>
+        <v>39.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2549</v>
+        <v>17450.9999</v>
       </c>
       <c r="G12" t="n">
-        <v>352119.4074</v>
+        <v>39.19</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +843,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7</v>
+        <v>39.5</v>
       </c>
       <c r="C13" t="n">
-        <v>40.7</v>
+        <v>39.5</v>
       </c>
       <c r="D13" t="n">
-        <v>40.7</v>
+        <v>39.5</v>
       </c>
       <c r="E13" t="n">
-        <v>40.7</v>
+        <v>39.5</v>
       </c>
       <c r="F13" t="n">
-        <v>492.61</v>
+        <v>849.1204</v>
       </c>
       <c r="G13" t="n">
-        <v>351626.7974</v>
+        <v>39.205</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +879,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="C14" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="D14" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="E14" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.3762</v>
+        <v>12668.8733</v>
       </c>
       <c r="G14" t="n">
-        <v>351614.4212</v>
+        <v>39.235</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +915,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="C15" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="D15" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="E15" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="F15" t="n">
-        <v>59825.4599</v>
+        <v>81804</v>
       </c>
       <c r="G15" t="n">
-        <v>411439.8811000001</v>
+        <v>39.26</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +951,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1026.121951219512</v>
+        <v>27951</v>
       </c>
       <c r="G16" t="n">
-        <v>412466.0030512196</v>
+        <v>39.295</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +987,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="F17" t="n">
-        <v>18456.33404878049</v>
+        <v>952.1566</v>
       </c>
       <c r="G17" t="n">
-        <v>412466.0030512196</v>
+        <v>39.32</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1023,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="F18" t="n">
-        <v>10804.1648</v>
+        <v>6310.9389</v>
       </c>
       <c r="G18" t="n">
-        <v>412466.0030512196</v>
+        <v>39.345</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1059,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>40.8</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>40.8</v>
+        <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>9983.1648</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>402482.8382512195</v>
+        <v>39.375</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1095,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="D20" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="E20" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>29241</v>
       </c>
       <c r="G20" t="n">
-        <v>402498.8382512195</v>
+        <v>39.425</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1131,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="C21" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="D21" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="E21" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1441.1349</v>
+        <v>8519.9998</v>
       </c>
       <c r="G21" t="n">
-        <v>401057.7033512195</v>
+        <v>39.47</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1167,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="C22" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="D22" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="E22" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="F22" t="n">
-        <v>8850</v>
+        <v>11062.9561</v>
       </c>
       <c r="G22" t="n">
-        <v>409907.7033512195</v>
+        <v>39.515</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1203,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="C23" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="D23" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="F23" t="n">
-        <v>2224.0426</v>
+        <v>2443.927825365854</v>
       </c>
       <c r="G23" t="n">
-        <v>407683.6607512195</v>
+        <v>39.58499999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1239,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.2</v>
+        <v>40.9</v>
       </c>
       <c r="C24" t="n">
-        <v>40.2</v>
+        <v>40.9</v>
       </c>
       <c r="D24" t="n">
-        <v>40.2</v>
+        <v>40.9</v>
       </c>
       <c r="E24" t="n">
-        <v>40.2</v>
+        <v>40.9</v>
       </c>
       <c r="F24" t="n">
-        <v>3341.9999</v>
+        <v>2356.8901</v>
       </c>
       <c r="G24" t="n">
-        <v>404341.6608512196</v>
+        <v>39.69499999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1275,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="C25" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="D25" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="E25" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="F25" t="n">
-        <v>13471.7775</v>
+        <v>5815.2535</v>
       </c>
       <c r="G25" t="n">
-        <v>404341.6608512196</v>
+        <v>39.79499999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1311,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="C26" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="D26" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="E26" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>5233.7281</v>
       </c>
       <c r="G26" t="n">
-        <v>404351.6608512196</v>
+        <v>39.885</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1347,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C27" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="D27" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="E27" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="F27" t="n">
-        <v>9073.958000000001</v>
+        <v>8403.729600000001</v>
       </c>
       <c r="G27" t="n">
-        <v>395277.7028512196</v>
+        <v>39.965</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1383,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.8</v>
+        <v>40.8</v>
       </c>
       <c r="C28" t="n">
-        <v>39.7</v>
+        <v>40.8</v>
       </c>
       <c r="D28" t="n">
-        <v>39.8</v>
+        <v>40.8</v>
       </c>
       <c r="E28" t="n">
-        <v>39.7</v>
+        <v>40.8</v>
       </c>
       <c r="F28" t="n">
-        <v>9811.7904</v>
+        <v>2290.7713</v>
       </c>
       <c r="G28" t="n">
-        <v>385465.9124512196</v>
+        <v>40.04</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1419,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="C29" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="D29" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="E29" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5060.5782</v>
+        <v>1907.6939</v>
       </c>
       <c r="G29" t="n">
-        <v>380405.3342512196</v>
+        <v>40.11</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1455,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.6</v>
+        <v>40.8</v>
       </c>
       <c r="C30" t="n">
-        <v>39.5</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="E30" t="n">
-        <v>39.5</v>
+        <v>40.8</v>
       </c>
       <c r="F30" t="n">
-        <v>18846.3724</v>
+        <v>1623</v>
       </c>
       <c r="G30" t="n">
-        <v>361558.9618512196</v>
+        <v>40.18</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,69 +1491,65 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="C31" t="n">
-        <v>39.1</v>
+        <v>40.4</v>
       </c>
       <c r="D31" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="E31" t="n">
-        <v>39.1</v>
+        <v>40.4</v>
       </c>
       <c r="F31" t="n">
-        <v>8082.2167</v>
+        <v>1173.8099</v>
       </c>
       <c r="G31" t="n">
-        <v>353476.7451512196</v>
+        <v>40.235</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39.1</v>
+        <v>40.4</v>
       </c>
       <c r="C32" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="D32" t="n">
-        <v>39.1</v>
+        <v>40.4</v>
       </c>
       <c r="E32" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="F32" t="n">
-        <v>9594.6181</v>
+        <v>238.2805</v>
       </c>
       <c r="G32" t="n">
-        <v>343882.1270512196</v>
+        <v>40.28</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1514,118 +1559,105 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="C33" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="D33" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="E33" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="F33" t="n">
-        <v>14836.0707</v>
+        <v>1808.9999</v>
       </c>
       <c r="G33" t="n">
-        <v>358718.1977512196</v>
+        <v>40.325</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>39</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="C34" t="n">
-        <v>39.8</v>
+        <v>40.4</v>
       </c>
       <c r="D34" t="n">
-        <v>39.9</v>
+        <v>40.4</v>
       </c>
       <c r="E34" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="F34" t="n">
-        <v>5853</v>
+        <v>22262.8998</v>
       </c>
       <c r="G34" t="n">
-        <v>364571.1977512196</v>
+        <v>40.36499999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="C35" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="D35" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="E35" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="F35" t="n">
-        <v>5695.3716</v>
+        <v>30435.2142</v>
       </c>
       <c r="G35" t="n">
-        <v>358875.8261512195</v>
+        <v>40.39999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1634,39 +1666,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>39.8</v>
+        <v>40.4</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="D36" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="E36" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="F36" t="n">
-        <v>5140.2992</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>353735.5269512195</v>
+        <v>40.45999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1675,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
@@ -1686,36 +1719,39 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="C37" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="D37" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="E37" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="F37" t="n">
-        <v>18202.9131</v>
+        <v>3867.7194</v>
       </c>
       <c r="G37" t="n">
-        <v>371938.4400512195</v>
+        <v>40.51999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1725,28 +1761,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="E38" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F38" t="n">
-        <v>9046.284</v>
+        <v>2726.2231</v>
       </c>
       <c r="G38" t="n">
-        <v>362892.1560512196</v>
+        <v>40.57999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1755,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
@@ -1766,28 +1803,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="D39" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="E39" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>1274.5842</v>
+        <v>817.4386</v>
       </c>
       <c r="G39" t="n">
-        <v>364166.7402512195</v>
+        <v>40.62999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1796,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
@@ -1807,28 +1845,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="E40" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="F40" t="n">
-        <v>5994.1566</v>
+        <v>91588.1452</v>
       </c>
       <c r="G40" t="n">
-        <v>370160.8968512195</v>
+        <v>40.65999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1837,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
@@ -1848,28 +1887,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39.4</v>
+        <v>41.1</v>
       </c>
       <c r="C41" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="D41" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="E41" t="n">
-        <v>39.4</v>
+        <v>41.1</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>17800.0069</v>
       </c>
       <c r="G41" t="n">
-        <v>370180.8968512195</v>
+        <v>40.7</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1878,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
@@ -1889,28 +1929,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="C42" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="D42" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="E42" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>6072.8973</v>
       </c>
       <c r="G42" t="n">
-        <v>370180.8968512195</v>
+        <v>40.74999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1919,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
@@ -1930,38 +1971,37 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="C43" t="n">
-        <v>39.4</v>
+        <v>41.4</v>
       </c>
       <c r="D43" t="n">
-        <v>39.4</v>
+        <v>41.4</v>
       </c>
       <c r="E43" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>17794.0579</v>
       </c>
       <c r="G43" t="n">
-        <v>370180.8968512195</v>
+        <v>40.78499999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -1971,38 +2011,37 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="C44" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="E44" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="F44" t="n">
-        <v>8238.9252</v>
+        <v>6212.315</v>
       </c>
       <c r="G44" t="n">
-        <v>370180.8968512195</v>
+        <v>40.78999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2012,36 +2051,39 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="C45" t="n">
-        <v>38.7</v>
+        <v>41.4</v>
       </c>
       <c r="D45" t="n">
-        <v>39.2</v>
+        <v>41.4</v>
       </c>
       <c r="E45" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="F45" t="n">
-        <v>4398.6128</v>
+        <v>22032</v>
       </c>
       <c r="G45" t="n">
-        <v>365782.2840512195</v>
+        <v>40.80499999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>41</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2051,38 +2093,37 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>38.7</v>
+        <v>40.8</v>
       </c>
       <c r="C46" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="D46" t="n">
-        <v>38.7</v>
+        <v>40.8</v>
       </c>
       <c r="E46" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="F46" t="n">
-        <v>82</v>
+        <v>33667.5145</v>
       </c>
       <c r="G46" t="n">
-        <v>365782.2840512195</v>
+        <v>40.81499999999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2092,28 +2133,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="C47" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="D47" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="E47" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="F47" t="n">
-        <v>165</v>
+        <v>35660.361</v>
       </c>
       <c r="G47" t="n">
-        <v>365782.2840512195</v>
+        <v>40.83499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2131,28 +2173,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="C48" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="D48" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="E48" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="F48" t="n">
-        <v>12.5376</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>365794.8216512195</v>
+        <v>40.85499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2170,28 +2213,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="C49" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="D49" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="E49" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="F49" t="n">
-        <v>3846.153846153846</v>
+        <v>1231.343</v>
       </c>
       <c r="G49" t="n">
-        <v>369640.9754973734</v>
+        <v>40.83499999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2209,28 +2253,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>39.3</v>
+        <v>40.2</v>
       </c>
       <c r="C50" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="D50" t="n">
-        <v>39.3</v>
+        <v>40.2</v>
       </c>
       <c r="E50" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G50" t="n">
-        <v>369650.9754973734</v>
+        <v>40.80499999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2248,28 +2293,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="C51" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="D51" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="E51" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="F51" t="n">
-        <v>584.9605</v>
+        <v>516.8754</v>
       </c>
       <c r="G51" t="n">
-        <v>369650.9754973734</v>
+        <v>40.78499999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2287,28 +2333,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>39.4</v>
+        <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="D52" t="n">
-        <v>39.4</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1653.3453</v>
+        <v>11855.4401</v>
       </c>
       <c r="G52" t="n">
-        <v>371304.3207973734</v>
+        <v>40.76499999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2326,28 +2373,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="C53" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="D53" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="E53" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="F53" t="n">
-        <v>790</v>
+        <v>53359.4808</v>
       </c>
       <c r="G53" t="n">
-        <v>371304.3207973734</v>
+        <v>40.74999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2365,28 +2413,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="C54" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="D54" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="E54" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="F54" t="n">
-        <v>17450.9999</v>
+        <v>1231.343</v>
       </c>
       <c r="G54" t="n">
-        <v>388755.3206973734</v>
+        <v>40.72499999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2404,28 +2453,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
-        <v>849.1204</v>
+        <v>6900</v>
       </c>
       <c r="G55" t="n">
-        <v>388755.3206973734</v>
+        <v>40.705</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2443,28 +2493,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="C56" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="D56" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="E56" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="F56" t="n">
-        <v>12668.8733</v>
+        <v>36300</v>
       </c>
       <c r="G56" t="n">
-        <v>401424.1939973733</v>
+        <v>40.665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2482,36 +2533,39 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="C57" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="D57" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="E57" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="F57" t="n">
-        <v>81804</v>
+        <v>3650</v>
       </c>
       <c r="G57" t="n">
-        <v>483228.1939973733</v>
+        <v>40.625</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>40.2</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2521,36 +2575,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="C58" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="D58" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="E58" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="F58" t="n">
-        <v>27951</v>
+        <v>9600</v>
       </c>
       <c r="G58" t="n">
-        <v>483228.1939973733</v>
+        <v>40.585</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>40.2</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2560,28 +2617,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="C59" t="n">
-        <v>39.7</v>
+        <v>40.6</v>
       </c>
       <c r="D59" t="n">
-        <v>39.7</v>
+        <v>40.9</v>
       </c>
       <c r="E59" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="F59" t="n">
-        <v>952.1566</v>
+        <v>21806.2962</v>
       </c>
       <c r="G59" t="n">
-        <v>483228.1939973733</v>
+        <v>40.545</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2599,28 +2657,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.8</v>
+        <v>41</v>
       </c>
       <c r="C60" t="n">
-        <v>39.8</v>
+        <v>41.2</v>
       </c>
       <c r="D60" t="n">
-        <v>39.8</v>
+        <v>41.2</v>
       </c>
       <c r="E60" t="n">
-        <v>39.8</v>
+        <v>41</v>
       </c>
       <c r="F60" t="n">
-        <v>6310.9389</v>
+        <v>18300</v>
       </c>
       <c r="G60" t="n">
-        <v>489539.1328973733</v>
+        <v>40.545</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2638,28 +2697,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D61" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="E61" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>23116.7961</v>
       </c>
       <c r="G61" t="n">
-        <v>489549.1328973733</v>
+        <v>40.55</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2677,28 +2737,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="C62" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D62" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E62" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="F62" t="n">
-        <v>29241</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>518790.1328973733</v>
+        <v>40.53500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2716,28 +2777,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="C63" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D63" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="E63" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F63" t="n">
-        <v>8519.9998</v>
+        <v>7534.5169</v>
       </c>
       <c r="G63" t="n">
-        <v>510270.1330973734</v>
+        <v>40.52000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2755,28 +2817,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="C64" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="D64" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="E64" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="F64" t="n">
-        <v>11062.9561</v>
+        <v>49.261</v>
       </c>
       <c r="G64" t="n">
-        <v>521333.0891973734</v>
+        <v>40.50000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2794,6 +2857,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2803,19 +2867,19 @@
         <v>40.6</v>
       </c>
       <c r="C65" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="E65" t="n">
         <v>40.6</v>
       </c>
       <c r="F65" t="n">
-        <v>2443.927825365854</v>
+        <v>1436.9376</v>
       </c>
       <c r="G65" t="n">
-        <v>523777.0170227392</v>
+        <v>40.48000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2833,28 +2897,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C66" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="D66" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="E66" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="F66" t="n">
-        <v>2356.8901</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>521420.1269227392</v>
+        <v>40.46000000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2872,28 +2937,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="C67" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D67" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E67" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="F67" t="n">
-        <v>5815.2535</v>
+        <v>17700</v>
       </c>
       <c r="G67" t="n">
-        <v>515604.8734227392</v>
+        <v>40.46000000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2911,28 +2977,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="C68" t="n">
-        <v>40.6</v>
+        <v>41.5</v>
       </c>
       <c r="D68" t="n">
-        <v>40.6</v>
+        <v>41.5</v>
       </c>
       <c r="E68" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="F68" t="n">
-        <v>5233.7281</v>
+        <v>142504.7877</v>
       </c>
       <c r="G68" t="n">
-        <v>510371.1453227392</v>
+        <v>40.46500000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2950,28 +3017,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="C69" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="D69" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="E69" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F69" t="n">
-        <v>8403.729600000001</v>
+        <v>2642.3467</v>
       </c>
       <c r="G69" t="n">
-        <v>518774.8749227392</v>
+        <v>40.52000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2989,28 +3057,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="C70" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="D70" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="E70" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="F70" t="n">
-        <v>2290.7713</v>
+        <v>4518.4132</v>
       </c>
       <c r="G70" t="n">
-        <v>518774.8749227392</v>
+        <v>40.58000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3028,28 +3097,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="C71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="F71" t="n">
-        <v>1907.6939</v>
+        <v>1211</v>
       </c>
       <c r="G71" t="n">
-        <v>516867.1810227392</v>
+        <v>40.645</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3067,28 +3137,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="C72" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="D72" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="E72" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="F72" t="n">
-        <v>1623</v>
+        <v>8100</v>
       </c>
       <c r="G72" t="n">
-        <v>518490.1810227392</v>
+        <v>40.715</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3106,28 +3177,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>40.5</v>
+        <v>41.4</v>
       </c>
       <c r="C73" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="D73" t="n">
-        <v>40.5</v>
+        <v>41.4</v>
       </c>
       <c r="E73" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="F73" t="n">
-        <v>1173.8099</v>
+        <v>3976</v>
       </c>
       <c r="G73" t="n">
-        <v>517316.3711227392</v>
+        <v>40.78</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3145,28 +3217,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="C74" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="D74" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="E74" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F74" t="n">
-        <v>238.2805</v>
+        <v>12.1359</v>
       </c>
       <c r="G74" t="n">
-        <v>517316.3711227392</v>
+        <v>40.84500000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3184,28 +3257,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="C75" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="D75" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="E75" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="F75" t="n">
-        <v>1808.9999</v>
+        <v>12.1654</v>
       </c>
       <c r="G75" t="n">
-        <v>517316.3711227392</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3223,28 +3297,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E76" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="F76" t="n">
-        <v>22262.8998</v>
+        <v>24.3902</v>
       </c>
       <c r="G76" t="n">
-        <v>517316.3711227392</v>
+        <v>40.94500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3262,28 +3337,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="C77" t="n">
         <v>40.8</v>
       </c>
       <c r="D77" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E77" t="n">
         <v>40.8</v>
       </c>
-      <c r="E77" t="n">
-        <v>40.4</v>
-      </c>
       <c r="F77" t="n">
-        <v>30435.2142</v>
+        <v>23059.0041</v>
       </c>
       <c r="G77" t="n">
-        <v>547751.5853227392</v>
+        <v>40.985</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3301,28 +3377,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="C78" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="D78" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="E78" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>15993</v>
       </c>
       <c r="G78" t="n">
-        <v>548751.5853227392</v>
+        <v>41.015</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3340,28 +3417,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="C79" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="D79" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="E79" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="F79" t="n">
-        <v>3867.7194</v>
+        <v>22218.3372</v>
       </c>
       <c r="G79" t="n">
-        <v>548751.5853227392</v>
+        <v>41.02999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3379,28 +3457,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C80" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="D80" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="E80" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F80" t="n">
-        <v>2726.2231</v>
+        <v>1016.1053</v>
       </c>
       <c r="G80" t="n">
-        <v>551477.8084227392</v>
+        <v>41.02</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3418,28 +3497,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C81" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="D81" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E81" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F81" t="n">
-        <v>817.4386</v>
+        <v>36150</v>
       </c>
       <c r="G81" t="n">
-        <v>551477.8084227392</v>
+        <v>40.97999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3457,28 +3537,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="C82" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="D82" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="E82" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F82" t="n">
-        <v>91588.1452</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>551477.8084227392</v>
+        <v>40.95999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3496,28 +3577,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="C83" t="n">
-        <v>41.3</v>
+        <v>40.1</v>
       </c>
       <c r="D83" t="n">
-        <v>41.3</v>
+        <v>40.1</v>
       </c>
       <c r="E83" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="F83" t="n">
-        <v>17800.0069</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="n">
-        <v>569277.8153227392</v>
+        <v>40.91499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3535,28 +3617,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C84" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="D84" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="E84" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="F84" t="n">
-        <v>6072.8973</v>
+        <v>123.5241</v>
       </c>
       <c r="G84" t="n">
-        <v>569277.8153227392</v>
+        <v>40.90499999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3574,28 +3657,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.3</v>
+        <v>40.1</v>
       </c>
       <c r="C85" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D85" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E85" t="n">
-        <v>41.3</v>
+        <v>40</v>
       </c>
       <c r="F85" t="n">
-        <v>17794.0579</v>
+        <v>18854.6806</v>
       </c>
       <c r="G85" t="n">
-        <v>587071.8732227392</v>
+        <v>40.87999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3613,28 +3697,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="D86" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="F86" t="n">
-        <v>6212.315</v>
+        <v>4975.0623</v>
       </c>
       <c r="G86" t="n">
-        <v>580859.5582227393</v>
+        <v>40.81999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3652,28 +3737,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="C87" t="n">
-        <v>41.4</v>
+        <v>39.2</v>
       </c>
       <c r="D87" t="n">
-        <v>41.4</v>
+        <v>39.2</v>
       </c>
       <c r="E87" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="F87" t="n">
-        <v>22032</v>
+        <v>7795.18</v>
       </c>
       <c r="G87" t="n">
-        <v>602891.5582227393</v>
+        <v>40.73</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3691,36 +3777,39 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="C88" t="n">
-        <v>40.1</v>
+        <v>39.2</v>
       </c>
       <c r="D88" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="E88" t="n">
-        <v>40.1</v>
+        <v>39.2</v>
       </c>
       <c r="F88" t="n">
-        <v>33667.5145</v>
+        <v>3512.994</v>
       </c>
       <c r="G88" t="n">
-        <v>569224.0437227392</v>
+        <v>40.625</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3730,36 +3819,39 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C89" t="n">
-        <v>40.1</v>
+        <v>38.9</v>
       </c>
       <c r="D89" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E89" t="n">
-        <v>40.1</v>
+        <v>38.9</v>
       </c>
       <c r="F89" t="n">
-        <v>35660.361</v>
+        <v>2400</v>
       </c>
       <c r="G89" t="n">
-        <v>569224.0437227392</v>
+        <v>40.505</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3769,36 +3861,39 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="C90" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="D90" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="E90" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>661.826</v>
       </c>
       <c r="G90" t="n">
-        <v>569234.0437227392</v>
+        <v>40.37</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>38.9</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3808,36 +3903,39 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="C91" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="D91" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="E91" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="F91" t="n">
-        <v>1231.343</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>568002.7007227392</v>
+        <v>40.28000000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3847,6 +3945,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3856,27 +3955,29 @@
         <v>40.2</v>
       </c>
       <c r="C92" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="D92" t="n">
         <v>40.2</v>
       </c>
       <c r="E92" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="F92" t="n">
-        <v>10000</v>
+        <v>25</v>
       </c>
       <c r="G92" t="n">
-        <v>558002.7007227392</v>
+        <v>40.22000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>39.6</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3886,36 +3987,39 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="C93" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D93" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="E93" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F93" t="n">
-        <v>516.8754</v>
+        <v>5790.6316</v>
       </c>
       <c r="G93" t="n">
-        <v>558002.7007227392</v>
+        <v>40.12500000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>40.2</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3925,28 +4029,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="C94" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="D94" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="E94" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="F94" t="n">
-        <v>11855.4401</v>
+        <v>21253.277</v>
       </c>
       <c r="G94" t="n">
-        <v>546147.2606227392</v>
+        <v>40.07500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3964,28 +4069,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="C95" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="D95" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="E95" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="F95" t="n">
-        <v>53359.4808</v>
+        <v>20700</v>
       </c>
       <c r="G95" t="n">
-        <v>546147.2606227392</v>
+        <v>40.04000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4003,28 +4109,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="C96" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="D96" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="E96" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="F96" t="n">
-        <v>1231.343</v>
+        <v>5700</v>
       </c>
       <c r="G96" t="n">
-        <v>547378.6036227392</v>
+        <v>40.03000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4042,28 +4149,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D97" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F97" t="n">
-        <v>6900</v>
+        <v>2250</v>
       </c>
       <c r="G97" t="n">
-        <v>554278.6036227392</v>
+        <v>40.03500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4081,28 +4189,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="C98" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="D98" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="E98" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="F98" t="n">
-        <v>36300</v>
+        <v>1363.8397</v>
       </c>
       <c r="G98" t="n">
-        <v>590578.6036227392</v>
+        <v>40.03000000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4120,28 +4229,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C99" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="D99" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="E99" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F99" t="n">
-        <v>3650</v>
+        <v>1209.6956</v>
       </c>
       <c r="G99" t="n">
-        <v>590578.6036227392</v>
+        <v>40.03500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4159,28 +4269,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C100" t="n">
-        <v>40.2</v>
+        <v>41.4</v>
       </c>
       <c r="D100" t="n">
-        <v>40.2</v>
+        <v>41.4</v>
       </c>
       <c r="E100" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="F100" t="n">
-        <v>9600</v>
+        <v>21947.6338</v>
       </c>
       <c r="G100" t="n">
-        <v>590578.6036227392</v>
+        <v>40.02500000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4198,28 +4309,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="C101" t="n">
         <v>40.6</v>
       </c>
       <c r="D101" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="E101" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="F101" t="n">
-        <v>21806.2962</v>
+        <v>1319</v>
       </c>
       <c r="G101" t="n">
-        <v>612384.8998227392</v>
+        <v>40.04000000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4237,28 +4349,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C102" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="D102" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="E102" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="F102" t="n">
-        <v>18300</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>630684.8998227392</v>
+        <v>40.07500000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4276,28 +4389,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="C103" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="D103" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E103" t="n">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="F103" t="n">
-        <v>23116.7961</v>
+        <v>4933.2083</v>
       </c>
       <c r="G103" t="n">
-        <v>630684.8998227392</v>
+        <v>40.13500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4315,28 +4429,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="C104" t="n">
         <v>41</v>
       </c>
       <c r="D104" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="E104" t="n">
         <v>41</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>14775.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>630674.8998227392</v>
+        <v>40.17000000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4354,28 +4469,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C105" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="D105" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="E105" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F105" t="n">
-        <v>7534.5169</v>
+        <v>9236.3264</v>
       </c>
       <c r="G105" t="n">
-        <v>630674.8998227392</v>
+        <v>40.23000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4393,28 +4509,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="C106" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="D106" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E106" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="F106" t="n">
-        <v>49.261</v>
+        <v>22713.7483</v>
       </c>
       <c r="G106" t="n">
-        <v>630625.6388227391</v>
+        <v>40.31000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4432,28 +4549,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="C107" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="D107" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="E107" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1436.9376</v>
+        <v>7495.3883</v>
       </c>
       <c r="G107" t="n">
-        <v>630625.6388227391</v>
+        <v>40.40500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4471,28 +4589,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="C108" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="D108" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="E108" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>39900</v>
       </c>
       <c r="G108" t="n">
-        <v>630615.6388227391</v>
+        <v>40.50500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4510,13 +4629,14 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="C109" t="n">
         <v>41.4</v>
@@ -4525,13 +4645,13 @@
         <v>41.4</v>
       </c>
       <c r="E109" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="F109" t="n">
-        <v>17700</v>
+        <v>27308.2367</v>
       </c>
       <c r="G109" t="n">
-        <v>648315.6388227391</v>
+        <v>40.62500000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4549,6 +4669,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4567,10 +4688,10 @@
         <v>41.3</v>
       </c>
       <c r="F110" t="n">
-        <v>142504.7877</v>
+        <v>94296.3855</v>
       </c>
       <c r="G110" t="n">
-        <v>790820.4265227391</v>
+        <v>40.755</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4588,28 +4709,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="C111" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D111" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E111" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="F111" t="n">
-        <v>2642.3467</v>
+        <v>7607.4226</v>
       </c>
       <c r="G111" t="n">
-        <v>788178.0798227391</v>
+        <v>40.85</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4627,28 +4749,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="C112" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="D112" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="E112" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="F112" t="n">
-        <v>4518.4132</v>
+        <v>23729.5949</v>
       </c>
       <c r="G112" t="n">
-        <v>788178.0798227391</v>
+        <v>40.915</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4666,28 +4789,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="C113" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="D113" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="E113" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="F113" t="n">
-        <v>1211</v>
+        <v>2156.1019</v>
       </c>
       <c r="G113" t="n">
-        <v>788178.0798227391</v>
+        <v>41.025</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4705,28 +4829,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="C114" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="D114" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="E114" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="F114" t="n">
-        <v>8100</v>
+        <v>2887</v>
       </c>
       <c r="G114" t="n">
-        <v>796278.0798227391</v>
+        <v>41.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4744,28 +4869,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="C115" t="n">
-        <v>41.4</v>
+        <v>42.2</v>
       </c>
       <c r="D115" t="n">
-        <v>41.4</v>
+        <v>42.2</v>
       </c>
       <c r="E115" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="F115" t="n">
-        <v>3976</v>
+        <v>8850</v>
       </c>
       <c r="G115" t="n">
-        <v>792302.0798227391</v>
+        <v>41.16500000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4783,28 +4909,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>41.2</v>
+        <v>42.2</v>
       </c>
       <c r="C116" t="n">
-        <v>41.2</v>
+        <v>41.8</v>
       </c>
       <c r="D116" t="n">
-        <v>41.2</v>
+        <v>42.2</v>
       </c>
       <c r="E116" t="n">
-        <v>41.2</v>
+        <v>41.8</v>
       </c>
       <c r="F116" t="n">
-        <v>12.1359</v>
+        <v>20216.6604</v>
       </c>
       <c r="G116" t="n">
-        <v>792289.9439227391</v>
+        <v>41.23500000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4822,28 +4949,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="C117" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="D117" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="E117" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="F117" t="n">
-        <v>12.1654</v>
+        <v>1009.6513</v>
       </c>
       <c r="G117" t="n">
-        <v>792277.7785227391</v>
+        <v>41.28000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4861,28 +4989,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="C118" t="n">
-        <v>41</v>
+        <v>42.2</v>
       </c>
       <c r="D118" t="n">
-        <v>41</v>
+        <v>42.2</v>
       </c>
       <c r="E118" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="F118" t="n">
-        <v>24.3902</v>
+        <v>1352.8277</v>
       </c>
       <c r="G118" t="n">
-        <v>792253.388322739</v>
+        <v>41.33000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4900,28 +5029,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>40.9</v>
+        <v>41.8</v>
       </c>
       <c r="C119" t="n">
-        <v>40.8</v>
+        <v>41.6</v>
       </c>
       <c r="D119" t="n">
-        <v>40.9</v>
+        <v>41.8</v>
       </c>
       <c r="E119" t="n">
-        <v>40.8</v>
+        <v>41.6</v>
       </c>
       <c r="F119" t="n">
-        <v>23059.0041</v>
+        <v>14960.7178</v>
       </c>
       <c r="G119" t="n">
-        <v>769194.384222739</v>
+        <v>41.39</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4939,28 +5069,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="C120" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="D120" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="E120" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="F120" t="n">
-        <v>15993</v>
+        <v>24036.1445</v>
       </c>
       <c r="G120" t="n">
-        <v>769194.384222739</v>
+        <v>41.45</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4978,28 +5109,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="C121" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="D121" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="E121" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="F121" t="n">
-        <v>22218.3372</v>
+        <v>1373</v>
       </c>
       <c r="G121" t="n">
-        <v>746976.0470227391</v>
+        <v>41.505</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5017,28 +5149,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="C122" t="n">
-        <v>40.8</v>
+        <v>42.5</v>
       </c>
       <c r="D122" t="n">
-        <v>40.8</v>
+        <v>42.5</v>
       </c>
       <c r="E122" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="F122" t="n">
-        <v>1016.1053</v>
+        <v>2393.7909</v>
       </c>
       <c r="G122" t="n">
-        <v>747992.1523227391</v>
+        <v>41.52999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5056,28 +5189,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>40.4</v>
+        <v>42.3</v>
       </c>
       <c r="C123" t="n">
-        <v>40.3</v>
+        <v>42.5</v>
       </c>
       <c r="D123" t="n">
-        <v>40.4</v>
+        <v>42.5</v>
       </c>
       <c r="E123" t="n">
-        <v>40.2</v>
+        <v>42.3</v>
       </c>
       <c r="F123" t="n">
-        <v>36150</v>
+        <v>675.9623</v>
       </c>
       <c r="G123" t="n">
-        <v>711842.1523227391</v>
+        <v>41.58</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5095,28 +5229,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>40.6</v>
+        <v>42.7</v>
       </c>
       <c r="C124" t="n">
-        <v>40.6</v>
+        <v>43.2</v>
       </c>
       <c r="D124" t="n">
-        <v>40.6</v>
+        <v>43.4</v>
       </c>
       <c r="E124" t="n">
-        <v>40.6</v>
+        <v>42.7</v>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v>51128.4838</v>
       </c>
       <c r="G124" t="n">
-        <v>711853.1523227391</v>
+        <v>41.66</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5134,28 +5269,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>40.1</v>
+        <v>43.4</v>
       </c>
       <c r="C125" t="n">
-        <v>40.1</v>
+        <v>42.7</v>
       </c>
       <c r="D125" t="n">
-        <v>40.1</v>
+        <v>43.4</v>
       </c>
       <c r="E125" t="n">
-        <v>40.1</v>
+        <v>42.7</v>
       </c>
       <c r="F125" t="n">
-        <v>3000</v>
+        <v>2449.95</v>
       </c>
       <c r="G125" t="n">
-        <v>708853.1523227391</v>
+        <v>41.765</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5173,2132 +5309,513 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>40.4</v>
+        <v>42.7</v>
       </c>
       <c r="C126" t="n">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="D126" t="n">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="E126" t="n">
-        <v>40.4</v>
+        <v>42.2</v>
       </c>
       <c r="F126" t="n">
-        <v>123.5241</v>
+        <v>11927.8996</v>
       </c>
       <c r="G126" t="n">
-        <v>708976.6764227392</v>
+        <v>41.86</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>40.1</v>
+        <v>43.4</v>
       </c>
       <c r="C127" t="n">
-        <v>40.4</v>
+        <v>42.3</v>
       </c>
       <c r="D127" t="n">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="E127" t="n">
-        <v>40</v>
+        <v>42.3</v>
       </c>
       <c r="F127" t="n">
-        <v>18854.6806</v>
+        <v>1165.4403</v>
       </c>
       <c r="G127" t="n">
-        <v>708976.6764227392</v>
+        <v>41.975</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>39.2</v>
+        <v>43</v>
       </c>
       <c r="C128" t="n">
-        <v>39.2</v>
+        <v>43.3</v>
       </c>
       <c r="D128" t="n">
-        <v>39.2</v>
+        <v>43.3</v>
       </c>
       <c r="E128" t="n">
-        <v>39.2</v>
+        <v>43</v>
       </c>
       <c r="F128" t="n">
-        <v>4975.0623</v>
+        <v>15766.69091316397</v>
       </c>
       <c r="G128" t="n">
-        <v>704001.6141227392</v>
+        <v>42.065</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>39.2</v>
+        <v>42.3</v>
       </c>
       <c r="C129" t="n">
-        <v>39.2</v>
+        <v>42.1</v>
       </c>
       <c r="D129" t="n">
-        <v>39.2</v>
+        <v>42.3</v>
       </c>
       <c r="E129" t="n">
-        <v>39.2</v>
+        <v>42.1</v>
       </c>
       <c r="F129" t="n">
-        <v>7795.18</v>
+        <v>6315.77</v>
       </c>
       <c r="G129" t="n">
-        <v>704001.6141227392</v>
+        <v>42.11</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="C130" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="D130" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="E130" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="F130" t="n">
-        <v>3512.994</v>
+        <v>736.8483</v>
       </c>
       <c r="G130" t="n">
-        <v>704001.6141227392</v>
+        <v>42.155</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>39</v>
+        <v>42.2</v>
       </c>
       <c r="C131" t="n">
-        <v>38.9</v>
+        <v>42.3</v>
       </c>
       <c r="D131" t="n">
-        <v>39</v>
+        <v>42.3</v>
       </c>
       <c r="E131" t="n">
-        <v>38.9</v>
+        <v>42.2</v>
       </c>
       <c r="F131" t="n">
-        <v>2400</v>
+        <v>395.255</v>
       </c>
       <c r="G131" t="n">
-        <v>701601.6141227392</v>
+        <v>42.19</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>38.7</v>
+        <v>42.2</v>
       </c>
       <c r="C132" t="n">
-        <v>38.7</v>
+        <v>42</v>
       </c>
       <c r="D132" t="n">
-        <v>38.7</v>
+        <v>42.2</v>
       </c>
       <c r="E132" t="n">
-        <v>38.7</v>
+        <v>42</v>
       </c>
       <c r="F132" t="n">
-        <v>661.826</v>
+        <v>7982.5221</v>
       </c>
       <c r="G132" t="n">
-        <v>700939.7881227392</v>
+        <v>42.22500000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>39.6</v>
+        <v>41.8</v>
       </c>
       <c r="C133" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
       </c>
       <c r="D133" t="n">
-        <v>39.6</v>
+        <v>41.8</v>
       </c>
       <c r="E133" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
       </c>
       <c r="F133" t="n">
-        <v>11</v>
+        <v>6131.3393</v>
       </c>
       <c r="G133" t="n">
-        <v>700950.7881227392</v>
+        <v>42.23</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>40.2</v>
+        <v>41.5</v>
       </c>
       <c r="C134" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="D134" t="n">
-        <v>40.2</v>
+        <v>41.5</v>
       </c>
       <c r="E134" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="F134" t="n">
-        <v>25</v>
+        <v>64040.702</v>
       </c>
       <c r="G134" t="n">
-        <v>700975.7881227392</v>
+        <v>42.22</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="C135" t="n">
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="D135" t="n">
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="E135" t="n">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="F135" t="n">
-        <v>5790.6316</v>
+        <v>3930.3507</v>
       </c>
       <c r="G135" t="n">
-        <v>695185.1565227392</v>
+        <v>42.22</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>40.2</v>
+        <v>42</v>
       </c>
       <c r="C136" t="n">
-        <v>40.1</v>
+        <v>42.3</v>
       </c>
       <c r="D136" t="n">
-        <v>40.3</v>
+        <v>42.3</v>
       </c>
       <c r="E136" t="n">
-        <v>40.1</v>
+        <v>42</v>
       </c>
       <c r="F136" t="n">
-        <v>21253.277</v>
+        <v>70650</v>
       </c>
       <c r="G136" t="n">
-        <v>716438.4335227392</v>
+        <v>42.20999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>40.4</v>
+        <v>42.7</v>
       </c>
       <c r="C137" t="n">
-        <v>40.7</v>
+        <v>42.6</v>
       </c>
       <c r="D137" t="n">
-        <v>40.7</v>
+        <v>42.7</v>
       </c>
       <c r="E137" t="n">
-        <v>40.4</v>
+        <v>42.6</v>
       </c>
       <c r="F137" t="n">
-        <v>20700</v>
+        <v>12450</v>
       </c>
       <c r="G137" t="n">
-        <v>737138.4335227392</v>
+        <v>42.25</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>40.8</v>
+        <v>42.2</v>
       </c>
       <c r="C138" t="n">
-        <v>40.9</v>
+        <v>42.1</v>
       </c>
       <c r="D138" t="n">
-        <v>40.9</v>
+        <v>42.2</v>
       </c>
       <c r="E138" t="n">
-        <v>40.8</v>
+        <v>42.1</v>
       </c>
       <c r="F138" t="n">
-        <v>5700</v>
+        <v>4213.2652</v>
       </c>
       <c r="G138" t="n">
-        <v>742838.4335227392</v>
+        <v>42.275</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>41</v>
+        <v>42.9</v>
       </c>
       <c r="C139" t="n">
-        <v>41.2</v>
+        <v>43.2</v>
       </c>
       <c r="D139" t="n">
-        <v>41.2</v>
+        <v>43.2</v>
       </c>
       <c r="E139" t="n">
-        <v>41</v>
+        <v>42.9</v>
       </c>
       <c r="F139" t="n">
-        <v>2250</v>
+        <v>48034.389</v>
       </c>
       <c r="G139" t="n">
-        <v>745088.4335227392</v>
+        <v>42.33</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1363.8397</v>
-      </c>
-      <c r="G140" t="n">
-        <v>743724.5938227392</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="C141" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="E141" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1209.6956</v>
-      </c>
-      <c r="G141" t="n">
-        <v>742514.8982227392</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D142" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E142" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>21947.6338</v>
-      </c>
-      <c r="G142" t="n">
-        <v>764462.5320227392</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="D143" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1319</v>
-      </c>
-      <c r="G143" t="n">
-        <v>763143.5320227392</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C144" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D144" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="E144" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>100</v>
-      </c>
-      <c r="G144" t="n">
-        <v>763243.5320227392</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C145" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4933.2083</v>
-      </c>
-      <c r="G145" t="n">
-        <v>768176.7403227392</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>41</v>
-      </c>
-      <c r="D146" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>41</v>
-      </c>
-      <c r="F146" t="n">
-        <v>14775.9999</v>
-      </c>
-      <c r="G146" t="n">
-        <v>753400.7404227392</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="E147" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>9236.3264</v>
-      </c>
-      <c r="G147" t="n">
-        <v>744164.4140227392</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>22713.7483</v>
-      </c>
-      <c r="G148" t="n">
-        <v>744164.4140227392</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>7495.3883</v>
-      </c>
-      <c r="G149" t="n">
-        <v>751659.8023227392</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E150" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>39900</v>
-      </c>
-      <c r="G150" t="n">
-        <v>791559.8023227392</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E151" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>27308.2367</v>
-      </c>
-      <c r="G151" t="n">
-        <v>791559.8023227392</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C152" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>94296.3855</v>
-      </c>
-      <c r="G152" t="n">
-        <v>885856.1878227391</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7607.4226</v>
-      </c>
-      <c r="G153" t="n">
-        <v>885856.1878227391</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>23729.5949</v>
-      </c>
-      <c r="G154" t="n">
-        <v>909585.7827227392</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2156.1019</v>
-      </c>
-      <c r="G155" t="n">
-        <v>911741.8846227392</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D156" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E156" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2887</v>
-      </c>
-      <c r="G156" t="n">
-        <v>911741.8846227392</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C157" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E157" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F157" t="n">
-        <v>8850</v>
-      </c>
-      <c r="G157" t="n">
-        <v>920591.8846227392</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>20216.6604</v>
-      </c>
-      <c r="G158" t="n">
-        <v>900375.2242227391</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C159" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1009.6513</v>
-      </c>
-      <c r="G159" t="n">
-        <v>901384.8755227391</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D160" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E160" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1352.8277</v>
-      </c>
-      <c r="G160" t="n">
-        <v>902737.7032227392</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C161" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D161" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E161" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>14960.7178</v>
-      </c>
-      <c r="G161" t="n">
-        <v>887776.9854227392</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C162" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D162" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E162" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F162" t="n">
-        <v>24036.1445</v>
-      </c>
-      <c r="G162" t="n">
-        <v>911813.1299227392</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C163" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D163" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E163" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1373</v>
-      </c>
-      <c r="G163" t="n">
-        <v>911813.1299227392</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C164" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2393.7909</v>
-      </c>
-      <c r="G164" t="n">
-        <v>914206.9208227393</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="C165" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E165" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>675.9623</v>
-      </c>
-      <c r="G165" t="n">
-        <v>914206.9208227393</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D166" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E166" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>51128.4838</v>
-      </c>
-      <c r="G166" t="n">
-        <v>965335.4046227393</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C167" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E167" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2449.95</v>
-      </c>
-      <c r="G167" t="n">
-        <v>962885.4546227393</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="D168" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>11927.8996</v>
-      </c>
-      <c r="G168" t="n">
-        <v>974813.3542227393</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C169" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D169" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1165.4403</v>
-      </c>
-      <c r="G169" t="n">
-        <v>973647.9139227393</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>43</v>
-      </c>
-      <c r="C170" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="D170" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="E170" t="n">
-        <v>43</v>
-      </c>
-      <c r="F170" t="n">
-        <v>15766.69091316397</v>
-      </c>
-      <c r="G170" t="n">
-        <v>989414.6048359033</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="C171" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E171" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>6315.77</v>
-      </c>
-      <c r="G171" t="n">
-        <v>983098.8348359033</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>736.8483</v>
-      </c>
-      <c r="G172" t="n">
-        <v>983835.6831359032</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C173" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E173" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F173" t="n">
-        <v>395.255</v>
-      </c>
-      <c r="G173" t="n">
-        <v>984230.9381359032</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>42</v>
-      </c>
-      <c r="D174" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>42</v>
-      </c>
-      <c r="F174" t="n">
-        <v>7982.5221</v>
-      </c>
-      <c r="G174" t="n">
-        <v>976248.4160359033</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C175" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E175" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>6131.3393</v>
-      </c>
-      <c r="G175" t="n">
-        <v>970117.0767359033</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C176" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D176" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E176" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F176" t="n">
-        <v>64040.702</v>
-      </c>
-      <c r="G176" t="n">
-        <v>906076.3747359032</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>42</v>
-      </c>
-      <c r="D177" t="n">
-        <v>42</v>
-      </c>
-      <c r="E177" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3930.3507</v>
-      </c>
-      <c r="G177" t="n">
-        <v>910006.7254359032</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>42</v>
-      </c>
-      <c r="C178" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>42</v>
-      </c>
-      <c r="F178" t="n">
-        <v>70650</v>
-      </c>
-      <c r="G178" t="n">
-        <v>980656.7254359032</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C179" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="D179" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E179" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="F179" t="n">
-        <v>12450</v>
-      </c>
-      <c r="G179" t="n">
-        <v>993106.7254359032</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C180" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E180" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F180" t="n">
-        <v>4213.2652</v>
-      </c>
-      <c r="G180" t="n">
-        <v>988893.4602359032</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="C181" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D181" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="F181" t="n">
-        <v>48034.389</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1036927.849235903</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.4</v>
+        <v>38.5</v>
       </c>
       <c r="C2" t="n">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="D2" t="n">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="E2" t="n">
-        <v>39.4</v>
+        <v>38.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8238.9252</v>
+        <v>34043.2264</v>
       </c>
       <c r="G2" t="n">
-        <v>39.465</v>
+        <v>178066.9375999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.2</v>
+        <v>38.5</v>
       </c>
       <c r="C3" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="D3" t="n">
-        <v>39.2</v>
+        <v>38.5</v>
       </c>
       <c r="E3" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="F3" t="n">
-        <v>4398.6128</v>
+        <v>7613.1479</v>
       </c>
       <c r="G3" t="n">
-        <v>39.41500000000001</v>
+        <v>170453.7896999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="C4" t="n">
         <v>38.7</v>
@@ -519,23 +519,29 @@
         <v>38.7</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>2318.2497</v>
       </c>
       <c r="G4" t="n">
-        <v>39.325</v>
+        <v>172772.0393999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>38.5</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +552,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60052.8869</v>
+      </c>
+      <c r="G5" t="n">
+        <v>232824.9262999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>38.7</v>
       </c>
-      <c r="C5" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>165</v>
-      </c>
-      <c r="G5" t="n">
-        <v>39.25500000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +594,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.8</v>
+        <v>39.4</v>
       </c>
       <c r="C6" t="n">
-        <v>38.8</v>
+        <v>39.4</v>
       </c>
       <c r="D6" t="n">
-        <v>38.8</v>
+        <v>39.4</v>
       </c>
       <c r="E6" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="F6" t="n">
-        <v>12.5376</v>
+        <v>30569.5506</v>
       </c>
       <c r="G6" t="n">
-        <v>39.20500000000001</v>
+        <v>232824.9262999999</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -606,12 +618,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -622,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="F7" t="n">
-        <v>3846.153846153846</v>
+        <v>12.5376</v>
       </c>
       <c r="G7" t="n">
-        <v>39.175</v>
+        <v>232837.4638999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,12 +660,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -664,36 +676,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C8" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="D8" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="E8" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>4817.2179</v>
       </c>
       <c r="G8" t="n">
-        <v>39.16</v>
+        <v>228020.246</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="J8" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -706,32 +718,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="E9" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="F9" t="n">
-        <v>584.9605</v>
+        <v>67150.5206</v>
       </c>
       <c r="G9" t="n">
-        <v>39.16</v>
+        <v>295170.7666</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>38.9</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -742,22 +760,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="C10" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="D10" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="E10" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1653.3453</v>
+        <v>33240.3062</v>
       </c>
       <c r="G10" t="n">
-        <v>39.175</v>
+        <v>295170.7666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -767,7 +785,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -790,10 +812,10 @@
         <v>39.4</v>
       </c>
       <c r="F11" t="n">
-        <v>790</v>
+        <v>2536.3555</v>
       </c>
       <c r="G11" t="n">
-        <v>39.195</v>
+        <v>292634.4111</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -803,7 +825,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -814,22 +840,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C12" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="D12" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="E12" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F12" t="n">
-        <v>17450.9999</v>
+        <v>6986.176</v>
       </c>
       <c r="G12" t="n">
-        <v>39.19</v>
+        <v>299620.5870999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -839,7 +865,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -850,22 +880,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39.5</v>
+        <v>39.1</v>
       </c>
       <c r="C13" t="n">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5</v>
+        <v>39.1</v>
       </c>
       <c r="E13" t="n">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>849.1204</v>
+        <v>5990</v>
       </c>
       <c r="G13" t="n">
-        <v>39.205</v>
+        <v>293630.5870999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -875,7 +905,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -886,22 +920,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="C14" t="n">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="E14" t="n">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>12668.8733</v>
+        <v>8850</v>
       </c>
       <c r="G14" t="n">
-        <v>39.235</v>
+        <v>293630.5870999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -911,7 +945,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -922,32 +960,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="F15" t="n">
-        <v>81804</v>
+        <v>32100</v>
       </c>
       <c r="G15" t="n">
-        <v>39.26</v>
+        <v>293630.5870999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>39</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -958,32 +1002,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="C16" t="n">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="F16" t="n">
-        <v>27951</v>
+        <v>7996.041</v>
       </c>
       <c r="G16" t="n">
-        <v>39.295</v>
+        <v>301626.6281</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>39</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -994,32 +1044,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="D17" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="E17" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="F17" t="n">
-        <v>952.1566</v>
+        <v>2869.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>39.32</v>
+        <v>304496.628</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>40</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +1086,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="C18" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="D18" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="E18" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="F18" t="n">
-        <v>6310.9389</v>
+        <v>1729.9966</v>
       </c>
       <c r="G18" t="n">
-        <v>39.345</v>
+        <v>304496.628</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1055,7 +1111,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1066,22 +1126,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9488.1245</v>
       </c>
       <c r="G19" t="n">
-        <v>39.375</v>
+        <v>304496.628</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1091,7 +1151,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1102,22 +1166,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="C20" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D20" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="E20" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="F20" t="n">
-        <v>29241</v>
+        <v>6982</v>
       </c>
       <c r="G20" t="n">
-        <v>39.425</v>
+        <v>304496.628</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1127,7 +1191,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1138,22 +1206,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="C21" t="n">
         <v>40.1</v>
       </c>
       <c r="D21" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="E21" t="n">
         <v>40.1</v>
       </c>
       <c r="F21" t="n">
-        <v>8519.9998</v>
+        <v>2424.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>39.47</v>
+        <v>304496.628</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1163,7 +1231,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1246,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="C22" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D22" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="E22" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="F22" t="n">
-        <v>11062.9561</v>
+        <v>81</v>
       </c>
       <c r="G22" t="n">
-        <v>39.515</v>
+        <v>304496.628</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1199,7 +1271,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1210,22 +1286,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="C23" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="F23" t="n">
-        <v>2443.927825365854</v>
+        <v>0.1246</v>
       </c>
       <c r="G23" t="n">
-        <v>39.58499999999999</v>
+        <v>304496.628</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1235,7 +1311,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1326,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.9</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>40.9</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>40.9</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>40.9</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>2356.8901</v>
+        <v>20720</v>
       </c>
       <c r="G24" t="n">
-        <v>39.69499999999999</v>
+        <v>283776.628</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1271,7 +1351,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1366,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.7</v>
+        <v>40.1</v>
       </c>
       <c r="C25" t="n">
-        <v>40.7</v>
+        <v>40.1</v>
       </c>
       <c r="D25" t="n">
-        <v>40.7</v>
+        <v>40.1</v>
       </c>
       <c r="E25" t="n">
-        <v>40.7</v>
+        <v>40.1</v>
       </c>
       <c r="F25" t="n">
-        <v>5815.2535</v>
+        <v>29272.424</v>
       </c>
       <c r="G25" t="n">
-        <v>39.79499999999999</v>
+        <v>313049.052</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1307,7 +1391,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1318,22 +1406,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="C26" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="F26" t="n">
-        <v>5233.7281</v>
+        <v>21150</v>
       </c>
       <c r="G26" t="n">
-        <v>39.885</v>
+        <v>334199.052</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1343,7 +1431,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1354,22 +1446,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="C27" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="D27" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="E27" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="F27" t="n">
-        <v>8403.729600000001</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>39.965</v>
+        <v>334099.052</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1379,7 +1471,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1390,22 +1486,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="C28" t="n">
-        <v>40.8</v>
+        <v>41.7</v>
       </c>
       <c r="D28" t="n">
-        <v>40.8</v>
+        <v>41.7</v>
       </c>
       <c r="E28" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="F28" t="n">
-        <v>2290.7713</v>
+        <v>45750</v>
       </c>
       <c r="G28" t="n">
-        <v>40.04</v>
+        <v>379849.052</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1415,7 +1511,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1426,22 +1526,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="C29" t="n">
-        <v>40.7</v>
+        <v>41.7</v>
       </c>
       <c r="D29" t="n">
-        <v>40.7</v>
+        <v>41.7</v>
       </c>
       <c r="E29" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="F29" t="n">
-        <v>1907.6939</v>
+        <v>5214.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>40.11</v>
+        <v>379849.052</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1451,7 +1551,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1462,22 +1566,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="E30" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1623</v>
+        <v>405.631</v>
       </c>
       <c r="G30" t="n">
-        <v>40.18</v>
+        <v>379443.421</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1487,7 +1591,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1498,22 +1606,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="C31" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="D31" t="n">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="E31" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F31" t="n">
-        <v>1173.8099</v>
+        <v>6500</v>
       </c>
       <c r="G31" t="n">
-        <v>40.235</v>
+        <v>379443.421</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1523,7 +1631,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1534,22 +1646,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="C32" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="D32" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="E32" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="F32" t="n">
-        <v>238.2805</v>
+        <v>1448.0746</v>
       </c>
       <c r="G32" t="n">
-        <v>40.28</v>
+        <v>377995.3464</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1559,7 +1671,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1686,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="D33" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E33" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="F33" t="n">
-        <v>1808.9999</v>
+        <v>5882.3292</v>
       </c>
       <c r="G33" t="n">
-        <v>40.325</v>
+        <v>372113.0172</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1595,7 +1711,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1606,22 +1726,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="C34" t="n">
-        <v>40.4</v>
+        <v>41.5</v>
       </c>
       <c r="D34" t="n">
-        <v>40.4</v>
+        <v>41.5</v>
       </c>
       <c r="E34" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="F34" t="n">
-        <v>22262.8998</v>
+        <v>410</v>
       </c>
       <c r="G34" t="n">
-        <v>40.36499999999999</v>
+        <v>372523.0172</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1631,7 +1751,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1645,33 +1769,31 @@
         <v>40.4</v>
       </c>
       <c r="C35" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="D35" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="E35" t="n">
         <v>40.4</v>
       </c>
       <c r="F35" t="n">
-        <v>30435.2142</v>
+        <v>4368</v>
       </c>
       <c r="G35" t="n">
-        <v>40.39999999999999</v>
+        <v>368155.0172</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1684,32 +1806,30 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C36" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="D36" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="E36" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>1543</v>
       </c>
       <c r="G36" t="n">
-        <v>40.45999999999999</v>
+        <v>368155.0172</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1726,32 +1846,30 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C37" t="n">
-        <v>40.9</v>
+        <v>40.1</v>
       </c>
       <c r="D37" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="E37" t="n">
-        <v>40.9</v>
+        <v>40.1</v>
       </c>
       <c r="F37" t="n">
-        <v>3867.7194</v>
+        <v>16050</v>
       </c>
       <c r="G37" t="n">
-        <v>40.51999999999999</v>
+        <v>352105.0172</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1780,20 +1898,18 @@
         <v>41</v>
       </c>
       <c r="F38" t="n">
-        <v>2726.2231</v>
+        <v>24.3902</v>
       </c>
       <c r="G38" t="n">
-        <v>40.57999999999999</v>
+        <v>352129.4074</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1822,20 +1938,18 @@
         <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>817.4386</v>
+        <v>1200.8568</v>
       </c>
       <c r="G39" t="n">
-        <v>40.62999999999999</v>
+        <v>352129.4074</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>41</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1852,32 +1966,30 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="E40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F40" t="n">
-        <v>91588.1452</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>40.65999999999999</v>
+        <v>352119.4074</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>41</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1894,32 +2006,30 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C41" t="n">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="D41" t="n">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="E41" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="F41" t="n">
-        <v>17800.0069</v>
+        <v>2.2549</v>
       </c>
       <c r="G41" t="n">
-        <v>40.7</v>
+        <v>352119.4074</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>41</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1936,32 +2046,30 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="C42" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="D42" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="E42" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="F42" t="n">
-        <v>6072.8973</v>
+        <v>492.61</v>
       </c>
       <c r="G42" t="n">
-        <v>40.74999999999999</v>
+        <v>351626.7974</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1978,22 +2086,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C43" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D43" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E43" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="F43" t="n">
-        <v>17794.0579</v>
+        <v>12.3762</v>
       </c>
       <c r="G43" t="n">
-        <v>40.78499999999999</v>
+        <v>351614.4212</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2018,22 +2126,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="D44" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="E44" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="F44" t="n">
-        <v>6212.315</v>
+        <v>59825.4599</v>
       </c>
       <c r="G44" t="n">
-        <v>40.78999999999999</v>
+        <v>411439.8811000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2061,29 +2169,27 @@
         <v>41</v>
       </c>
       <c r="C45" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E45" t="n">
         <v>41</v>
       </c>
       <c r="F45" t="n">
-        <v>22032</v>
+        <v>1026.121951219512</v>
       </c>
       <c r="G45" t="n">
-        <v>40.80499999999999</v>
+        <v>412466.0030512196</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>41</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2100,22 +2206,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="C46" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="E46" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F46" t="n">
-        <v>33667.5145</v>
+        <v>18456.33404878049</v>
       </c>
       <c r="G46" t="n">
-        <v>40.81499999999998</v>
+        <v>412466.0030512196</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2143,19 +2249,19 @@
         <v>41</v>
       </c>
       <c r="C47" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D47" t="n">
         <v>41</v>
       </c>
       <c r="E47" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F47" t="n">
-        <v>35660.361</v>
+        <v>10804.1648</v>
       </c>
       <c r="G47" t="n">
-        <v>40.83499999999999</v>
+        <v>412466.0030512196</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2180,22 +2286,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C48" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D48" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="E48" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>9983.1648</v>
       </c>
       <c r="G48" t="n">
-        <v>40.85499999999999</v>
+        <v>402482.8382512195</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2220,22 +2326,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="C49" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="D49" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="E49" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="F49" t="n">
-        <v>1231.343</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>40.83499999999999</v>
+        <v>402498.8382512195</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2260,22 +2366,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="D50" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="E50" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F50" t="n">
-        <v>10000</v>
+        <v>1441.1349</v>
       </c>
       <c r="G50" t="n">
-        <v>40.80499999999999</v>
+        <v>401057.7033512195</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2300,22 +2406,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C51" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="D51" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="E51" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F51" t="n">
-        <v>516.8754</v>
+        <v>8850</v>
       </c>
       <c r="G51" t="n">
-        <v>40.78499999999999</v>
+        <v>409907.7033512195</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2340,22 +2446,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="C52" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="E52" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="F52" t="n">
-        <v>11855.4401</v>
+        <v>2224.0426</v>
       </c>
       <c r="G52" t="n">
-        <v>40.76499999999999</v>
+        <v>407683.6607512195</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2380,22 +2486,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="C53" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="D53" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="E53" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="F53" t="n">
-        <v>53359.4808</v>
+        <v>3341.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>40.74999999999999</v>
+        <v>404341.6608512196</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2420,22 +2526,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="C54" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="D54" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="E54" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="F54" t="n">
-        <v>1231.343</v>
+        <v>13471.7775</v>
       </c>
       <c r="G54" t="n">
-        <v>40.72499999999999</v>
+        <v>404341.6608512196</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2460,22 +2566,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="E55" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="F55" t="n">
-        <v>6900</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>40.705</v>
+        <v>404351.6608512196</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2503,19 +2609,19 @@
         <v>40.1</v>
       </c>
       <c r="C56" t="n">
-        <v>40.2</v>
+        <v>39.9</v>
       </c>
       <c r="D56" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="E56" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="F56" t="n">
-        <v>36300</v>
+        <v>9073.958000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>40.665</v>
+        <v>395277.7028512196</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2540,32 +2646,30 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="C57" t="n">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="D57" t="n">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="E57" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="F57" t="n">
-        <v>3650</v>
+        <v>9811.7904</v>
       </c>
       <c r="G57" t="n">
-        <v>40.625</v>
+        <v>385465.9124512196</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2582,32 +2686,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="C58" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="D58" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="E58" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F58" t="n">
-        <v>9600</v>
+        <v>5060.5782</v>
       </c>
       <c r="G58" t="n">
-        <v>40.585</v>
+        <v>380405.3342512196</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2624,22 +2726,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="C59" t="n">
-        <v>40.6</v>
+        <v>39.5</v>
       </c>
       <c r="D59" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="E59" t="n">
-        <v>40.2</v>
+        <v>39.5</v>
       </c>
       <c r="F59" t="n">
-        <v>21806.2962</v>
+        <v>18846.3724</v>
       </c>
       <c r="G59" t="n">
-        <v>40.545</v>
+        <v>361558.9618512196</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2664,22 +2766,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="C60" t="n">
-        <v>41.2</v>
+        <v>39.1</v>
       </c>
       <c r="D60" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="E60" t="n">
-        <v>41</v>
+        <v>39.1</v>
       </c>
       <c r="F60" t="n">
-        <v>18300</v>
+        <v>8082.2167</v>
       </c>
       <c r="G60" t="n">
-        <v>40.545</v>
+        <v>353476.7451512196</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2704,30 +2806,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>41.2</v>
+        <v>39.1</v>
       </c>
       <c r="C61" t="n">
-        <v>41.2</v>
+        <v>39</v>
       </c>
       <c r="D61" t="n">
-        <v>41.2</v>
+        <v>39.1</v>
       </c>
       <c r="E61" t="n">
-        <v>41.2</v>
+        <v>39</v>
       </c>
       <c r="F61" t="n">
-        <v>23116.7961</v>
+        <v>9594.6181</v>
       </c>
       <c r="G61" t="n">
-        <v>40.55</v>
+        <v>343882.1270512196</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2744,30 +2848,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C62" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="D62" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="E62" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>14836.0707</v>
       </c>
       <c r="G62" t="n">
-        <v>40.53500000000001</v>
+        <v>358718.1977512196</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>39</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2784,30 +2890,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="C63" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="D63" t="n">
-        <v>41</v>
+        <v>39.9</v>
       </c>
       <c r="E63" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="F63" t="n">
-        <v>7534.5169</v>
+        <v>5853</v>
       </c>
       <c r="G63" t="n">
-        <v>40.52000000000001</v>
+        <v>364571.1977512196</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>39.6</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2824,30 +2932,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="C64" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="D64" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="E64" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="F64" t="n">
-        <v>49.261</v>
+        <v>5695.3716</v>
       </c>
       <c r="G64" t="n">
-        <v>40.50000000000001</v>
+        <v>358875.8261512195</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>39.8</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2864,30 +2974,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="C65" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="D65" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="E65" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="F65" t="n">
-        <v>1436.9376</v>
+        <v>5140.2992</v>
       </c>
       <c r="G65" t="n">
-        <v>40.48000000000001</v>
+        <v>353735.5269512195</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2904,30 +3016,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="C66" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="D66" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="E66" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>18202.9131</v>
       </c>
       <c r="G66" t="n">
-        <v>40.46000000000002</v>
+        <v>371938.4400512195</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>39</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2944,30 +3058,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C67" t="n">
-        <v>41.4</v>
+        <v>39.1</v>
       </c>
       <c r="D67" t="n">
-        <v>41.4</v>
+        <v>39.1</v>
       </c>
       <c r="E67" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F67" t="n">
-        <v>17700</v>
+        <v>9046.284</v>
       </c>
       <c r="G67" t="n">
-        <v>40.46000000000002</v>
+        <v>362892.1560512196</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2984,30 +3100,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41.3</v>
+        <v>39.2</v>
       </c>
       <c r="C68" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="D68" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="E68" t="n">
-        <v>41.3</v>
+        <v>39.2</v>
       </c>
       <c r="F68" t="n">
-        <v>142504.7877</v>
+        <v>1274.5842</v>
       </c>
       <c r="G68" t="n">
-        <v>40.46500000000001</v>
+        <v>364166.7402512195</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3024,30 +3142,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="C69" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="D69" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="E69" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2642.3467</v>
+        <v>5994.1566</v>
       </c>
       <c r="G69" t="n">
-        <v>40.52000000000001</v>
+        <v>370160.8968512195</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3064,30 +3184,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C70" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="D70" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="E70" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F70" t="n">
-        <v>4518.4132</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>40.58000000000001</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3104,30 +3226,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C71" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="D71" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="E71" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F71" t="n">
-        <v>1211</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>40.645</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3144,30 +3268,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C72" t="n">
-        <v>41.5</v>
+        <v>39.4</v>
       </c>
       <c r="D72" t="n">
-        <v>41.5</v>
+        <v>39.4</v>
       </c>
       <c r="E72" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F72" t="n">
-        <v>8100</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>40.715</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3184,30 +3310,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C73" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="D73" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="E73" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3976</v>
+        <v>8238.9252</v>
       </c>
       <c r="G73" t="n">
-        <v>40.78</v>
+        <v>370180.8968512195</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3224,30 +3352,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.2</v>
+        <v>39.2</v>
       </c>
       <c r="C74" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="D74" t="n">
-        <v>41.2</v>
+        <v>39.2</v>
       </c>
       <c r="E74" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="F74" t="n">
-        <v>12.1359</v>
+        <v>4398.6128</v>
       </c>
       <c r="G74" t="n">
-        <v>40.84500000000001</v>
+        <v>365782.2840512195</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3264,30 +3394,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="C75" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="D75" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="E75" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="F75" t="n">
-        <v>12.1654</v>
+        <v>82</v>
       </c>
       <c r="G75" t="n">
-        <v>40.90000000000001</v>
+        <v>365782.2840512195</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3304,30 +3436,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="C76" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="D76" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="E76" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="F76" t="n">
-        <v>24.3902</v>
+        <v>165</v>
       </c>
       <c r="G76" t="n">
-        <v>40.94500000000001</v>
+        <v>365782.2840512195</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3344,30 +3478,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40.9</v>
+        <v>38.8</v>
       </c>
       <c r="C77" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="D77" t="n">
-        <v>40.9</v>
+        <v>38.8</v>
       </c>
       <c r="E77" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="F77" t="n">
-        <v>23059.0041</v>
+        <v>12.5376</v>
       </c>
       <c r="G77" t="n">
-        <v>40.985</v>
+        <v>365794.8216512195</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3384,30 +3520,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="C78" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="E78" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="F78" t="n">
-        <v>15993</v>
+        <v>3846.153846153846</v>
       </c>
       <c r="G78" t="n">
-        <v>41.015</v>
+        <v>369640.9754973734</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>38.8</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3424,30 +3562,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="C79" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="D79" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="E79" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="F79" t="n">
-        <v>22218.3372</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>41.02999999999999</v>
+        <v>369650.9754973734</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>39</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3464,30 +3604,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="C80" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="D80" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="E80" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="F80" t="n">
-        <v>1016.1053</v>
+        <v>584.9605</v>
       </c>
       <c r="G80" t="n">
-        <v>41.02</v>
+        <v>369650.9754973734</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3504,30 +3646,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="C81" t="n">
-        <v>40.3</v>
+        <v>39.4</v>
       </c>
       <c r="D81" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="E81" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="F81" t="n">
-        <v>36150</v>
+        <v>1653.3453</v>
       </c>
       <c r="G81" t="n">
-        <v>40.97999999999999</v>
+        <v>371304.3207973734</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3544,30 +3688,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="C82" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="D82" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="E82" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>790</v>
       </c>
       <c r="G82" t="n">
-        <v>40.95999999999999</v>
+        <v>371304.3207973734</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3584,30 +3730,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="C83" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D83" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="E83" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>17450.9999</v>
       </c>
       <c r="G83" t="n">
-        <v>40.91499999999999</v>
+        <v>388755.3206973734</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3624,22 +3772,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="C84" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="D84" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="E84" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="F84" t="n">
-        <v>123.5241</v>
+        <v>849.1204</v>
       </c>
       <c r="G84" t="n">
-        <v>40.90499999999999</v>
+        <v>388755.3206973734</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3664,22 +3812,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="C85" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="D85" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="E85" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="F85" t="n">
-        <v>18854.6806</v>
+        <v>12668.8733</v>
       </c>
       <c r="G85" t="n">
-        <v>40.87999999999999</v>
+        <v>401424.1939973733</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3704,22 +3852,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C86" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D86" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E86" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F86" t="n">
-        <v>4975.0623</v>
+        <v>81804</v>
       </c>
       <c r="G86" t="n">
-        <v>40.81999999999999</v>
+        <v>483228.1939973733</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3744,22 +3892,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C87" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D87" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E87" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F87" t="n">
-        <v>7795.18</v>
+        <v>27951</v>
       </c>
       <c r="G87" t="n">
-        <v>40.73</v>
+        <v>483228.1939973733</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3784,32 +3932,30 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C88" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D88" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E88" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F88" t="n">
-        <v>3512.994</v>
+        <v>952.1566</v>
       </c>
       <c r="G88" t="n">
-        <v>40.625</v>
+        <v>483228.1939973733</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3826,32 +3972,30 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="C89" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="D89" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="E89" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="F89" t="n">
-        <v>2400</v>
+        <v>6310.9389</v>
       </c>
       <c r="G89" t="n">
-        <v>40.505</v>
+        <v>489539.1328973733</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3868,32 +4012,30 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="E90" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="F90" t="n">
-        <v>661.826</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>40.37</v>
+        <v>489549.1328973733</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>38.9</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3910,32 +4052,30 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="C91" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="D91" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="E91" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>29241</v>
       </c>
       <c r="G91" t="n">
-        <v>40.28000000000001</v>
+        <v>518790.1328973733</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3952,32 +4092,30 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C92" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="D92" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E92" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="F92" t="n">
-        <v>25</v>
+        <v>8519.9998</v>
       </c>
       <c r="G92" t="n">
-        <v>40.22000000000001</v>
+        <v>510270.1330973734</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3994,32 +4132,30 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="C93" t="n">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="D93" t="n">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="E93" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="F93" t="n">
-        <v>5790.6316</v>
+        <v>11062.9561</v>
       </c>
       <c r="G93" t="n">
-        <v>40.12500000000001</v>
+        <v>521333.0891973734</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -4036,22 +4172,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C94" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="E94" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F94" t="n">
-        <v>21253.277</v>
+        <v>2443.927825365854</v>
       </c>
       <c r="G94" t="n">
-        <v>40.07500000000001</v>
+        <v>523777.0170227392</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4076,22 +4212,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="C95" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="D95" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="E95" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="F95" t="n">
-        <v>20700</v>
+        <v>2356.8901</v>
       </c>
       <c r="G95" t="n">
-        <v>40.04000000000001</v>
+        <v>521420.1269227392</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4116,22 +4252,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="C96" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="D96" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="E96" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="F96" t="n">
-        <v>5700</v>
+        <v>5815.2535</v>
       </c>
       <c r="G96" t="n">
-        <v>40.03000000000001</v>
+        <v>515604.8734227392</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4156,22 +4292,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="C97" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="D97" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="E97" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F97" t="n">
-        <v>2250</v>
+        <v>5233.7281</v>
       </c>
       <c r="G97" t="n">
-        <v>40.03500000000001</v>
+        <v>510371.1453227392</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4196,22 +4332,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="C98" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="D98" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="E98" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="F98" t="n">
-        <v>1363.8397</v>
+        <v>8403.729600000001</v>
       </c>
       <c r="G98" t="n">
-        <v>40.03000000000002</v>
+        <v>518774.8749227392</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4236,22 +4372,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="C99" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="D99" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E99" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="F99" t="n">
-        <v>1209.6956</v>
+        <v>2290.7713</v>
       </c>
       <c r="G99" t="n">
-        <v>40.03500000000001</v>
+        <v>518774.8749227392</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4276,22 +4412,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="C100" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="D100" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="E100" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="F100" t="n">
-        <v>21947.6338</v>
+        <v>1907.6939</v>
       </c>
       <c r="G100" t="n">
-        <v>40.02500000000002</v>
+        <v>516867.1810227392</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4316,22 +4452,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="C101" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D101" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="E101" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1319</v>
+        <v>1623</v>
       </c>
       <c r="G101" t="n">
-        <v>40.04000000000002</v>
+        <v>518490.1810227392</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4356,22 +4492,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>41.3</v>
+        <v>40.5</v>
       </c>
       <c r="C102" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="D102" t="n">
-        <v>41.3</v>
+        <v>40.5</v>
       </c>
       <c r="E102" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>1173.8099</v>
       </c>
       <c r="G102" t="n">
-        <v>40.07500000000002</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4396,22 +4532,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C103" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D103" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E103" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="F103" t="n">
-        <v>4933.2083</v>
+        <v>238.2805</v>
       </c>
       <c r="G103" t="n">
-        <v>40.13500000000001</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4436,22 +4572,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="C104" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D104" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="E104" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F104" t="n">
-        <v>14775.9999</v>
+        <v>1808.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>40.17000000000002</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4476,22 +4612,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C105" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="D105" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="E105" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="F105" t="n">
-        <v>9236.3264</v>
+        <v>22262.8998</v>
       </c>
       <c r="G105" t="n">
-        <v>40.23000000000001</v>
+        <v>517316.3711227392</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4516,7 +4652,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="C106" t="n">
         <v>40.8</v>
@@ -4525,13 +4661,13 @@
         <v>40.8</v>
       </c>
       <c r="E106" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="F106" t="n">
-        <v>22713.7483</v>
+        <v>30435.2142</v>
       </c>
       <c r="G106" t="n">
-        <v>40.31000000000001</v>
+        <v>547751.5853227392</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4556,22 +4692,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="C107" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="D107" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="E107" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="F107" t="n">
-        <v>7495.3883</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>40.40500000000001</v>
+        <v>548751.5853227392</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4596,22 +4732,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="C108" t="n">
-        <v>41.4</v>
+        <v>40.9</v>
       </c>
       <c r="D108" t="n">
-        <v>41.4</v>
+        <v>40.9</v>
       </c>
       <c r="E108" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="F108" t="n">
-        <v>39900</v>
+        <v>3867.7194</v>
       </c>
       <c r="G108" t="n">
-        <v>40.50500000000001</v>
+        <v>548751.5853227392</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4636,22 +4772,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="C109" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D109" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E109" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="F109" t="n">
-        <v>27308.2367</v>
+        <v>2726.2231</v>
       </c>
       <c r="G109" t="n">
-        <v>40.62500000000001</v>
+        <v>551477.8084227392</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4676,22 +4812,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C110" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D110" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E110" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F110" t="n">
-        <v>94296.3855</v>
+        <v>817.4386</v>
       </c>
       <c r="G110" t="n">
-        <v>40.755</v>
+        <v>551477.8084227392</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4716,22 +4852,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="C111" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D111" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E111" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="F111" t="n">
-        <v>7607.4226</v>
+        <v>91588.1452</v>
       </c>
       <c r="G111" t="n">
-        <v>40.85</v>
+        <v>551477.8084227392</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4756,22 +4892,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="C112" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="D112" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="E112" t="n">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="F112" t="n">
-        <v>23729.5949</v>
+        <v>17800.0069</v>
       </c>
       <c r="G112" t="n">
-        <v>40.915</v>
+        <v>569277.8153227392</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4796,22 +4932,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="C113" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="D113" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="E113" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="F113" t="n">
-        <v>2156.1019</v>
+        <v>6072.8973</v>
       </c>
       <c r="G113" t="n">
-        <v>41.025</v>
+        <v>569277.8153227392</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4836,22 +4972,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="C114" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="D114" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="E114" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="F114" t="n">
-        <v>2887</v>
+        <v>17794.0579</v>
       </c>
       <c r="G114" t="n">
-        <v>41.1</v>
+        <v>587071.8732227392</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4876,22 +5012,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="C115" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="D115" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="E115" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="F115" t="n">
-        <v>8850</v>
+        <v>6212.315</v>
       </c>
       <c r="G115" t="n">
-        <v>41.16500000000001</v>
+        <v>580859.5582227393</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4916,22 +5052,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="C116" t="n">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
       <c r="D116" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E116" t="n">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="F116" t="n">
-        <v>20216.6604</v>
+        <v>22032</v>
       </c>
       <c r="G116" t="n">
-        <v>41.23500000000001</v>
+        <v>602891.5582227393</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4956,22 +5092,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>41.9</v>
+        <v>40.8</v>
       </c>
       <c r="C117" t="n">
-        <v>41.9</v>
+        <v>40.1</v>
       </c>
       <c r="D117" t="n">
-        <v>41.9</v>
+        <v>40.8</v>
       </c>
       <c r="E117" t="n">
-        <v>41.9</v>
+        <v>40.1</v>
       </c>
       <c r="F117" t="n">
-        <v>1009.6513</v>
+        <v>33667.5145</v>
       </c>
       <c r="G117" t="n">
-        <v>41.28000000000001</v>
+        <v>569224.0437227392</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4996,22 +5132,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="C118" t="n">
-        <v>42.2</v>
+        <v>40.1</v>
       </c>
       <c r="D118" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="E118" t="n">
-        <v>41.7</v>
+        <v>40.1</v>
       </c>
       <c r="F118" t="n">
-        <v>1352.8277</v>
+        <v>35660.361</v>
       </c>
       <c r="G118" t="n">
-        <v>41.33000000000001</v>
+        <v>569224.0437227392</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5036,22 +5172,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>41.8</v>
+        <v>41.2</v>
       </c>
       <c r="C119" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="D119" t="n">
-        <v>41.8</v>
+        <v>41.2</v>
       </c>
       <c r="E119" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="F119" t="n">
-        <v>14960.7178</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>41.39</v>
+        <v>569234.0437227392</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5076,22 +5212,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="C120" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="D120" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="E120" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="F120" t="n">
-        <v>24036.1445</v>
+        <v>1231.343</v>
       </c>
       <c r="G120" t="n">
-        <v>41.45</v>
+        <v>568002.7007227392</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5116,22 +5252,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="C121" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="D121" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="E121" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="F121" t="n">
-        <v>1373</v>
+        <v>10000</v>
       </c>
       <c r="G121" t="n">
-        <v>41.505</v>
+        <v>558002.7007227392</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5156,22 +5292,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="C122" t="n">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="D122" t="n">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="E122" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="F122" t="n">
-        <v>2393.7909</v>
+        <v>516.8754</v>
       </c>
       <c r="G122" t="n">
-        <v>41.52999999999999</v>
+        <v>558002.7007227392</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5196,22 +5332,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>42.3</v>
+        <v>40</v>
       </c>
       <c r="C123" t="n">
-        <v>42.5</v>
+        <v>39.6</v>
       </c>
       <c r="D123" t="n">
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="E123" t="n">
-        <v>42.3</v>
+        <v>39.6</v>
       </c>
       <c r="F123" t="n">
-        <v>675.9623</v>
+        <v>11855.4401</v>
       </c>
       <c r="G123" t="n">
-        <v>41.58</v>
+        <v>546147.2606227392</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5236,22 +5372,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>42.7</v>
+        <v>40.1</v>
       </c>
       <c r="C124" t="n">
-        <v>43.2</v>
+        <v>39.6</v>
       </c>
       <c r="D124" t="n">
-        <v>43.4</v>
+        <v>40.1</v>
       </c>
       <c r="E124" t="n">
-        <v>42.7</v>
+        <v>39.6</v>
       </c>
       <c r="F124" t="n">
-        <v>51128.4838</v>
+        <v>53359.4808</v>
       </c>
       <c r="G124" t="n">
-        <v>41.66</v>
+        <v>546147.2606227392</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5276,22 +5412,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>43.4</v>
+        <v>39.9</v>
       </c>
       <c r="C125" t="n">
-        <v>42.7</v>
+        <v>39.9</v>
       </c>
       <c r="D125" t="n">
-        <v>43.4</v>
+        <v>39.9</v>
       </c>
       <c r="E125" t="n">
-        <v>42.7</v>
+        <v>39.9</v>
       </c>
       <c r="F125" t="n">
-        <v>2449.95</v>
+        <v>1231.343</v>
       </c>
       <c r="G125" t="n">
-        <v>41.765</v>
+        <v>547378.6036227392</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5316,37 +5452,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>42.7</v>
+        <v>40</v>
       </c>
       <c r="C126" t="n">
-        <v>43.4</v>
+        <v>40</v>
       </c>
       <c r="D126" t="n">
-        <v>43.4</v>
+        <v>40</v>
       </c>
       <c r="E126" t="n">
-        <v>42.2</v>
+        <v>40</v>
       </c>
       <c r="F126" t="n">
-        <v>11927.8996</v>
+        <v>6900</v>
       </c>
       <c r="G126" t="n">
-        <v>41.86</v>
+        <v>554278.6036227392</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
       <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -5354,32 +5492,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>43.4</v>
+        <v>40.1</v>
       </c>
       <c r="C127" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="D127" t="n">
-        <v>43.4</v>
+        <v>40.2</v>
       </c>
       <c r="E127" t="n">
-        <v>42.3</v>
+        <v>40.1</v>
       </c>
       <c r="F127" t="n">
-        <v>1165.4403</v>
+        <v>36300</v>
       </c>
       <c r="G127" t="n">
-        <v>41.975</v>
+        <v>590578.6036227392</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5390,32 +5532,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>43</v>
+        <v>40.1</v>
       </c>
       <c r="C128" t="n">
-        <v>43.3</v>
+        <v>40.2</v>
       </c>
       <c r="D128" t="n">
-        <v>43.3</v>
+        <v>40.2</v>
       </c>
       <c r="E128" t="n">
-        <v>43</v>
+        <v>40.1</v>
       </c>
       <c r="F128" t="n">
-        <v>15766.69091316397</v>
+        <v>3650</v>
       </c>
       <c r="G128" t="n">
-        <v>42.065</v>
+        <v>590578.6036227392</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5426,32 +5572,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="C129" t="n">
-        <v>42.1</v>
+        <v>40.2</v>
       </c>
       <c r="D129" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="E129" t="n">
-        <v>42.1</v>
+        <v>40.2</v>
       </c>
       <c r="F129" t="n">
-        <v>6315.77</v>
+        <v>9600</v>
       </c>
       <c r="G129" t="n">
-        <v>42.11</v>
+        <v>590578.6036227392</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5462,32 +5612,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>42.2</v>
+        <v>40.2</v>
       </c>
       <c r="C130" t="n">
-        <v>42.2</v>
+        <v>40.6</v>
       </c>
       <c r="D130" t="n">
-        <v>42.2</v>
+        <v>40.9</v>
       </c>
       <c r="E130" t="n">
-        <v>42.2</v>
+        <v>40.2</v>
       </c>
       <c r="F130" t="n">
-        <v>736.8483</v>
+        <v>21806.2962</v>
       </c>
       <c r="G130" t="n">
-        <v>42.155</v>
+        <v>612384.8998227392</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5498,32 +5652,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="C131" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="D131" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="E131" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="F131" t="n">
-        <v>395.255</v>
+        <v>18300</v>
       </c>
       <c r="G131" t="n">
-        <v>42.19</v>
+        <v>630684.8998227392</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5534,32 +5692,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
       <c r="C132" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="D132" t="n">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
       <c r="E132" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="F132" t="n">
-        <v>7982.5221</v>
+        <v>23116.7961</v>
       </c>
       <c r="G132" t="n">
-        <v>42.22500000000001</v>
+        <v>630684.8998227392</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5570,32 +5732,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="C133" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D133" t="n">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="E133" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="F133" t="n">
-        <v>6131.3393</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>42.23</v>
+        <v>630674.8998227392</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5606,32 +5772,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="C134" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="D134" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E134" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F134" t="n">
-        <v>64040.702</v>
+        <v>7534.5169</v>
       </c>
       <c r="G134" t="n">
-        <v>42.22</v>
+        <v>630674.8998227392</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5642,32 +5812,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>41.7</v>
+        <v>40.6</v>
       </c>
       <c r="C135" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="D135" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="E135" t="n">
-        <v>41.7</v>
+        <v>40.6</v>
       </c>
       <c r="F135" t="n">
-        <v>3930.3507</v>
+        <v>49.261</v>
       </c>
       <c r="G135" t="n">
-        <v>42.22</v>
+        <v>630625.6388227391</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5678,32 +5852,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="C136" t="n">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="D136" t="n">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="E136" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="F136" t="n">
-        <v>70650</v>
+        <v>1436.9376</v>
       </c>
       <c r="G136" t="n">
-        <v>42.20999999999999</v>
+        <v>630625.6388227391</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5714,32 +5892,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="C137" t="n">
-        <v>42.6</v>
+        <v>40.4</v>
       </c>
       <c r="D137" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="E137" t="n">
-        <v>42.6</v>
+        <v>40.4</v>
       </c>
       <c r="F137" t="n">
-        <v>12450</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>42.25</v>
+        <v>630615.6388227391</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5750,32 +5932,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="C138" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="D138" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E138" t="n">
-        <v>42.1</v>
+        <v>41</v>
       </c>
       <c r="F138" t="n">
-        <v>4213.2652</v>
+        <v>17700</v>
       </c>
       <c r="G138" t="n">
-        <v>42.275</v>
+        <v>648315.6388227391</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5786,36 +5972,2822 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
       <c r="C139" t="n">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="D139" t="n">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="E139" t="n">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
       <c r="F139" t="n">
-        <v>48034.389</v>
+        <v>142504.7877</v>
       </c>
       <c r="G139" t="n">
-        <v>42.33</v>
+        <v>790820.4265227391</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
       <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2642.3467</v>
+      </c>
+      <c r="G140" t="n">
+        <v>788178.0798227391</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4518.4132</v>
+      </c>
+      <c r="G141" t="n">
+        <v>788178.0798227391</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G142" t="n">
+        <v>788178.0798227391</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8100</v>
+      </c>
+      <c r="G143" t="n">
+        <v>796278.0798227391</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3976</v>
+      </c>
+      <c r="G144" t="n">
+        <v>792302.0798227391</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12.1359</v>
+      </c>
+      <c r="G145" t="n">
+        <v>792289.9439227391</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12.1654</v>
+      </c>
+      <c r="G146" t="n">
+        <v>792277.7785227391</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>41</v>
+      </c>
+      <c r="C147" t="n">
+        <v>41</v>
+      </c>
+      <c r="D147" t="n">
+        <v>41</v>
+      </c>
+      <c r="E147" t="n">
+        <v>41</v>
+      </c>
+      <c r="F147" t="n">
+        <v>24.3902</v>
+      </c>
+      <c r="G147" t="n">
+        <v>792253.388322739</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>23059.0041</v>
+      </c>
+      <c r="G148" t="n">
+        <v>769194.384222739</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15993</v>
+      </c>
+      <c r="G149" t="n">
+        <v>769194.384222739</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>22218.3372</v>
+      </c>
+      <c r="G150" t="n">
+        <v>746976.0470227391</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1016.1053</v>
+      </c>
+      <c r="G151" t="n">
+        <v>747992.1523227391</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>36150</v>
+      </c>
+      <c r="G152" t="n">
+        <v>711842.1523227391</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>11</v>
+      </c>
+      <c r="G153" t="n">
+        <v>711853.1523227391</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>708853.1523227391</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>123.5241</v>
+      </c>
+      <c r="G155" t="n">
+        <v>708976.6764227392</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>40</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18854.6806</v>
+      </c>
+      <c r="G156" t="n">
+        <v>708976.6764227392</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4975.0623</v>
+      </c>
+      <c r="G157" t="n">
+        <v>704001.6141227392</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7795.18</v>
+      </c>
+      <c r="G158" t="n">
+        <v>704001.6141227392</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3512.994</v>
+      </c>
+      <c r="G159" t="n">
+        <v>704001.6141227392</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>39</v>
+      </c>
+      <c r="C160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>39</v>
+      </c>
+      <c r="E160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>701601.6141227392</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>661.826</v>
+      </c>
+      <c r="G161" t="n">
+        <v>700939.7881227392</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>11</v>
+      </c>
+      <c r="G162" t="n">
+        <v>700950.7881227392</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>25</v>
+      </c>
+      <c r="G163" t="n">
+        <v>700975.7881227392</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5790.6316</v>
+      </c>
+      <c r="G164" t="n">
+        <v>695185.1565227392</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21253.277</v>
+      </c>
+      <c r="G165" t="n">
+        <v>716438.4335227392</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>20700</v>
+      </c>
+      <c r="G166" t="n">
+        <v>737138.4335227392</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5700</v>
+      </c>
+      <c r="G167" t="n">
+        <v>742838.4335227392</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>41</v>
+      </c>
+      <c r="C168" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>41</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G168" t="n">
+        <v>745088.4335227392</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1363.8397</v>
+      </c>
+      <c r="G169" t="n">
+        <v>743724.5938227392</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1209.6956</v>
+      </c>
+      <c r="G170" t="n">
+        <v>742514.8982227392</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>21947.6338</v>
+      </c>
+      <c r="G171" t="n">
+        <v>764462.5320227392</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G172" t="n">
+        <v>763143.5320227392</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
+      </c>
+      <c r="G173" t="n">
+        <v>763243.5320227392</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4933.2083</v>
+      </c>
+      <c r="G174" t="n">
+        <v>768176.7403227392</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>41</v>
+      </c>
+      <c r="D175" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>41</v>
+      </c>
+      <c r="F175" t="n">
+        <v>14775.9999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>753400.7404227392</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>9236.3264</v>
+      </c>
+      <c r="G176" t="n">
+        <v>744164.4140227392</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22713.7483</v>
+      </c>
+      <c r="G177" t="n">
+        <v>744164.4140227392</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7495.3883</v>
+      </c>
+      <c r="G178" t="n">
+        <v>751659.8023227392</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>39900</v>
+      </c>
+      <c r="G179" t="n">
+        <v>791559.8023227392</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C180" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D180" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E180" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>27308.2367</v>
+      </c>
+      <c r="G180" t="n">
+        <v>791559.8023227392</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>94296.3855</v>
+      </c>
+      <c r="G181" t="n">
+        <v>885856.1878227391</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7607.4226</v>
+      </c>
+      <c r="G182" t="n">
+        <v>885856.1878227391</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23729.5949</v>
+      </c>
+      <c r="G183" t="n">
+        <v>909585.7827227392</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2156.1019</v>
+      </c>
+      <c r="G184" t="n">
+        <v>911741.8846227392</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D185" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2887</v>
+      </c>
+      <c r="G185" t="n">
+        <v>911741.8846227392</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8850</v>
+      </c>
+      <c r="G186" t="n">
+        <v>920591.8846227392</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20216.6604</v>
+      </c>
+      <c r="G187" t="n">
+        <v>900375.2242227391</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1009.6513</v>
+      </c>
+      <c r="G188" t="n">
+        <v>901384.8755227391</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1352.8277</v>
+      </c>
+      <c r="G189" t="n">
+        <v>902737.7032227392</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>14960.7178</v>
+      </c>
+      <c r="G190" t="n">
+        <v>887776.9854227392</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D191" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E191" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24036.1445</v>
+      </c>
+      <c r="G191" t="n">
+        <v>911813.1299227392</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G192" t="n">
+        <v>911813.1299227392</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2393.7909</v>
+      </c>
+      <c r="G193" t="n">
+        <v>914206.9208227393</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>675.9623</v>
+      </c>
+      <c r="G194" t="n">
+        <v>914206.9208227393</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>51128.4838</v>
+      </c>
+      <c r="G195" t="n">
+        <v>965335.4046227393</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E196" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2449.95</v>
+      </c>
+      <c r="G196" t="n">
+        <v>962885.4546227393</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11927.8996</v>
+      </c>
+      <c r="G197" t="n">
+        <v>974813.3542227393</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C198" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1165.4403</v>
+      </c>
+      <c r="G198" t="n">
+        <v>973647.9139227393</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>43</v>
+      </c>
+      <c r="C199" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E199" t="n">
+        <v>43</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15766.69091316397</v>
+      </c>
+      <c r="G199" t="n">
+        <v>989414.6048359033</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C200" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E200" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>6315.77</v>
+      </c>
+      <c r="G200" t="n">
+        <v>983098.8348359033</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>736.8483</v>
+      </c>
+      <c r="G201" t="n">
+        <v>983835.6831359032</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>395.255</v>
+      </c>
+      <c r="G202" t="n">
+        <v>984230.9381359032</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>42</v>
+      </c>
+      <c r="D203" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>42</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7982.5221</v>
+      </c>
+      <c r="G203" t="n">
+        <v>976248.4160359033</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C204" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E204" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6131.3393</v>
+      </c>
+      <c r="G204" t="n">
+        <v>970117.0767359033</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>64040.702</v>
+      </c>
+      <c r="G205" t="n">
+        <v>906076.3747359032</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>42</v>
+      </c>
+      <c r="D206" t="n">
+        <v>42</v>
+      </c>
+      <c r="E206" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3930.3507</v>
+      </c>
+      <c r="G206" t="n">
+        <v>910006.7254359032</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>42</v>
+      </c>
+      <c r="C207" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E207" t="n">
+        <v>42</v>
+      </c>
+      <c r="F207" t="n">
+        <v>70650</v>
+      </c>
+      <c r="G207" t="n">
+        <v>980656.7254359032</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C208" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>12450</v>
+      </c>
+      <c r="G208" t="n">
+        <v>993106.7254359032</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4213.2652</v>
+      </c>
+      <c r="G209" t="n">
+        <v>988893.4602359032</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C210" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F210" t="n">
+        <v>48034.389</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1036927.849235903</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>178066.9375999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,24 +517,15 @@
         <v>172772.0393999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,24 +550,15 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,24 +583,21 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>39.4</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,22 +622,21 @@
         <v>232837.4638999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,24 +661,21 @@
         <v>228020.246</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>39.8</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,24 +700,19 @@
         <v>295170.7666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,20 +739,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,20 +776,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,20 +813,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -900,20 +850,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,20 +887,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,24 +922,21 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>39</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1020,24 +961,21 @@
         <v>301626.6281</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>39</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1062,24 +1000,21 @@
         <v>304496.628</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>40</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1106,20 +1041,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1146,20 +1078,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1186,20 +1115,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1226,20 +1152,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1266,20 +1189,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1306,20 +1226,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1346,20 +1263,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1386,20 +1300,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1426,20 +1337,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1466,20 +1374,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1506,20 +1411,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,20 +1448,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,20 +1485,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1626,20 +1522,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1666,20 +1559,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1706,20 +1596,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1746,20 +1633,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1786,20 +1670,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,20 +1707,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1866,20 +1744,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,20 +1781,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1946,20 +1818,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1986,20 +1855,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2026,20 +1892,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2066,20 +1929,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2106,20 +1966,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2146,20 +2003,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2186,20 +2040,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2226,20 +2077,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2266,20 +2114,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2306,20 +2151,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2346,20 +2188,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2386,20 +2225,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2426,20 +2262,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2466,20 +2299,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2506,20 +2336,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2546,20 +2373,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2586,20 +2410,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2626,20 +2447,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2664,22 +2482,19 @@
         <v>385465.9124512196</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2704,22 +2519,19 @@
         <v>380405.3342512196</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2744,22 +2556,19 @@
         <v>361558.9618512196</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2784,22 +2593,19 @@
         <v>353476.7451512196</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2826,22 +2632,17 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2868,22 +2669,17 @@
       <c r="H62" t="n">
         <v>1</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>39</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2910,22 +2706,17 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2952,22 +2743,17 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2994,22 +2780,17 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3036,22 +2817,17 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>39</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3078,22 +2854,17 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3120,22 +2891,17 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3162,22 +2928,17 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3204,22 +2965,17 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3246,22 +3002,17 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3288,22 +3039,17 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3330,22 +3076,17 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3372,22 +3113,17 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3414,22 +3150,17 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3456,22 +3187,17 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3498,22 +3224,17 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3540,22 +3261,17 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3582,22 +3298,17 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>39</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3624,22 +3335,17 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3664,24 +3370,19 @@
         <v>371304.3207973734</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3708,22 +3409,17 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3750,22 +3446,17 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3792,20 +3483,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3830,22 +3518,21 @@
         <v>401424.1939973733</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3870,22 +3557,21 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3910,22 +3596,21 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3952,20 +3637,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3992,20 +3674,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4032,20 +3711,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4072,20 +3748,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4112,20 +3785,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4152,20 +3822,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4192,20 +3859,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4232,20 +3896,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4272,20 +3933,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4312,20 +3970,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4352,20 +4007,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4392,20 +4044,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4432,20 +4081,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4472,20 +4118,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4512,20 +4155,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4552,20 +4192,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4592,20 +4229,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4630,22 +4264,17 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4670,22 +4299,15 @@
         <v>547751.5853227392</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4712,20 +4334,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4750,22 +4365,15 @@
         <v>548751.5853227392</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4792,20 +4400,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4832,20 +4433,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4872,20 +4466,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4910,22 +4497,15 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4950,22 +4530,15 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4990,22 +4563,15 @@
         <v>587071.8732227392</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5030,22 +4596,15 @@
         <v>580859.5582227393</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5070,22 +4629,15 @@
         <v>602891.5582227393</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5112,20 +4664,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5150,22 +4695,15 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5192,20 +4730,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5232,20 +4763,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5272,20 +4796,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5312,20 +4829,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5352,20 +4862,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5392,20 +4895,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5432,20 +4928,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5470,22 +4959,19 @@
         <v>554278.6036227392</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>39.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>39.9</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5512,20 +4998,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5550,22 +5035,23 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>40.2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5590,22 +5076,19 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>40.2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>40.2</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5632,20 +5115,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5672,20 +5154,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5712,20 +5193,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5752,20 +5232,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5792,20 +5271,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5832,20 +5310,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5872,20 +5349,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5912,20 +5388,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5952,20 +5427,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5992,20 +5466,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6032,20 +5505,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6072,20 +5544,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6112,20 +5583,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6152,20 +5622,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6192,20 +5661,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6232,20 +5700,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6272,20 +5739,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6312,20 +5778,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6352,20 +5817,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6392,20 +5856,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6432,20 +5895,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6472,20 +5934,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6512,20 +5973,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6552,20 +6012,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6592,20 +6051,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6632,20 +6090,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6672,20 +6129,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6712,20 +6168,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6752,20 +6207,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6792,20 +6246,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6832,20 +6285,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6870,22 +6322,21 @@
         <v>700939.7881227392</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6912,20 +6363,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6952,20 +6402,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6992,20 +6441,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7032,20 +6480,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7072,20 +6519,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7110,22 +6556,21 @@
         <v>742838.4335227392</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7152,20 +6597,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7192,20 +6636,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7232,20 +6675,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7272,20 +6714,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7312,20 +6753,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7352,20 +6792,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7392,20 +6831,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7432,20 +6870,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7472,20 +6909,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7512,20 +6948,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7552,20 +6987,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7592,20 +7026,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7632,20 +7065,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7672,20 +7104,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7712,20 +7143,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7752,20 +7182,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7792,20 +7221,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7832,20 +7260,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7872,20 +7299,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7910,22 +7336,21 @@
         <v>900375.2242227391</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1.034800995024876</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7950,22 +7375,15 @@
         <v>901384.8755227391</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7990,22 +7408,15 @@
         <v>902737.7032227392</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8030,22 +7441,15 @@
         <v>887776.9854227392</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8070,22 +7474,15 @@
         <v>911813.1299227392</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8112,20 +7509,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8152,20 +7542,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8192,20 +7575,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8232,20 +7608,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8270,20 +7639,15 @@
         <v>962885.4546227393</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L196" t="n">
+        <v>1</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8308,18 +7672,15 @@
         <v>974813.3542227393</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8344,18 +7705,15 @@
         <v>973647.9139227393</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8380,18 +7738,15 @@
         <v>989414.6048359033</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8416,18 +7771,15 @@
         <v>983098.8348359033</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8452,18 +7804,15 @@
         <v>983835.6831359032</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8488,18 +7837,15 @@
         <v>984230.9381359032</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8524,18 +7870,15 @@
         <v>976248.4160359033</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8562,16 +7905,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8596,18 +7936,15 @@
         <v>906076.3747359032</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8634,16 +7971,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8668,18 +8002,15 @@
         <v>980656.7254359032</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8706,16 +8037,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8740,18 +8068,15 @@
         <v>988893.4602359032</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8778,18 +8103,15 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,17 +583,11 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -622,17 +616,15 @@
         <v>232837.4638999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>39.4</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,15 +653,15 @@
         <v>228020.246</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -703,7 +695,9 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -740,7 +734,9 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -777,7 +773,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -814,7 +812,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -851,7 +851,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -888,7 +890,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -922,12 +926,12 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>39</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -961,12 +965,12 @@
         <v>301626.6281</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1000,12 +1004,12 @@
         <v>304496.628</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1042,7 +1046,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1079,7 +1085,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1116,7 +1124,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1153,7 +1163,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1190,7 +1202,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1227,7 +1241,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,7 +1280,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1301,7 +1319,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,7 +1358,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1375,7 +1397,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,7 +1436,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1449,7 +1475,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1486,7 +1514,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1523,7 +1553,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1560,7 +1592,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1597,7 +1631,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1634,7 +1670,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,7 +1709,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,7 +1748,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1745,7 +1787,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1782,7 +1826,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1819,7 +1865,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,7 +1904,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1893,7 +1943,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1930,7 +1982,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,7 +2021,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2004,7 +2060,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2041,7 +2099,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,7 +2138,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2115,7 +2177,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2152,7 +2216,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2189,7 +2255,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2226,7 +2294,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2263,7 +2333,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,7 +2372,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2337,7 +2411,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,7 +2450,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2411,7 +2489,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,7 +2528,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,10 +2564,12 @@
         <v>385465.9124512196</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,10 +2603,12 @@
         <v>380405.3342512196</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2556,10 +2642,12 @@
         <v>361558.9618512196</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,10 +2681,12 @@
         <v>353476.7451512196</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,10 +2720,12 @@
         <v>343882.1270512196</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2669,8 +2761,12 @@
       <c r="H62" t="n">
         <v>1</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>39</v>
+      </c>
+      <c r="J62" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,8 +2802,12 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2741,10 +2841,12 @@
         <v>358875.8261512195</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,8 +2882,12 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,8 +2923,12 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>39</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2854,8 +2964,12 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,8 +3005,12 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,8 +3046,12 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,8 +3087,12 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,10 +3126,12 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,10 +3165,12 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,10 +3204,12 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,10 +3243,12 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,10 +3282,12 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,10 +3321,12 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,8 +3362,12 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,8 +3403,12 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,8 +3444,12 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>39</v>
+      </c>
+      <c r="J79" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,10 +3483,12 @@
         <v>369650.9754973734</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,7 +3525,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,10 +3561,12 @@
         <v>371304.3207973734</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,10 +3600,12 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,7 +3642,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,12 +3678,12 @@
         <v>401424.1939973733</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,12 +3717,12 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,12 +3756,12 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3638,7 +3798,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,7 +3837,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3712,7 +3876,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,7 +3915,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,7 +3954,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +3993,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,7 +4032,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +4071,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,7 +4110,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,7 +4149,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,7 +4188,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4227,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4266,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,7 +4305,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,7 +4344,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,7 +4383,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,7 +4422,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,16 +4458,20 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4299,11 +4497,17 @@
         <v>547751.5853227392</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4335,8 +4539,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4365,11 +4575,17 @@
         <v>548751.5853227392</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4434,8 +4656,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4467,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4731,17 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4770,17 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4809,17 @@
         <v>587071.8732227392</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4848,17 @@
         <v>580859.5582227393</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4887,17 @@
         <v>602891.5582227393</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4665,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4965,17 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4731,8 +5007,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4830,8 +5124,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4863,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4896,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4929,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4959,15 +5277,17 @@
         <v>554278.6036227392</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>39.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +5320,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -5035,17 +5355,15 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -5076,15 +5394,17 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5117,11 +5437,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -5156,7 +5476,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5195,7 +5515,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5234,7 +5554,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5273,7 +5593,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5312,7 +5632,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5351,7 +5671,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5390,7 +5710,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5429,7 +5749,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5468,7 +5788,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5507,7 +5827,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5546,7 +5866,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5585,7 +5905,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5624,7 +5944,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5663,7 +5983,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5702,7 +6022,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5741,7 +6061,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5780,7 +6100,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5819,7 +6139,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5858,7 +6178,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5897,7 +6217,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5936,7 +6256,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5975,7 +6295,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6014,7 +6334,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6053,7 +6373,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6092,7 +6412,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6131,7 +6451,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6170,7 +6490,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6209,7 +6529,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6248,7 +6568,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6287,7 +6607,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6322,11 +6642,11 @@
         <v>700939.7881227392</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6365,7 +6685,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6404,7 +6724,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6443,7 +6763,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6482,7 +6802,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6521,7 +6841,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6556,11 +6876,11 @@
         <v>742838.4335227392</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6599,7 +6919,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6638,7 +6958,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6677,7 +6997,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6716,7 +7036,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6755,7 +7075,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6794,7 +7114,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6833,7 +7153,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6872,7 +7192,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6911,7 +7231,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6950,7 +7270,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6989,7 +7309,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7028,7 +7348,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7067,7 +7387,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7106,7 +7426,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7145,7 +7465,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7184,7 +7504,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7223,7 +7543,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7262,7 +7582,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7301,7 +7621,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7336,19 +7656,19 @@
         <v>900375.2242227391</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.034800995024876</v>
+        <v>1</v>
       </c>
       <c r="M187" t="inlineStr"/>
     </row>
@@ -7375,11 +7695,17 @@
         <v>901384.8755227391</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7408,11 +7734,17 @@
         <v>902737.7032227392</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7441,11 +7773,17 @@
         <v>887776.9854227392</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7812,17 @@
         <v>911813.1299227392</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7510,8 +7854,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7540,15 +7890,23 @@
         <v>914206.9208227393</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>1.073680203045685</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.036458333333333</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7639,7 +7997,7 @@
         <v>962885.4546227393</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7672,7 +8030,7 @@
         <v>974813.3542227393</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7705,7 +8063,7 @@
         <v>973647.9139227393</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7738,7 +8096,7 @@
         <v>989414.6048359033</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7771,7 +8129,7 @@
         <v>983098.8348359033</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7804,7 +8162,7 @@
         <v>983835.6831359032</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7837,7 +8195,7 @@
         <v>984230.9381359032</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7870,7 +8228,7 @@
         <v>976248.4160359033</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7903,7 +8261,7 @@
         <v>970117.0767359033</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7936,7 +8294,7 @@
         <v>906076.3747359032</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7969,7 +8327,7 @@
         <v>910006.7254359032</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8002,7 +8360,7 @@
         <v>980656.7254359032</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8035,7 +8393,7 @@
         <v>993106.7254359032</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8068,7 +8426,7 @@
         <v>988893.4602359032</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8101,7 +8459,7 @@
         <v>1036927.849235903</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8112,6 +8470,6 @@
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,14 +616,10 @@
         <v>232837.4638999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>39.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -653,17 +649,11 @@
         <v>228020.246</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -692,17 +682,11 @@
         <v>295170.7666</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,17 +715,11 @@
         <v>295170.7666</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -770,17 +748,11 @@
         <v>292634.4111</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -809,17 +781,11 @@
         <v>299620.5870999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,17 +814,11 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,17 +847,11 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -929,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -965,17 +913,11 @@
         <v>301626.6281</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1007,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1046,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1085,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1124,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1163,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1202,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1241,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1280,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1319,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1358,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1397,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1475,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1553,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1592,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1631,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1670,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1709,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1748,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1787,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1826,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1865,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1904,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1982,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2021,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2060,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2099,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2138,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2177,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2216,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2255,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2330,17 +2068,11 @@
         <v>409907.7033512195</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2369,17 +2101,11 @@
         <v>407683.6607512195</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2408,17 +2134,11 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2447,17 +2167,11 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2486,17 +2200,11 @@
         <v>404351.6608512196</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2525,17 +2233,11 @@
         <v>395277.7028512196</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2564,17 +2266,11 @@
         <v>385465.9124512196</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2606,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2645,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2684,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2759,19 +2431,11 @@
         <v>358718.1977512196</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>39</v>
-      </c>
-      <c r="J62" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2800,19 +2464,11 @@
         <v>364571.1977512196</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2844,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2880,19 +2530,11 @@
         <v>353735.5269512195</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +2563,11 @@
         <v>371938.4400512195</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>39</v>
-      </c>
-      <c r="J66" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2962,19 +2596,11 @@
         <v>362892.1560512196</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3003,19 +2629,11 @@
         <v>364166.7402512195</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3044,19 +2662,11 @@
         <v>370160.8968512195</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3085,19 +2695,11 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3129,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3168,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3207,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3285,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3324,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3360,19 +2926,11 @@
         <v>365794.8216512195</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3401,19 +2959,11 @@
         <v>369640.9754973734</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3448,13 +2998,9 @@
         <v>39</v>
       </c>
       <c r="J79" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3483,15 +3029,17 @@
         <v>369650.9754973734</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J80" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3522,15 +3070,17 @@
         <v>371304.3207973734</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J81" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3561,17 +3111,15 @@
         <v>371304.3207973734</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J82" t="n">
         <v>39.4</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3156,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3647,7 +3195,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3681,14 +3229,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3295,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3798,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3837,14 +3361,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3394,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3915,14 +3427,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3460,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3493,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3526,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3559,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3658,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3691,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3724,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4305,14 +3757,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3823,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +3856,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +3889,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +3955,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4578,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +4021,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4656,14 +4054,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4770,17 +4150,11 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4848,17 +4216,11 @@
         <v>580859.5582227393</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4887,17 +4249,11 @@
         <v>602891.5582227393</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4926,17 +4282,11 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4965,17 +4315,11 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5004,17 +4348,11 @@
         <v>569234.0437227392</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5043,17 +4381,11 @@
         <v>568002.7007227392</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5082,17 +4414,11 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5121,17 +4447,11 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5160,17 +4480,11 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5199,17 +4513,11 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5238,17 +4546,11 @@
         <v>547378.6036227392</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5277,17 +4579,11 @@
         <v>554278.6036227392</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5316,17 +4612,11 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5358,14 +4648,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5397,14 +4681,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5436,14 +4714,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5475,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5514,14 +4780,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5553,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5592,14 +4846,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5631,14 +4879,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5670,14 +4912,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5709,14 +4945,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5748,14 +4978,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5787,14 +5011,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5826,14 +5044,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5865,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5904,14 +5110,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5943,14 +5143,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5982,14 +5176,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6021,14 +5209,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6099,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6138,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6177,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6255,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6294,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6333,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6372,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6411,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6450,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6489,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6528,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6567,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6606,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6645,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6684,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6723,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6762,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6801,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6840,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6879,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6918,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6957,14 +6001,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6996,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7035,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7074,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7113,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7152,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7191,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7230,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7269,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7308,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7347,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7386,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7425,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7464,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7503,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7542,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7581,14 +6529,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7620,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7659,14 +6595,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7698,14 +6628,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7737,14 +6661,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7776,14 +6694,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +6727,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7854,14 +6760,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7890,23 +6790,15 @@
         <v>914206.9208227393</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>1.073680203045685</v>
-      </c>
-      <c r="M193" t="n">
-        <v>1.036458333333333</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8129,7 +7021,7 @@
         <v>983098.8348359033</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8162,7 +7054,7 @@
         <v>983835.6831359032</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8195,7 +7087,7 @@
         <v>984230.9381359032</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8261,7 +7153,7 @@
         <v>970117.0767359033</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8294,7 +7186,7 @@
         <v>906076.3747359032</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8327,7 +7219,7 @@
         <v>910006.7254359032</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8360,7 +7252,7 @@
         <v>980656.7254359032</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8393,7 +7285,7 @@
         <v>993106.7254359032</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8426,7 +7318,7 @@
         <v>988893.4602359032</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8459,7 +7351,7 @@
         <v>1036927.849235903</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8470,6 +7362,6 @@
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -451,7 +451,7 @@
         <v>178066.9375999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>170453.7896999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38.9</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>172772.0393999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>232837.4638999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,17 @@
         <v>228020.246</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,17 @@
         <v>295170.7666</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,17 @@
         <v>295170.7666</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +802,17 @@
         <v>292634.4111</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,17 @@
         <v>299620.5870999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +880,17 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,17 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +997,17 @@
         <v>301626.6281</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2053,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2362,17 @@
         <v>409907.7033512195</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2401,17 @@
         <v>407683.6607512195</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2440,17 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2479,19 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2520,17 @@
         <v>404351.6608512196</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2559,19 @@
         <v>395277.7028512196</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2600,19 @@
         <v>385465.9124512196</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2641,19 @@
         <v>380405.3342512196</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2682,19 @@
         <v>361558.9618512196</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2723,19 @@
         <v>353476.7451512196</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2764,19 @@
         <v>343882.1270512196</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2805,19 @@
         <v>358718.1977512196</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>39</v>
+      </c>
+      <c r="J62" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2846,19 @@
         <v>364571.1977512196</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2887,19 @@
         <v>358875.8261512195</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2928,19 @@
         <v>353735.5269512195</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2969,19 @@
         <v>371938.4400512195</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>39</v>
+      </c>
+      <c r="J66" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3010,19 @@
         <v>362892.1560512196</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3051,19 @@
         <v>364166.7402512195</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3092,19 @@
         <v>370160.8968512195</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3133,19 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3174,19 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3215,19 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3256,19 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3297,19 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3338,19 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J75" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3379,19 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3420,19 @@
         <v>365794.8216512195</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3461,19 @@
         <v>369640.9754973734</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2998,9 +3508,13 @@
         <v>39</v>
       </c>
       <c r="J79" t="n">
-        <v>39</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +3549,11 @@
         <v>39.3</v>
       </c>
       <c r="J80" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3076,11 +3590,11 @@
         <v>39.3</v>
       </c>
       <c r="J81" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3117,9 +3631,13 @@
         <v>39.4</v>
       </c>
       <c r="J82" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3148,15 +3666,17 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J83" t="n">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3187,15 +3707,17 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J84" t="n">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3226,11 +3748,19 @@
         <v>401424.1939973733</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +3789,19 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3292,11 +3830,19 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3871,19 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3358,11 +3912,19 @@
         <v>489539.1328973733</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3953,19 @@
         <v>489549.1328973733</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3994,19 @@
         <v>518790.1328973733</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>40</v>
+      </c>
+      <c r="J91" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3457,11 +4035,19 @@
         <v>510270.1330973734</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +4076,19 @@
         <v>521333.0891973734</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +4117,19 @@
         <v>523777.0170227392</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J94" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3556,11 +4158,19 @@
         <v>521420.1269227392</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>41</v>
+      </c>
+      <c r="J95" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3592,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3625,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3658,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3691,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3724,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3757,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3790,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3823,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +4511,19 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J104" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4552,19 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4593,19 @@
         <v>547751.5853227392</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +4634,19 @@
         <v>548751.5853227392</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3988,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4021,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4054,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4087,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4870,17 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4948,17 @@
         <v>580859.5582227393</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4987,17 @@
         <v>602891.5582227393</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +5026,17 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +5065,17 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +5104,17 @@
         <v>569234.0437227392</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +5143,17 @@
         <v>568002.7007227392</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +5182,17 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +5221,17 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +5260,17 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +5299,17 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +5338,17 @@
         <v>547378.6036227392</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +5377,17 @@
         <v>554278.6036227392</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +5416,17 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +5458,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +5497,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4714,8 +5536,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4747,8 +5575,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5653,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4846,8 +5692,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4879,8 +5731,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +5770,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4945,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4978,8 +5848,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5011,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5110,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +6316,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5440,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6667,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6706,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6856,15 +8068,23 @@
         <v>965335.4046227393</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>1.105539845758355</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.01038961038961</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6889,7 +8109,7 @@
         <v>962885.4546227393</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6922,7 +8142,7 @@
         <v>974813.3542227393</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6955,7 +8175,7 @@
         <v>973647.9139227393</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6988,7 +8208,7 @@
         <v>989414.6048359033</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7021,7 +8241,7 @@
         <v>983098.8348359033</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7054,7 +8274,7 @@
         <v>983835.6831359032</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7087,7 +8307,7 @@
         <v>984230.9381359032</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7120,7 +8340,7 @@
         <v>976248.4160359033</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7153,7 +8373,7 @@
         <v>970117.0767359033</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7186,7 +8406,7 @@
         <v>906076.3747359032</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7219,7 +8439,7 @@
         <v>910006.7254359032</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7252,7 +8472,7 @@
         <v>980656.7254359032</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7285,7 +8505,7 @@
         <v>993106.7254359032</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7318,7 +8538,7 @@
         <v>988893.4602359032</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7351,7 +8571,7 @@
         <v>1036927.849235903</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest LRC.xlsx
+++ b/BackTest/2019-10-28 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>34043.2264</v>
       </c>
       <c r="G2" t="n">
-        <v>178066.9375999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>7613.1479</v>
       </c>
       <c r="G3" t="n">
-        <v>170453.7896999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>38.9</v>
       </c>
       <c r="I3" t="n">
         <v>38.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>2318.2497</v>
       </c>
       <c r="G4" t="n">
-        <v>172772.0393999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>38.5</v>
       </c>
       <c r="I4" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>38.9</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>60052.8869</v>
       </c>
       <c r="G5" t="n">
-        <v>232824.9262999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I5" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>30569.5506</v>
       </c>
       <c r="G6" t="n">
-        <v>232824.9262999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I6" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>12.5376</v>
       </c>
       <c r="G7" t="n">
-        <v>232837.4638999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I7" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,24 +659,23 @@
         <v>4817.2179</v>
       </c>
       <c r="G8" t="n">
-        <v>228020.246</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>39.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,24 +697,23 @@
         <v>67150.5206</v>
       </c>
       <c r="G9" t="n">
-        <v>295170.7666</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,24 +735,23 @@
         <v>33240.3062</v>
       </c>
       <c r="G10" t="n">
-        <v>295170.7666</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>39.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -799,24 +773,23 @@
         <v>2536.3555</v>
       </c>
       <c r="G11" t="n">
-        <v>292634.4111</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>39.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,24 +811,21 @@
         <v>6986.176</v>
       </c>
       <c r="G12" t="n">
-        <v>299620.5870999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -877,24 +847,21 @@
         <v>5990</v>
       </c>
       <c r="G13" t="n">
-        <v>293630.5870999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,24 +883,21 @@
         <v>8850</v>
       </c>
       <c r="G14" t="n">
-        <v>293630.5870999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,24 +919,21 @@
         <v>32100</v>
       </c>
       <c r="G15" t="n">
-        <v>293630.5870999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -994,24 +955,21 @@
         <v>7996.041</v>
       </c>
       <c r="G16" t="n">
-        <v>301626.6281</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1033,24 +991,21 @@
         <v>2869.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,24 +1027,21 @@
         <v>1729.9966</v>
       </c>
       <c r="G18" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1111,24 +1063,21 @@
         <v>9488.1245</v>
       </c>
       <c r="G19" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1150,24 +1099,21 @@
         <v>6982</v>
       </c>
       <c r="G20" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1189,24 +1135,21 @@
         <v>2424.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1228,24 +1171,21 @@
         <v>81</v>
       </c>
       <c r="G22" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1267,24 +1207,21 @@
         <v>0.1246</v>
       </c>
       <c r="G23" t="n">
-        <v>304496.628</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,24 +1243,21 @@
         <v>20720</v>
       </c>
       <c r="G24" t="n">
-        <v>283776.628</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1345,24 +1279,21 @@
         <v>29272.424</v>
       </c>
       <c r="G25" t="n">
-        <v>313049.052</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1384,24 +1315,21 @@
         <v>21150</v>
       </c>
       <c r="G26" t="n">
-        <v>334199.052</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1423,24 +1351,21 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>334099.052</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1462,24 +1387,21 @@
         <v>45750</v>
       </c>
       <c r="G28" t="n">
-        <v>379849.052</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1501,24 +1423,21 @@
         <v>5214.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>379849.052</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1540,24 +1459,21 @@
         <v>405.631</v>
       </c>
       <c r="G30" t="n">
-        <v>379443.421</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1579,24 +1495,21 @@
         <v>6500</v>
       </c>
       <c r="G31" t="n">
-        <v>379443.421</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,24 +1531,21 @@
         <v>1448.0746</v>
       </c>
       <c r="G32" t="n">
-        <v>377995.3464</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1657,24 +1567,21 @@
         <v>5882.3292</v>
       </c>
       <c r="G33" t="n">
-        <v>372113.0172</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1696,24 +1603,21 @@
         <v>410</v>
       </c>
       <c r="G34" t="n">
-        <v>372523.0172</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1735,24 +1639,21 @@
         <v>4368</v>
       </c>
       <c r="G35" t="n">
-        <v>368155.0172</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,24 +1675,21 @@
         <v>1543</v>
       </c>
       <c r="G36" t="n">
-        <v>368155.0172</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1813,24 +1711,21 @@
         <v>16050</v>
       </c>
       <c r="G37" t="n">
-        <v>352105.0172</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1852,24 +1747,21 @@
         <v>24.3902</v>
       </c>
       <c r="G38" t="n">
-        <v>352129.4074</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1891,24 +1783,21 @@
         <v>1200.8568</v>
       </c>
       <c r="G39" t="n">
-        <v>352129.4074</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1930,24 +1819,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>352119.4074</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1969,24 +1855,21 @@
         <v>2.2549</v>
       </c>
       <c r="G41" t="n">
-        <v>352119.4074</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,24 +1891,21 @@
         <v>492.61</v>
       </c>
       <c r="G42" t="n">
-        <v>351626.7974</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2047,24 +1927,21 @@
         <v>12.3762</v>
       </c>
       <c r="G43" t="n">
-        <v>351614.4212</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,24 +1963,21 @@
         <v>59825.4599</v>
       </c>
       <c r="G44" t="n">
-        <v>411439.8811000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2125,24 +1999,21 @@
         <v>1026.121951219512</v>
       </c>
       <c r="G45" t="n">
-        <v>412466.0030512196</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,24 +2035,21 @@
         <v>18456.33404878049</v>
       </c>
       <c r="G46" t="n">
-        <v>412466.0030512196</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2203,24 +2071,21 @@
         <v>10804.1648</v>
       </c>
       <c r="G47" t="n">
-        <v>412466.0030512196</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2242,24 +2107,21 @@
         <v>9983.1648</v>
       </c>
       <c r="G48" t="n">
-        <v>402482.8382512195</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,24 +2143,21 @@
         <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>402498.8382512195</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,24 +2179,21 @@
         <v>1441.1349</v>
       </c>
       <c r="G50" t="n">
-        <v>401057.7033512195</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,24 +2215,21 @@
         <v>8850</v>
       </c>
       <c r="G51" t="n">
-        <v>409907.7033512195</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2398,24 +2251,21 @@
         <v>2224.0426</v>
       </c>
       <c r="G52" t="n">
-        <v>407683.6607512195</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2437,24 +2287,21 @@
         <v>3341.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>404341.6608512196</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,26 +2323,21 @@
         <v>13471.7775</v>
       </c>
       <c r="G54" t="n">
-        <v>404341.6608512196</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2517,24 +2359,21 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>404351.6608512196</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2556,26 +2395,21 @@
         <v>9073.958000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>395277.7028512196</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2597,26 +2431,21 @@
         <v>9811.7904</v>
       </c>
       <c r="G57" t="n">
-        <v>385465.9124512196</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2638,26 +2467,21 @@
         <v>5060.5782</v>
       </c>
       <c r="G58" t="n">
-        <v>380405.3342512196</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2679,26 +2503,21 @@
         <v>18846.3724</v>
       </c>
       <c r="G59" t="n">
-        <v>361558.9618512196</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2720,26 +2539,21 @@
         <v>8082.2167</v>
       </c>
       <c r="G60" t="n">
-        <v>353476.7451512196</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2761,26 +2575,21 @@
         <v>9594.6181</v>
       </c>
       <c r="G61" t="n">
-        <v>343882.1270512196</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2802,26 +2611,21 @@
         <v>14836.0707</v>
       </c>
       <c r="G62" t="n">
-        <v>358718.1977512196</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>39</v>
-      </c>
-      <c r="J62" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2843,26 +2647,21 @@
         <v>5853</v>
       </c>
       <c r="G63" t="n">
-        <v>364571.1977512196</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2884,26 +2683,21 @@
         <v>5695.3716</v>
       </c>
       <c r="G64" t="n">
-        <v>358875.8261512195</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2925,26 +2719,21 @@
         <v>5140.2992</v>
       </c>
       <c r="G65" t="n">
-        <v>353735.5269512195</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2966,26 +2755,21 @@
         <v>18202.9131</v>
       </c>
       <c r="G66" t="n">
-        <v>371938.4400512195</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>39</v>
-      </c>
-      <c r="J66" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3007,26 +2791,23 @@
         <v>9046.284</v>
       </c>
       <c r="G67" t="n">
-        <v>362892.1560512196</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>39.2</v>
       </c>
       <c r="I67" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3048,26 +2829,23 @@
         <v>1274.5842</v>
       </c>
       <c r="G68" t="n">
-        <v>364166.7402512195</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>39.1</v>
       </c>
       <c r="I68" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3089,26 +2867,21 @@
         <v>5994.1566</v>
       </c>
       <c r="G69" t="n">
-        <v>370160.8968512195</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3130,26 +2903,21 @@
         <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>370180.8968512195</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3171,26 +2939,21 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>370180.8968512195</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3212,26 +2975,21 @@
         <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>370180.8968512195</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3253,26 +3011,21 @@
         <v>8238.9252</v>
       </c>
       <c r="G73" t="n">
-        <v>370180.8968512195</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3294,26 +3047,21 @@
         <v>4398.6128</v>
       </c>
       <c r="G74" t="n">
-        <v>365782.2840512195</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3335,26 +3083,23 @@
         <v>82</v>
       </c>
       <c r="G75" t="n">
-        <v>365782.2840512195</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I75" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3376,26 +3121,23 @@
         <v>165</v>
       </c>
       <c r="G76" t="n">
-        <v>365782.2840512195</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I76" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3417,26 +3159,23 @@
         <v>12.5376</v>
       </c>
       <c r="G77" t="n">
-        <v>365794.8216512195</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I77" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3458,26 +3197,23 @@
         <v>3846.153846153846</v>
       </c>
       <c r="G78" t="n">
-        <v>369640.9754973734</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>38.8</v>
       </c>
       <c r="I78" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3499,26 +3235,23 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>369650.9754973734</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I79" t="n">
-        <v>39</v>
-      </c>
-      <c r="J79" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3540,26 +3273,23 @@
         <v>584.9605</v>
       </c>
       <c r="G80" t="n">
-        <v>369650.9754973734</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="I80" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3581,26 +3311,23 @@
         <v>1653.3453</v>
       </c>
       <c r="G81" t="n">
-        <v>371304.3207973734</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="I81" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3622,26 +3349,21 @@
         <v>790</v>
       </c>
       <c r="G82" t="n">
-        <v>371304.3207973734</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3663,26 +3385,23 @@
         <v>17450.9999</v>
       </c>
       <c r="G83" t="n">
-        <v>388755.3206973734</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I83" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3704,26 +3423,23 @@
         <v>849.1204</v>
       </c>
       <c r="G84" t="n">
-        <v>388755.3206973734</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>39.5</v>
       </c>
       <c r="I84" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3745,26 +3461,23 @@
         <v>12668.8733</v>
       </c>
       <c r="G85" t="n">
-        <v>401424.1939973733</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>39.5</v>
       </c>
       <c r="I85" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3786,26 +3499,23 @@
         <v>81804</v>
       </c>
       <c r="G86" t="n">
-        <v>483228.1939973733</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>39.6</v>
       </c>
       <c r="I86" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3827,26 +3537,23 @@
         <v>27951</v>
       </c>
       <c r="G87" t="n">
-        <v>483228.1939973733</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>39.7</v>
       </c>
       <c r="I87" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3868,26 +3575,23 @@
         <v>952.1566</v>
       </c>
       <c r="G88" t="n">
-        <v>483228.1939973733</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>39.7</v>
       </c>
       <c r="I88" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3909,26 +3613,21 @@
         <v>6310.9389</v>
       </c>
       <c r="G89" t="n">
-        <v>489539.1328973733</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3950,26 +3649,21 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>489549.1328973733</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3991,26 +3685,21 @@
         <v>29241</v>
       </c>
       <c r="G91" t="n">
-        <v>518790.1328973733</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>40</v>
-      </c>
-      <c r="J91" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4032,26 +3721,21 @@
         <v>8519.9998</v>
       </c>
       <c r="G92" t="n">
-        <v>510270.1330973734</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4073,26 +3757,23 @@
         <v>11062.9561</v>
       </c>
       <c r="G93" t="n">
-        <v>521333.0891973734</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>40.1</v>
       </c>
       <c r="I93" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4114,26 +3795,21 @@
         <v>2443.927825365854</v>
       </c>
       <c r="G94" t="n">
-        <v>523777.0170227392</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4155,26 +3831,21 @@
         <v>2356.8901</v>
       </c>
       <c r="G95" t="n">
-        <v>521420.1269227392</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>41</v>
-      </c>
-      <c r="J95" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4196,24 +3867,21 @@
         <v>5815.2535</v>
       </c>
       <c r="G96" t="n">
-        <v>515604.8734227392</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4235,24 +3903,21 @@
         <v>5233.7281</v>
       </c>
       <c r="G97" t="n">
-        <v>510371.1453227392</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4274,24 +3939,21 @@
         <v>8403.729600000001</v>
       </c>
       <c r="G98" t="n">
-        <v>518774.8749227392</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4313,24 +3975,21 @@
         <v>2290.7713</v>
       </c>
       <c r="G99" t="n">
-        <v>518774.8749227392</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4352,24 +4011,21 @@
         <v>1907.6939</v>
       </c>
       <c r="G100" t="n">
-        <v>516867.1810227392</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4391,24 +4047,21 @@
         <v>1623</v>
       </c>
       <c r="G101" t="n">
-        <v>518490.1810227392</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4430,24 +4083,21 @@
         <v>1173.8099</v>
       </c>
       <c r="G102" t="n">
-        <v>517316.3711227392</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4469,24 +4119,21 @@
         <v>238.2805</v>
       </c>
       <c r="G103" t="n">
-        <v>517316.3711227392</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4508,26 +4155,21 @@
         <v>1808.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>517316.3711227392</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4549,26 +4191,21 @@
         <v>22262.8998</v>
       </c>
       <c r="G105" t="n">
-        <v>517316.3711227392</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4590,26 +4227,21 @@
         <v>30435.2142</v>
       </c>
       <c r="G106" t="n">
-        <v>547751.5853227392</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J106" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4631,26 +4263,21 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>548751.5853227392</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>38.9</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4672,24 +4299,21 @@
         <v>3867.7194</v>
       </c>
       <c r="G108" t="n">
-        <v>548751.5853227392</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4711,24 +4335,21 @@
         <v>2726.2231</v>
       </c>
       <c r="G109" t="n">
-        <v>551477.8084227392</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4750,24 +4371,21 @@
         <v>817.4386</v>
       </c>
       <c r="G110" t="n">
-        <v>551477.8084227392</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4789,24 +4407,21 @@
         <v>91588.1452</v>
       </c>
       <c r="G111" t="n">
-        <v>551477.8084227392</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4828,24 +4443,21 @@
         <v>17800.0069</v>
       </c>
       <c r="G112" t="n">
-        <v>569277.8153227392</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4867,24 +4479,21 @@
         <v>6072.8973</v>
       </c>
       <c r="G113" t="n">
-        <v>569277.8153227392</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4906,24 +4515,21 @@
         <v>17794.0579</v>
       </c>
       <c r="G114" t="n">
-        <v>587071.8732227392</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4945,24 +4551,21 @@
         <v>6212.315</v>
       </c>
       <c r="G115" t="n">
-        <v>580859.5582227393</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4984,24 +4587,21 @@
         <v>22032</v>
       </c>
       <c r="G116" t="n">
-        <v>602891.5582227393</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5023,24 +4623,21 @@
         <v>33667.5145</v>
       </c>
       <c r="G117" t="n">
-        <v>569224.0437227392</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5062,24 +4659,21 @@
         <v>35660.361</v>
       </c>
       <c r="G118" t="n">
-        <v>569224.0437227392</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5101,24 +4695,21 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>569234.0437227392</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5140,24 +4731,21 @@
         <v>1231.343</v>
       </c>
       <c r="G120" t="n">
-        <v>568002.7007227392</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5179,24 +4767,21 @@
         <v>10000</v>
       </c>
       <c r="G121" t="n">
-        <v>558002.7007227392</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5218,24 +4803,21 @@
         <v>516.8754</v>
       </c>
       <c r="G122" t="n">
-        <v>558002.7007227392</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5257,24 +4839,21 @@
         <v>11855.4401</v>
       </c>
       <c r="G123" t="n">
-        <v>546147.2606227392</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5296,24 +4875,21 @@
         <v>53359.4808</v>
       </c>
       <c r="G124" t="n">
-        <v>546147.2606227392</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5335,24 +4911,21 @@
         <v>1231.343</v>
       </c>
       <c r="G125" t="n">
-        <v>547378.6036227392</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5374,24 +4947,21 @@
         <v>6900</v>
       </c>
       <c r="G126" t="n">
-        <v>554278.6036227392</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5413,24 +4983,21 @@
         <v>36300</v>
       </c>
       <c r="G127" t="n">
-        <v>590578.6036227392</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5452,24 +5019,21 @@
         <v>3650</v>
       </c>
       <c r="G128" t="n">
-        <v>590578.6036227392</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5491,24 +5055,21 @@
         <v>9600</v>
       </c>
       <c r="G129" t="n">
-        <v>590578.6036227392</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5530,24 +5091,21 @@
         <v>21806.2962</v>
       </c>
       <c r="G130" t="n">
-        <v>612384.8998227392</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5569,24 +5127,21 @@
         <v>18300</v>
       </c>
       <c r="G131" t="n">
-        <v>630684.8998227392</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5608,24 +5163,21 @@
         <v>23116.7961</v>
       </c>
       <c r="G132" t="n">
-        <v>630684.8998227392</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5647,24 +5199,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>630674.8998227392</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5686,24 +5235,21 @@
         <v>7534.5169</v>
       </c>
       <c r="G134" t="n">
-        <v>630674.8998227392</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5725,24 +5271,21 @@
         <v>49.261</v>
       </c>
       <c r="G135" t="n">
-        <v>630625.6388227391</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5764,24 +5307,21 @@
         <v>1436.9376</v>
       </c>
       <c r="G136" t="n">
-        <v>630625.6388227391</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5803,24 +5343,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>630615.6388227391</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5842,24 +5379,21 @@
         <v>17700</v>
       </c>
       <c r="G138" t="n">
-        <v>648315.6388227391</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5881,24 +5415,21 @@
         <v>142504.7877</v>
       </c>
       <c r="G139" t="n">
-        <v>790820.4265227391</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5920,24 +5451,21 @@
         <v>2642.3467</v>
       </c>
       <c r="G140" t="n">
-        <v>788178.0798227391</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5959,24 +5487,21 @@
         <v>4518.4132</v>
       </c>
       <c r="G141" t="n">
-        <v>788178.0798227391</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5998,24 +5523,21 @@
         <v>1211</v>
       </c>
       <c r="G142" t="n">
-        <v>788178.0798227391</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6037,24 +5559,21 @@
         <v>8100</v>
       </c>
       <c r="G143" t="n">
-        <v>796278.0798227391</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6076,24 +5595,21 @@
         <v>3976</v>
       </c>
       <c r="G144" t="n">
-        <v>792302.0798227391</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6115,24 +5631,21 @@
         <v>12.1359</v>
       </c>
       <c r="G145" t="n">
-        <v>792289.9439227391</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6154,24 +5667,21 @@
         <v>12.1654</v>
       </c>
       <c r="G146" t="n">
-        <v>792277.7785227391</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6193,24 +5703,21 @@
         <v>24.3902</v>
       </c>
       <c r="G147" t="n">
-        <v>792253.388322739</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6232,24 +5739,21 @@
         <v>23059.0041</v>
       </c>
       <c r="G148" t="n">
-        <v>769194.384222739</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6271,24 +5775,21 @@
         <v>15993</v>
       </c>
       <c r="G149" t="n">
-        <v>769194.384222739</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6310,24 +5811,21 @@
         <v>22218.3372</v>
       </c>
       <c r="G150" t="n">
-        <v>746976.0470227391</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6349,24 +5847,21 @@
         <v>1016.1053</v>
       </c>
       <c r="G151" t="n">
-        <v>747992.1523227391</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6388,24 +5883,21 @@
         <v>36150</v>
       </c>
       <c r="G152" t="n">
-        <v>711842.1523227391</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6427,24 +5919,21 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>711853.1523227391</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6466,24 +5955,21 @@
         <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>708853.1523227391</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6505,24 +5991,21 @@
         <v>123.5241</v>
       </c>
       <c r="G155" t="n">
-        <v>708976.6764227392</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6544,24 +6027,21 @@
         <v>18854.6806</v>
       </c>
       <c r="G156" t="n">
-        <v>708976.6764227392</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6583,24 +6063,21 @@
         <v>4975.0623</v>
       </c>
       <c r="G157" t="n">
-        <v>704001.6141227392</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6622,24 +6099,21 @@
         <v>7795.18</v>
       </c>
       <c r="G158" t="n">
-        <v>704001.6141227392</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6661,24 +6135,21 @@
         <v>3512.994</v>
       </c>
       <c r="G159" t="n">
-        <v>704001.6141227392</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6700,24 +6171,21 @@
         <v>2400</v>
       </c>
       <c r="G160" t="n">
-        <v>701601.6141227392</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6739,24 +6207,21 @@
         <v>661.826</v>
       </c>
       <c r="G161" t="n">
-        <v>700939.7881227392</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6778,24 +6243,21 @@
         <v>11</v>
       </c>
       <c r="G162" t="n">
-        <v>700950.7881227392</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6817,24 +6279,21 @@
         <v>25</v>
       </c>
       <c r="G163" t="n">
-        <v>700975.7881227392</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6856,24 +6315,21 @@
         <v>5790.6316</v>
       </c>
       <c r="G164" t="n">
-        <v>695185.1565227392</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6895,24 +6351,21 @@
         <v>21253.277</v>
       </c>
       <c r="G165" t="n">
-        <v>716438.4335227392</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6934,24 +6387,21 @@
         <v>20700</v>
       </c>
       <c r="G166" t="n">
-        <v>737138.4335227392</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6973,24 +6423,21 @@
         <v>5700</v>
       </c>
       <c r="G167" t="n">
-        <v>742838.4335227392</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7012,24 +6459,21 @@
         <v>2250</v>
       </c>
       <c r="G168" t="n">
-        <v>745088.4335227392</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7051,24 +6495,21 @@
         <v>1363.8397</v>
       </c>
       <c r="G169" t="n">
-        <v>743724.5938227392</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7090,24 +6531,21 @@
         <v>1209.6956</v>
       </c>
       <c r="G170" t="n">
-        <v>742514.8982227392</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7129,24 +6567,21 @@
         <v>21947.6338</v>
       </c>
       <c r="G171" t="n">
-        <v>764462.5320227392</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7168,24 +6603,21 @@
         <v>1319</v>
       </c>
       <c r="G172" t="n">
-        <v>763143.5320227392</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7207,24 +6639,21 @@
         <v>100</v>
       </c>
       <c r="G173" t="n">
-        <v>763243.5320227392</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7246,24 +6675,21 @@
         <v>4933.2083</v>
       </c>
       <c r="G174" t="n">
-        <v>768176.7403227392</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7285,24 +6711,21 @@
         <v>14775.9999</v>
       </c>
       <c r="G175" t="n">
-        <v>753400.7404227392</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7324,24 +6747,21 @@
         <v>9236.3264</v>
       </c>
       <c r="G176" t="n">
-        <v>744164.4140227392</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7363,24 +6783,21 @@
         <v>22713.7483</v>
       </c>
       <c r="G177" t="n">
-        <v>744164.4140227392</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7402,24 +6819,21 @@
         <v>7495.3883</v>
       </c>
       <c r="G178" t="n">
-        <v>751659.8023227392</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7441,24 +6855,21 @@
         <v>39900</v>
       </c>
       <c r="G179" t="n">
-        <v>791559.8023227392</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7480,24 +6891,21 @@
         <v>27308.2367</v>
       </c>
       <c r="G180" t="n">
-        <v>791559.8023227392</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7519,24 +6927,21 @@
         <v>94296.3855</v>
       </c>
       <c r="G181" t="n">
-        <v>885856.1878227391</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7558,24 +6963,21 @@
         <v>7607.4226</v>
       </c>
       <c r="G182" t="n">
-        <v>885856.1878227391</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7597,24 +6999,21 @@
         <v>23729.5949</v>
       </c>
       <c r="G183" t="n">
-        <v>909585.7827227392</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7636,24 +7035,21 @@
         <v>2156.1019</v>
       </c>
       <c r="G184" t="n">
-        <v>911741.8846227392</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7675,24 +7071,21 @@
         <v>2887</v>
       </c>
       <c r="G185" t="n">
-        <v>911741.8846227392</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7714,24 +7107,21 @@
         <v>8850</v>
       </c>
       <c r="G186" t="n">
-        <v>920591.8846227392</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7753,24 +7143,21 @@
         <v>20216.6604</v>
       </c>
       <c r="G187" t="n">
-        <v>900375.2242227391</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7792,24 +7179,21 @@
         <v>1009.6513</v>
       </c>
       <c r="G188" t="n">
-        <v>901384.8755227391</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7831,24 +7215,21 @@
         <v>1352.8277</v>
       </c>
       <c r="G189" t="n">
-        <v>902737.7032227392</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7870,24 +7251,21 @@
         <v>14960.7178</v>
       </c>
       <c r="G190" t="n">
-        <v>887776.9854227392</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7909,24 +7287,21 @@
         <v>24036.1445</v>
       </c>
       <c r="G191" t="n">
-        <v>911813.1299227392</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7948,24 +7323,21 @@
         <v>1373</v>
       </c>
       <c r="G192" t="n">
-        <v>911813.1299227392</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7987,24 +7359,21 @@
         <v>2393.7909</v>
       </c>
       <c r="G193" t="n">
-        <v>914206.9208227393</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8026,24 +7395,21 @@
         <v>675.9623</v>
       </c>
       <c r="G194" t="n">
-        <v>914206.9208227393</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8065,26 +7431,21 @@
         <v>51128.4838</v>
       </c>
       <c r="G195" t="n">
-        <v>965335.4046227393</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1.105539845758355</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1.01038961038961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8106,18 +7467,21 @@
         <v>2449.95</v>
       </c>
       <c r="G196" t="n">
-        <v>962885.4546227393</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8139,18 +7503,21 @@
         <v>11927.8996</v>
       </c>
       <c r="G197" t="n">
-        <v>974813.3542227393</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8172,18 +7539,21 @@
         <v>1165.4403</v>
       </c>
       <c r="G198" t="n">
-        <v>973647.9139227393</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8205,18 +7575,21 @@
         <v>15766.69091316397</v>
       </c>
       <c r="G199" t="n">
-        <v>989414.6048359033</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8238,18 +7611,23 @@
         <v>6315.77</v>
       </c>
       <c r="G200" t="n">
-        <v>983098.8348359033</v>
-      </c>
-      <c r="H200" t="n">
         <v>2</v>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1.077262210796915</v>
+      </c>
       <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>1.01038961038961</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8271,18 +7649,15 @@
         <v>736.8483</v>
       </c>
       <c r="G201" t="n">
-        <v>983835.6831359032</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8304,18 +7679,15 @@
         <v>395.255</v>
       </c>
       <c r="G202" t="n">
-        <v>984230.9381359032</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8337,18 +7709,15 @@
         <v>7982.5221</v>
       </c>
       <c r="G203" t="n">
-        <v>976248.4160359033</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8370,18 +7739,15 @@
         <v>6131.3393</v>
       </c>
       <c r="G204" t="n">
-        <v>970117.0767359033</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8403,18 +7769,15 @@
         <v>64040.702</v>
       </c>
       <c r="G205" t="n">
-        <v>906076.3747359032</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8436,18 +7799,15 @@
         <v>3930.3507</v>
       </c>
       <c r="G206" t="n">
-        <v>910006.7254359032</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8469,18 +7829,15 @@
         <v>70650</v>
       </c>
       <c r="G207" t="n">
-        <v>980656.7254359032</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8502,18 +7859,15 @@
         <v>12450</v>
       </c>
       <c r="G208" t="n">
-        <v>993106.7254359032</v>
-      </c>
-      <c r="H208" t="n">
         <v>2</v>
       </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8535,18 +7889,15 @@
         <v>4213.2652</v>
       </c>
       <c r="G209" t="n">
-        <v>988893.4602359032</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8568,18 +7919,15 @@
         <v>48034.389</v>
       </c>
       <c r="G210" t="n">
-        <v>1036927.849235903</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
